--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C200DFDB-C0C2-4984-ACAF-108A0556527E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7991041-B864-40DA-A575-100E701F8CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -43,15 +43,31 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={EFB69185-C1DE-40F7-8616-8CF0AAA0F16E}</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{EFB69185-C1DE-40F7-8616-8CF0AAA0F16E}">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{91DD9C37-52E2-43FC-8EFA-7560A8088EC4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Assumption - Half of Pumps&amp;Fan Energy is Cooling Energy</t>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+As per PoTENCIA space cooling projections multiplied by Factor to account for dwelling size</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -8532,7 +8548,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="732">
   <si>
     <t>Document type:</t>
   </si>
@@ -10403,12 +10419,6 @@
     <t>R-SW_Att_FPL_N1</t>
   </si>
   <si>
-    <t>Lights</t>
-  </si>
-  <si>
-    <t>P&amp;F</t>
-  </si>
-  <si>
     <t>Residential  Stove New 1 - SH</t>
   </si>
   <si>
@@ -10721,9 +10731,6 @@
     <t>û</t>
   </si>
   <si>
-    <t>All rights reserved - No third party may rely upon this document without the prior and express written agreement agreement of AECOM</t>
-  </si>
-  <si>
     <t>EU Appliances Data https://storage.topten.eu/source/files/WhiteGoods_in_Europe_June15.pdf &amp; Website</t>
   </si>
   <si>
@@ -10755,6 +10762,9 @@
   </si>
   <si>
     <t>Research purposes</t>
+  </si>
+  <si>
+    <t>All rights reserved - No third party may rely upon this document without the prior and express written agreement agreement of AECOM (only used for crosschecking)</t>
   </si>
 </sst>
 </file>
@@ -12494,7 +12504,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="565">
+  <cellXfs count="563">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -13435,6 +13445,25 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13477,18 +13506,6 @@
     <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13496,6 +13513,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13507,22 +13533,13 @@
     <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13534,10 +13551,19 @@
     <xf numFmtId="0" fontId="58" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13555,6 +13581,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13569,34 +13601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="26" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -14673,14 +14677,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="I7" dT="2021-01-21T15:17:09.58" personId="{00000000-0000-0000-0000-000000000000}" id="{EFB69185-C1DE-40F7-8616-8CF0AAA0F16E}">
-    <text>Assumption - Half of Pumps&amp;Fan Energy is Cooling Energy</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10">
@@ -14688,7 +14684,7 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -14839,14 +14835,14 @@
       <c r="F16" s="156"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="509" t="s">
+      <c r="A17" s="518" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="509"/>
-      <c r="C17" s="509"/>
-      <c r="D17" s="509"/>
-      <c r="E17" s="509"/>
-      <c r="F17" s="509"/>
+      <c r="B17" s="518"/>
+      <c r="C17" s="518"/>
+      <c r="D17" s="518"/>
+      <c r="E17" s="518"/>
+      <c r="F17" s="518"/>
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
       <c r="I17" s="159"/>
@@ -14884,13 +14880,13 @@
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="510" t="s">
+      <c r="B20" s="519" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="510"/>
-      <c r="D20" s="510"/>
-      <c r="E20" s="510"/>
-      <c r="F20" s="510"/>
+      <c r="C20" s="519"/>
+      <c r="D20" s="519"/>
+      <c r="E20" s="519"/>
+      <c r="F20" s="519"/>
       <c r="G20" s="163"/>
       <c r="H20" s="163"/>
       <c r="I20" s="164"/>
@@ -14904,13 +14900,13 @@
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="511" t="s">
+      <c r="B21" s="520" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="511"/>
-      <c r="D21" s="511"/>
-      <c r="E21" s="511"/>
-      <c r="F21" s="511"/>
+      <c r="C21" s="520"/>
+      <c r="D21" s="520"/>
+      <c r="E21" s="520"/>
+      <c r="F21" s="520"/>
       <c r="G21" s="163"/>
       <c r="H21" s="163"/>
       <c r="I21" s="164"/>
@@ -14924,20 +14920,20 @@
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="511" t="s">
+      <c r="B22" s="520" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="511"/>
-      <c r="D22" s="511"/>
-      <c r="E22" s="511"/>
-      <c r="F22" s="511"/>
+      <c r="C22" s="520"/>
+      <c r="D22" s="520"/>
+      <c r="E22" s="520"/>
+      <c r="F22" s="520"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="507" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C23" s="507"/>
       <c r="D23" s="507"/>
@@ -14948,33 +14944,33 @@
       <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="562" t="s">
-        <v>725</v>
-      </c>
-      <c r="C24" s="562"/>
-      <c r="D24" s="562"/>
+      <c r="B24" s="514" t="s">
+        <v>722</v>
+      </c>
+      <c r="C24" s="514"/>
+      <c r="D24" s="514"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="512"/>
-      <c r="B25" s="512"/>
-      <c r="C25" s="512"/>
-      <c r="D25" s="512"/>
-      <c r="E25" s="512"/>
-      <c r="F25" s="512"/>
+      <c r="A25" s="521"/>
+      <c r="B25" s="521"/>
+      <c r="C25" s="521"/>
+      <c r="D25" s="521"/>
+      <c r="E25" s="521"/>
+      <c r="F25" s="521"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="508"/>
-      <c r="B26" s="508"/>
-      <c r="C26" s="508"/>
-      <c r="D26" s="508"/>
-      <c r="E26" s="508"/>
-      <c r="F26" s="508"/>
+      <c r="A26" s="517"/>
+      <c r="B26" s="517"/>
+      <c r="C26" s="517"/>
+      <c r="D26" s="517"/>
+      <c r="E26" s="517"/>
+      <c r="F26" s="517"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="156"/>
@@ -15142,8 +15138,8 @@
   </sheetPr>
   <dimension ref="B1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15161,16 +15157,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="513" t="s">
+      <c r="B2" s="522" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="514"/>
-      <c r="D2" s="514"/>
-      <c r="E2" s="515"/>
-      <c r="G2" s="513" t="s">
+      <c r="C2" s="523"/>
+      <c r="D2" s="523"/>
+      <c r="E2" s="524"/>
+      <c r="G2" s="522" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="515"/>
+      <c r="H2" s="524"/>
       <c r="I2" s="166"/>
       <c r="J2" s="166"/>
       <c r="K2" s="167"/>
@@ -15453,10 +15449,10 @@
       <c r="E14" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="513" t="s">
+      <c r="G14" s="522" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="515"/>
+      <c r="H14" s="524"/>
     </row>
     <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="179" t="s">
@@ -15540,12 +15536,12 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="516" t="s">
+      <c r="B20" s="525" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="517"/>
-      <c r="D20" s="517"/>
-      <c r="E20" s="518"/>
+      <c r="C20" s="526"/>
+      <c r="D20" s="526"/>
+      <c r="E20" s="527"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="194" t="s">
@@ -15561,7 +15557,7 @@
         <v>192</v>
       </c>
       <c r="F21" s="197" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15577,28 +15573,28 @@
       <c r="E22" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="555" t="s">
+      <c r="F22" s="508" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="509" t="s">
+        <v>717</v>
+      </c>
+      <c r="C23" s="512" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="557" t="s">
+      <c r="D23" s="510">
+        <v>43952</v>
+      </c>
+      <c r="E23" s="511" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="516" t="s">
         <v>719</v>
       </c>
-      <c r="C23" s="560" t="s">
-        <v>720</v>
-      </c>
-      <c r="D23" s="558">
-        <v>43952</v>
-      </c>
-      <c r="E23" s="559" t="s">
-        <v>196</v>
-      </c>
-      <c r="F23" s="564" t="s">
-        <v>721</v>
-      </c>
       <c r="G23" s="165" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15614,8 +15610,8 @@
       <c r="E24" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="561" t="s">
-        <v>718</v>
+      <c r="F24" s="513" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15631,8 +15627,8 @@
       <c r="E25" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F25" s="561" t="s">
-        <v>718</v>
+      <c r="F25" s="513" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15648,8 +15644,8 @@
       <c r="E26" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="555" t="s">
-        <v>718</v>
+      <c r="F26" s="508" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15657,7 +15653,7 @@
         <v>216</v>
       </c>
       <c r="C27" s="209" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D27" s="208">
         <v>43983</v>
@@ -15665,16 +15661,16 @@
       <c r="E27" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="561" t="s">
-        <v>718</v>
+      <c r="F27" s="513" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="200" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C28" s="220" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D28" s="208">
         <v>43983</v>
@@ -15682,16 +15678,16 @@
       <c r="E28" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="555" t="s">
-        <v>718</v>
+      <c r="F28" s="508" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="165" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C29" s="220" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D29" s="208">
         <v>44013</v>
@@ -15699,45 +15695,45 @@
       <c r="E29" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="564" t="s">
-        <v>721</v>
+      <c r="F29" s="516" t="s">
+        <v>719</v>
       </c>
       <c r="G29" s="165" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="165" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C30" s="165" t="s">
-        <v>732</v>
-      </c>
-      <c r="D30" s="563">
+        <v>729</v>
+      </c>
+      <c r="D30" s="515">
         <v>44287</v>
       </c>
       <c r="E30" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="F30" s="555" t="s">
-        <v>718</v>
+      <c r="F30" s="508" t="s">
+        <v>716</v>
       </c>
       <c r="G30" s="165" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="513" t="s">
+      <c r="B36" s="522" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="514"/>
-      <c r="D36" s="514"/>
-      <c r="E36" s="515"/>
-      <c r="G36" s="519" t="s">
+      <c r="C36" s="523"/>
+      <c r="D36" s="523"/>
+      <c r="E36" s="524"/>
+      <c r="G36" s="528" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="520"/>
+      <c r="H36" s="529"/>
     </row>
     <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="210" t="s">
@@ -15835,8 +15831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <dimension ref="A2:AL103"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15896,13 +15892,13 @@
       <c r="J3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="521" t="s">
+      <c r="S3" s="530" t="s">
         <v>278</v>
       </c>
-      <c r="T3" s="521"/>
-      <c r="U3" s="521"/>
-      <c r="V3" s="521"/>
-      <c r="W3" s="521"/>
+      <c r="T3" s="530"/>
+      <c r="U3" s="530"/>
+      <c r="V3" s="530"/>
+      <c r="W3" s="530"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="19" t="s">
@@ -16026,8 +16022,8 @@
       <c r="G7" s="28"/>
       <c r="H7" s="66"/>
       <c r="I7" s="253">
-        <f>(AK23*N11)/2</f>
-        <v>2.1494423184792772E-4</v>
+        <f>0.000214944231847928*0.9</f>
+        <v>1.934498086631352E-4</v>
       </c>
       <c r="J7" s="60"/>
       <c r="S7" s="239" t="s">
@@ -16076,7 +16072,7 @@
         <v>123159.54010496697</v>
       </c>
     </row>
-    <row r="9" spans="3:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C9" s="66"/>
       <c r="D9" s="66"/>
       <c r="E9" s="27" t="s">
@@ -16086,16 +16082,10 @@
       <c r="G9" s="28"/>
       <c r="H9" s="66"/>
       <c r="I9" s="253">
-        <f>AJ22*N10</f>
-        <v>5.6296955912135845E-4</v>
+        <f>AJ22</f>
+        <v>1.4074238978033962E-3</v>
       </c>
       <c r="J9" s="60"/>
-      <c r="M9" s="522" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="522" t="s">
-        <v>71</v>
-      </c>
       <c r="S9" s="239" t="s">
         <v>267</v>
       </c>
@@ -16112,7 +16102,7 @@
         <v>592375.26452582516</v>
       </c>
     </row>
-    <row r="10" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:23" ht="15" x14ac:dyDescent="0.2">
       <c r="C10" s="89"/>
       <c r="D10" s="89"/>
       <c r="E10" s="122" t="s">
@@ -16122,16 +16112,10 @@
       <c r="G10" s="123"/>
       <c r="H10" s="89"/>
       <c r="I10" s="255">
-        <f>(AK23*N11)/2</f>
-        <v>2.1494423184792772E-4</v>
+        <f>(AK22)</f>
+        <v>1.0616640598224022E-3</v>
       </c>
       <c r="J10" s="98"/>
-      <c r="M10" s="230" t="s">
-        <v>616</v>
-      </c>
-      <c r="N10" s="231">
-        <v>0.4</v>
-      </c>
       <c r="S10" s="236" t="s">
         <v>268</v>
       </c>
@@ -16163,12 +16147,6 @@
       <c r="J11" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="233" t="s">
-        <v>617</v>
-      </c>
-      <c r="N11" s="556">
-        <v>0.6</v>
-      </c>
       <c r="S11" s="239" t="s">
         <v>269</v>
       </c>
@@ -16239,8 +16217,8 @@
       <c r="G13" s="28"/>
       <c r="H13" s="66"/>
       <c r="I13" s="253">
-        <f>(AK37*N11)/2</f>
-        <v>3.7440784810945435E-4</v>
+        <f>0.000214944231847928*1</f>
+        <v>2.1494423184792799E-4</v>
       </c>
       <c r="J13" s="60"/>
       <c r="S13" s="242" t="s">
@@ -16299,8 +16277,8 @@
       <c r="G15" s="28"/>
       <c r="H15" s="66"/>
       <c r="I15" s="253">
-        <f>AJ37*N10</f>
-        <v>8.258159899084647E-4</v>
+        <f>AJ37</f>
+        <v>2.0645399747711616E-3</v>
       </c>
       <c r="J15" s="60"/>
       <c r="S15" s="248" t="s">
@@ -16326,8 +16304,8 @@
       <c r="G16" s="123"/>
       <c r="H16" s="89"/>
       <c r="I16" s="255">
-        <f>(AK37*N11)/2</f>
-        <v>3.7440784810945435E-4</v>
+        <f>AK37</f>
+        <v>1.2480261603648479E-3</v>
       </c>
       <c r="J16" s="98"/>
     </row>
@@ -16386,8 +16364,8 @@
       <c r="G19" s="28"/>
       <c r="H19" s="66"/>
       <c r="I19" s="253">
-        <f>(AK52*N11)/2</f>
-        <v>3.9601185380309516E-4</v>
+        <f>0.000214944231847928*1.1</f>
+        <v>2.364386550327208E-4</v>
       </c>
       <c r="J19" s="60"/>
     </row>
@@ -16461,8 +16439,8 @@
       <c r="G21" s="28"/>
       <c r="H21" s="66"/>
       <c r="I21" s="253">
-        <f>AJ51*N10</f>
-        <v>1.4104960356347441E-3</v>
+        <f>AJ51</f>
+        <v>3.5262400890868602E-3</v>
       </c>
       <c r="J21" s="60"/>
       <c r="W21" s="5" t="s">
@@ -16512,8 +16490,8 @@
       <c r="G22" s="123"/>
       <c r="H22" s="89"/>
       <c r="I22" s="255">
-        <f>(AK52*N11)/2</f>
-        <v>3.9601185380309516E-4</v>
+        <f>AK51</f>
+        <v>1.8402541810083014E-3</v>
       </c>
       <c r="J22" s="98"/>
       <c r="V22" s="5" t="s">
@@ -18726,9 +18704,8 @@
     </row>
     <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="S3:W3"/>
-    <mergeCell ref="M9:N9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18906,34 +18883,34 @@
       <c r="G4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="529" t="s">
+      <c r="H4" s="537" t="s">
         <v>304</v>
       </c>
-      <c r="I4" s="530"/>
-      <c r="J4" s="530"/>
-      <c r="K4" s="531"/>
-      <c r="L4" s="529" t="s">
+      <c r="I4" s="538"/>
+      <c r="J4" s="538"/>
+      <c r="K4" s="539"/>
+      <c r="L4" s="537" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="530"/>
-      <c r="N4" s="530"/>
-      <c r="O4" s="531"/>
-      <c r="P4" s="529" t="s">
+      <c r="M4" s="538"/>
+      <c r="N4" s="538"/>
+      <c r="O4" s="539"/>
+      <c r="P4" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="530"/>
-      <c r="R4" s="530"/>
-      <c r="S4" s="531"/>
-      <c r="T4" s="529" t="s">
+      <c r="Q4" s="538"/>
+      <c r="R4" s="538"/>
+      <c r="S4" s="539"/>
+      <c r="T4" s="537" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="531"/>
-      <c r="V4" s="523" t="s">
+      <c r="U4" s="539"/>
+      <c r="V4" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="524"/>
-      <c r="X4" s="524"/>
-      <c r="Y4" s="525"/>
+      <c r="W4" s="541"/>
+      <c r="X4" s="541"/>
+      <c r="Y4" s="542"/>
       <c r="Z4" s="63"/>
       <c r="AA4" s="63"/>
       <c r="AB4" s="71" t="s">
@@ -19032,34 +19009,34 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="526" t="s">
+      <c r="H6" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="527"/>
-      <c r="J6" s="527"/>
-      <c r="K6" s="528"/>
-      <c r="L6" s="527" t="s">
+      <c r="I6" s="532"/>
+      <c r="J6" s="532"/>
+      <c r="K6" s="533"/>
+      <c r="L6" s="532" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="527"/>
-      <c r="N6" s="527"/>
-      <c r="O6" s="528"/>
-      <c r="P6" s="526" t="s">
+      <c r="M6" s="532"/>
+      <c r="N6" s="532"/>
+      <c r="O6" s="533"/>
+      <c r="P6" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="527"/>
-      <c r="R6" s="527"/>
-      <c r="S6" s="528"/>
-      <c r="T6" s="526" t="s">
+      <c r="Q6" s="532"/>
+      <c r="R6" s="532"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="531" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="528"/>
-      <c r="V6" s="526" t="s">
+      <c r="U6" s="533"/>
+      <c r="V6" s="531" t="s">
         <v>552</v>
       </c>
-      <c r="W6" s="527"/>
-      <c r="X6" s="527"/>
-      <c r="Y6" s="528"/>
+      <c r="W6" s="532"/>
+      <c r="X6" s="532"/>
+      <c r="Y6" s="533"/>
       <c r="Z6" s="64" t="s">
         <v>564</v>
       </c>
@@ -20450,7 +20427,7 @@
         <v>162</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G21" s="60" t="s">
         <v>298</v>
@@ -20831,7 +20808,7 @@
         <v>310</v>
       </c>
       <c r="F25" s="92" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G25" s="92" t="s">
         <v>298</v>
@@ -20944,7 +20921,7 @@
         <v>310</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>298</v>
@@ -21113,7 +21090,7 @@
         <v>314</v>
       </c>
       <c r="F28" s="124" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G28" s="101" t="s">
         <v>298</v>
@@ -21849,7 +21826,7 @@
         <v>5</v>
       </c>
       <c r="AK37" s="500" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AL37" s="501"/>
       <c r="AM37" s="501"/>
@@ -21861,54 +21838,54 @@
     </row>
     <row r="38" spans="3:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AK38" s="132" t="s">
+        <v>697</v>
+      </c>
+      <c r="AL38" s="132" t="s">
+        <v>698</v>
+      </c>
+      <c r="AM38" s="132" t="s">
         <v>699</v>
       </c>
-      <c r="AL38" s="132" t="s">
+      <c r="AN38" s="132" t="s">
         <v>700</v>
       </c>
-      <c r="AM38" s="132" t="s">
+      <c r="AO38" s="132" t="s">
         <v>701</v>
       </c>
-      <c r="AN38" s="132" t="s">
+      <c r="AP38" s="132" t="s">
         <v>702</v>
       </c>
-      <c r="AO38" s="132" t="s">
+      <c r="AQ38" s="132" t="s">
         <v>703</v>
       </c>
-      <c r="AP38" s="132" t="s">
+      <c r="AR38" s="132" t="s">
         <v>704</v>
-      </c>
-      <c r="AQ38" s="132" t="s">
-        <v>705</v>
-      </c>
-      <c r="AR38" s="132" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="39" spans="3:44" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="AK39" s="503" t="s">
+        <v>705</v>
+      </c>
+      <c r="AL39" s="503" t="s">
+        <v>706</v>
+      </c>
+      <c r="AM39" s="503" t="s">
         <v>707</v>
       </c>
-      <c r="AL39" s="503" t="s">
+      <c r="AN39" s="504" t="s">
+        <v>700</v>
+      </c>
+      <c r="AO39" s="504" t="s">
         <v>708</v>
       </c>
-      <c r="AM39" s="503" t="s">
+      <c r="AP39" s="504" t="s">
         <v>709</v>
       </c>
-      <c r="AN39" s="504" t="s">
-        <v>702</v>
-      </c>
-      <c r="AO39" s="504" t="s">
+      <c r="AQ39" s="504" t="s">
         <v>710</v>
       </c>
-      <c r="AP39" s="504" t="s">
+      <c r="AR39" s="504" t="s">
         <v>711</v>
-      </c>
-      <c r="AQ39" s="504" t="s">
-        <v>712</v>
-      </c>
-      <c r="AR39" s="504" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="40" spans="3:44" x14ac:dyDescent="0.2">
@@ -21920,10 +21897,10 @@
         <v>NRG</v>
       </c>
       <c r="AL40" s="505" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AM40" s="505" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AN40" s="506" t="s">
         <v>16</v>
@@ -22056,34 +22033,34 @@
       <c r="G42" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="529" t="s">
+      <c r="H42" s="537" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="530"/>
-      <c r="J42" s="530"/>
-      <c r="K42" s="531"/>
-      <c r="L42" s="529" t="s">
+      <c r="I42" s="538"/>
+      <c r="J42" s="538"/>
+      <c r="K42" s="539"/>
+      <c r="L42" s="537" t="s">
         <v>89</v>
       </c>
-      <c r="M42" s="530"/>
-      <c r="N42" s="530"/>
-      <c r="O42" s="531"/>
-      <c r="P42" s="529" t="s">
+      <c r="M42" s="538"/>
+      <c r="N42" s="538"/>
+      <c r="O42" s="539"/>
+      <c r="P42" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="530"/>
-      <c r="R42" s="530"/>
-      <c r="S42" s="531"/>
-      <c r="T42" s="529" t="s">
+      <c r="Q42" s="538"/>
+      <c r="R42" s="538"/>
+      <c r="S42" s="539"/>
+      <c r="T42" s="537" t="s">
         <v>91</v>
       </c>
-      <c r="U42" s="531"/>
-      <c r="V42" s="523" t="s">
+      <c r="U42" s="539"/>
+      <c r="V42" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="524"/>
-      <c r="X42" s="524"/>
-      <c r="Y42" s="525"/>
+      <c r="W42" s="541"/>
+      <c r="X42" s="541"/>
+      <c r="Y42" s="542"/>
       <c r="Z42" s="63"/>
       <c r="AA42" s="63"/>
       <c r="AB42" s="71" t="s">
@@ -22182,34 +22159,34 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="526" t="s">
+      <c r="H44" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="527"/>
-      <c r="J44" s="527"/>
-      <c r="K44" s="528"/>
-      <c r="L44" s="527" t="s">
+      <c r="I44" s="532"/>
+      <c r="J44" s="532"/>
+      <c r="K44" s="533"/>
+      <c r="L44" s="532" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="527"/>
-      <c r="N44" s="527"/>
-      <c r="O44" s="528"/>
-      <c r="P44" s="526" t="s">
+      <c r="M44" s="532"/>
+      <c r="N44" s="532"/>
+      <c r="O44" s="533"/>
+      <c r="P44" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="527"/>
-      <c r="R44" s="527"/>
-      <c r="S44" s="528"/>
-      <c r="T44" s="532" t="s">
+      <c r="Q44" s="532"/>
+      <c r="R44" s="532"/>
+      <c r="S44" s="533"/>
+      <c r="T44" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="U44" s="533"/>
-      <c r="V44" s="532" t="s">
+      <c r="U44" s="535"/>
+      <c r="V44" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="W44" s="534"/>
-      <c r="X44" s="534"/>
-      <c r="Y44" s="533"/>
+      <c r="W44" s="536"/>
+      <c r="X44" s="536"/>
+      <c r="Y44" s="535"/>
       <c r="Z44" s="389" t="s">
         <v>564</v>
       </c>
@@ -23509,7 +23486,7 @@
         <v>R-SH_Att_FPL_N1</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>613</v>
@@ -23600,7 +23577,7 @@
         <v>R-SW_Att_FPL_N1</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>613</v>
@@ -23699,7 +23676,7 @@
     </row>
     <row r="59" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="43" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D59" s="32" t="s">
         <v>296</v>
@@ -23793,7 +23770,7 @@
     </row>
     <row r="60" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>575</v>
@@ -24425,7 +24402,7 @@
         <v>162</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G67" s="60" t="s">
         <v>300</v>
@@ -24536,7 +24513,7 @@
         <v>603</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G68" s="61" t="s">
         <v>300</v>
@@ -24919,7 +24896,7 @@
         <v>310</v>
       </c>
       <c r="F72" s="92" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G72" s="92" t="s">
         <v>300</v>
@@ -25032,7 +25009,7 @@
         <v>310</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G73" s="30" t="s">
         <v>300</v>
@@ -25201,7 +25178,7 @@
         <v>314</v>
       </c>
       <c r="F75" s="124" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G75" s="101" t="s">
         <v>300</v>
@@ -25966,34 +25943,34 @@
       <c r="G90" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H90" s="529" t="s">
+      <c r="H90" s="537" t="s">
         <v>88</v>
       </c>
-      <c r="I90" s="530"/>
-      <c r="J90" s="530"/>
-      <c r="K90" s="531"/>
-      <c r="L90" s="529" t="s">
+      <c r="I90" s="538"/>
+      <c r="J90" s="538"/>
+      <c r="K90" s="539"/>
+      <c r="L90" s="537" t="s">
         <v>89</v>
       </c>
-      <c r="M90" s="530"/>
-      <c r="N90" s="530"/>
-      <c r="O90" s="531"/>
-      <c r="P90" s="529" t="s">
+      <c r="M90" s="538"/>
+      <c r="N90" s="538"/>
+      <c r="O90" s="539"/>
+      <c r="P90" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="Q90" s="530"/>
-      <c r="R90" s="530"/>
-      <c r="S90" s="531"/>
-      <c r="T90" s="529" t="s">
+      <c r="Q90" s="538"/>
+      <c r="R90" s="538"/>
+      <c r="S90" s="539"/>
+      <c r="T90" s="537" t="s">
         <v>91</v>
       </c>
-      <c r="U90" s="531"/>
-      <c r="V90" s="523" t="s">
+      <c r="U90" s="539"/>
+      <c r="V90" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="524"/>
-      <c r="X90" s="524"/>
-      <c r="Y90" s="525"/>
+      <c r="W90" s="541"/>
+      <c r="X90" s="541"/>
+      <c r="Y90" s="542"/>
       <c r="Z90" s="63"/>
       <c r="AA90" s="63"/>
       <c r="AB90" s="71" t="s">
@@ -26092,34 +26069,34 @@
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
-      <c r="H92" s="526" t="s">
+      <c r="H92" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="527"/>
-      <c r="J92" s="527"/>
-      <c r="K92" s="528"/>
-      <c r="L92" s="527" t="s">
+      <c r="I92" s="532"/>
+      <c r="J92" s="532"/>
+      <c r="K92" s="533"/>
+      <c r="L92" s="532" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="527"/>
-      <c r="N92" s="527"/>
-      <c r="O92" s="528"/>
-      <c r="P92" s="526" t="s">
+      <c r="M92" s="532"/>
+      <c r="N92" s="532"/>
+      <c r="O92" s="533"/>
+      <c r="P92" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="Q92" s="527"/>
-      <c r="R92" s="527"/>
-      <c r="S92" s="528"/>
-      <c r="T92" s="532" t="s">
+      <c r="Q92" s="532"/>
+      <c r="R92" s="532"/>
+      <c r="S92" s="533"/>
+      <c r="T92" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="U92" s="533"/>
-      <c r="V92" s="532" t="s">
+      <c r="U92" s="535"/>
+      <c r="V92" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="W92" s="534"/>
-      <c r="X92" s="534"/>
-      <c r="Y92" s="533"/>
+      <c r="W92" s="536"/>
+      <c r="X92" s="536"/>
+      <c r="Y92" s="535"/>
       <c r="Z92" s="389" t="s">
         <v>564</v>
       </c>
@@ -27419,7 +27396,7 @@
         <v>R-SH_Det_FPL_N1</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E105" s="33" t="s">
         <v>613</v>
@@ -27489,7 +27466,7 @@
       </c>
       <c r="AK105" s="112"/>
       <c r="AL105" s="459" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AM105" s="111" t="str">
         <f t="shared" si="69"/>
@@ -27510,7 +27487,7 @@
         <v>R-SW_Det_FPL_N1</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E106" s="27" t="s">
         <v>613</v>
@@ -27592,7 +27569,7 @@
       </c>
       <c r="AK106" s="112"/>
       <c r="AL106" s="459" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AM106" s="111" t="str">
         <f t="shared" si="69"/>
@@ -27609,7 +27586,7 @@
     </row>
     <row r="107" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D107" s="32" t="s">
         <v>296</v>
@@ -27703,7 +27680,7 @@
     </row>
     <row r="108" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>575</v>
@@ -28323,7 +28300,7 @@
         <v>162</v>
       </c>
       <c r="F115" s="27" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G115" s="60" t="s">
         <v>302</v>
@@ -28431,7 +28408,7 @@
         <v>603</v>
       </c>
       <c r="F116" s="33" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G116" s="61" t="s">
         <v>302</v>
@@ -28802,7 +28779,7 @@
         <v>310</v>
       </c>
       <c r="F120" s="92" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G120" s="92" t="s">
         <v>302</v>
@@ -28915,7 +28892,7 @@
         <v>310</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G121" s="30" t="s">
         <v>302</v>
@@ -29084,7 +29061,7 @@
         <v>314</v>
       </c>
       <c r="F123" s="124" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G123" s="101" t="s">
         <v>302</v>
@@ -30038,26 +30015,6 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -30068,6 +30025,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -30212,12 +30189,12 @@
       <c r="I5" s="130"/>
       <c r="J5" s="130"/>
       <c r="K5" s="130"/>
-      <c r="L5" s="523" t="s">
+      <c r="L5" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="524"/>
-      <c r="N5" s="524"/>
-      <c r="O5" s="525"/>
+      <c r="M5" s="541"/>
+      <c r="N5" s="541"/>
+      <c r="O5" s="542"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="63" t="s">
         <v>93</v>
@@ -30248,12 +30225,12 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="532" t="s">
+      <c r="L6" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="534"/>
-      <c r="N6" s="534"/>
-      <c r="O6" s="533"/>
+      <c r="M6" s="536"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="535"/>
       <c r="P6" s="389" t="s">
         <v>564</v>
       </c>
@@ -31139,23 +31116,23 @@
       <c r="K33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="523" t="s">
+      <c r="L33" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="M33" s="524"/>
-      <c r="N33" s="524"/>
-      <c r="O33" s="525"/>
+      <c r="M33" s="541"/>
+      <c r="N33" s="541"/>
+      <c r="O33" s="542"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="532" t="s">
+      <c r="L34" s="534" t="s">
         <v>97</v>
       </c>
-      <c r="M34" s="534"/>
-      <c r="N34" s="534"/>
-      <c r="O34" s="533"/>
+      <c r="M34" s="536"/>
+      <c r="N34" s="536"/>
+      <c r="O34" s="535"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
@@ -31496,16 +31473,16 @@
       <c r="G4" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="529" t="s">
+      <c r="H4" s="537" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="530"/>
-      <c r="J4" s="531"/>
-      <c r="K4" s="523" t="s">
+      <c r="I4" s="538"/>
+      <c r="J4" s="539"/>
+      <c r="K4" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="524"/>
-      <c r="M4" s="525"/>
+      <c r="L4" s="541"/>
+      <c r="M4" s="542"/>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>93</v>
@@ -31531,16 +31508,16 @@
       <c r="G5" s="397" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="535" t="s">
+      <c r="H5" s="546" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="536"/>
-      <c r="J5" s="537"/>
-      <c r="K5" s="535" t="s">
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="546" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="536"/>
-      <c r="M5" s="537"/>
+      <c r="L5" s="547"/>
+      <c r="M5" s="548"/>
       <c r="N5" s="398" t="s">
         <v>98</v>
       </c>
@@ -31557,23 +31534,23 @@
         <v>226</v>
       </c>
       <c r="AA5" s="220"/>
-      <c r="AB5" s="538" t="s">
+      <c r="AB5" s="543" t="s">
         <v>594</v>
       </c>
-      <c r="AC5" s="538"/>
+      <c r="AC5" s="543"/>
       <c r="AD5" s="400"/>
-      <c r="AE5" s="539" t="s">
+      <c r="AE5" s="544" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="539"/>
-      <c r="AG5" s="539" t="s">
+      <c r="AF5" s="544"/>
+      <c r="AG5" s="544" t="s">
         <v>595</v>
       </c>
-      <c r="AH5" s="539"/>
-      <c r="AI5" s="540" t="s">
+      <c r="AH5" s="544"/>
+      <c r="AI5" s="545" t="s">
         <v>596</v>
       </c>
-      <c r="AJ5" s="540"/>
+      <c r="AJ5" s="545"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="444" t="str">
@@ -32311,12 +32288,12 @@
       <c r="K27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="523" t="s">
+      <c r="L27" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="524"/>
-      <c r="N27" s="524"/>
-      <c r="O27" s="525"/>
+      <c r="M27" s="541"/>
+      <c r="N27" s="541"/>
+      <c r="O27" s="542"/>
       <c r="T27" s="222"/>
       <c r="U27" s="222"/>
     </row>
@@ -32324,12 +32301,12 @@
       <c r="J28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="526" t="s">
+      <c r="L28" s="531" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="527"/>
-      <c r="N28" s="527"/>
-      <c r="O28" s="528"/>
+      <c r="M28" s="532"/>
+      <c r="N28" s="532"/>
+      <c r="O28" s="533"/>
       <c r="T28" s="222"/>
       <c r="U28" s="222"/>
     </row>
@@ -33719,16 +33696,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -34158,128 +34135,128 @@
       <c r="C4" s="295" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="541" t="s">
+      <c r="D4" s="550" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="542"/>
-      <c r="F4" s="542"/>
-      <c r="G4" s="542"/>
-      <c r="H4" s="543"/>
-      <c r="I4" s="542" t="s">
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
+      <c r="H4" s="551"/>
+      <c r="I4" s="549" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="542"/>
-      <c r="K4" s="542"/>
-      <c r="L4" s="542"/>
-      <c r="M4" s="543"/>
-      <c r="N4" s="542" t="s">
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
+      <c r="L4" s="549"/>
+      <c r="M4" s="551"/>
+      <c r="N4" s="549" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="542"/>
-      <c r="P4" s="542"/>
-      <c r="Q4" s="542"/>
-      <c r="R4" s="543"/>
-      <c r="S4" s="542" t="s">
+      <c r="O4" s="549"/>
+      <c r="P4" s="549"/>
+      <c r="Q4" s="549"/>
+      <c r="R4" s="551"/>
+      <c r="S4" s="549" t="s">
         <v>354</v>
       </c>
-      <c r="T4" s="542"/>
-      <c r="U4" s="542"/>
-      <c r="V4" s="542"/>
-      <c r="W4" s="543"/>
-      <c r="X4" s="542" t="s">
+      <c r="T4" s="549"/>
+      <c r="U4" s="549"/>
+      <c r="V4" s="549"/>
+      <c r="W4" s="551"/>
+      <c r="X4" s="549" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" s="542"/>
-      <c r="Z4" s="542"/>
-      <c r="AA4" s="542"/>
-      <c r="AB4" s="543"/>
-      <c r="AC4" s="542" t="s">
+      <c r="Y4" s="549"/>
+      <c r="Z4" s="549"/>
+      <c r="AA4" s="549"/>
+      <c r="AB4" s="551"/>
+      <c r="AC4" s="549" t="s">
         <v>356</v>
       </c>
-      <c r="AD4" s="542"/>
-      <c r="AE4" s="542"/>
-      <c r="AF4" s="542"/>
-      <c r="AG4" s="543"/>
-      <c r="AH4" s="542" t="s">
+      <c r="AD4" s="549"/>
+      <c r="AE4" s="549"/>
+      <c r="AF4" s="549"/>
+      <c r="AG4" s="551"/>
+      <c r="AH4" s="549" t="s">
         <v>357</v>
       </c>
-      <c r="AI4" s="542"/>
-      <c r="AJ4" s="542"/>
-      <c r="AK4" s="542"/>
-      <c r="AL4" s="543"/>
-      <c r="AM4" s="542" t="s">
+      <c r="AI4" s="549"/>
+      <c r="AJ4" s="549"/>
+      <c r="AK4" s="549"/>
+      <c r="AL4" s="551"/>
+      <c r="AM4" s="549" t="s">
         <v>358</v>
       </c>
-      <c r="AN4" s="542"/>
-      <c r="AO4" s="542"/>
-      <c r="AP4" s="542"/>
-      <c r="AQ4" s="543"/>
-      <c r="AR4" s="542" t="s">
+      <c r="AN4" s="549"/>
+      <c r="AO4" s="549"/>
+      <c r="AP4" s="549"/>
+      <c r="AQ4" s="551"/>
+      <c r="AR4" s="549" t="s">
         <v>359</v>
       </c>
-      <c r="AS4" s="542"/>
-      <c r="AT4" s="542"/>
-      <c r="AU4" s="542"/>
-      <c r="AV4" s="543"/>
-      <c r="AW4" s="542" t="s">
+      <c r="AS4" s="549"/>
+      <c r="AT4" s="549"/>
+      <c r="AU4" s="549"/>
+      <c r="AV4" s="551"/>
+      <c r="AW4" s="549" t="s">
         <v>360</v>
       </c>
-      <c r="AX4" s="542"/>
-      <c r="AY4" s="542"/>
-      <c r="AZ4" s="542"/>
-      <c r="BA4" s="542"/>
-      <c r="BB4" s="541" t="s">
+      <c r="AX4" s="549"/>
+      <c r="AY4" s="549"/>
+      <c r="AZ4" s="549"/>
+      <c r="BA4" s="549"/>
+      <c r="BB4" s="550" t="s">
         <v>361</v>
       </c>
-      <c r="BC4" s="542"/>
-      <c r="BD4" s="542"/>
-      <c r="BE4" s="542"/>
-      <c r="BF4" s="543"/>
-      <c r="BG4" s="542" t="s">
+      <c r="BC4" s="549"/>
+      <c r="BD4" s="549"/>
+      <c r="BE4" s="549"/>
+      <c r="BF4" s="551"/>
+      <c r="BG4" s="549" t="s">
         <v>362</v>
       </c>
-      <c r="BH4" s="542"/>
-      <c r="BI4" s="542"/>
-      <c r="BJ4" s="542"/>
-      <c r="BK4" s="542"/>
-      <c r="BL4" s="541" t="s">
+      <c r="BH4" s="549"/>
+      <c r="BI4" s="549"/>
+      <c r="BJ4" s="549"/>
+      <c r="BK4" s="549"/>
+      <c r="BL4" s="550" t="s">
         <v>363</v>
       </c>
-      <c r="BM4" s="542"/>
-      <c r="BN4" s="542"/>
-      <c r="BO4" s="542"/>
-      <c r="BP4" s="542"/>
-      <c r="BQ4" s="541" t="s">
+      <c r="BM4" s="549"/>
+      <c r="BN4" s="549"/>
+      <c r="BO4" s="549"/>
+      <c r="BP4" s="549"/>
+      <c r="BQ4" s="550" t="s">
         <v>364</v>
       </c>
-      <c r="BR4" s="542"/>
-      <c r="BS4" s="542"/>
-      <c r="BT4" s="542"/>
-      <c r="BU4" s="543"/>
+      <c r="BR4" s="549"/>
+      <c r="BS4" s="549"/>
+      <c r="BT4" s="549"/>
+      <c r="BU4" s="551"/>
       <c r="BV4" s="296" t="s">
         <v>365</v>
       </c>
-      <c r="BW4" s="544" t="s">
+      <c r="BW4" s="552" t="s">
         <v>366</v>
       </c>
-      <c r="BX4" s="545"/>
-      <c r="BY4" s="545"/>
-      <c r="BZ4" s="545"/>
-      <c r="CA4" s="546"/>
-      <c r="CB4" s="544" t="s">
+      <c r="BX4" s="553"/>
+      <c r="BY4" s="553"/>
+      <c r="BZ4" s="553"/>
+      <c r="CA4" s="554"/>
+      <c r="CB4" s="552" t="s">
         <v>367</v>
       </c>
-      <c r="CC4" s="545"/>
-      <c r="CD4" s="545"/>
-      <c r="CE4" s="545"/>
-      <c r="CF4" s="546"/>
-      <c r="CG4" s="544" t="s">
+      <c r="CC4" s="553"/>
+      <c r="CD4" s="553"/>
+      <c r="CE4" s="553"/>
+      <c r="CF4" s="554"/>
+      <c r="CG4" s="552" t="s">
         <v>368</v>
       </c>
-      <c r="CH4" s="545"/>
-      <c r="CI4" s="545"/>
-      <c r="CJ4" s="545"/>
-      <c r="CK4" s="546"/>
+      <c r="CH4" s="553"/>
+      <c r="CI4" s="553"/>
+      <c r="CJ4" s="553"/>
+      <c r="CK4" s="554"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A5" s="298"/>
@@ -47848,6 +47825,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -47860,11 +47842,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -47875,7 +47852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C74-4930-4E02-A6A2-617D513D886A}">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
@@ -47886,23 +47863,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="548" t="s">
+      <c r="A1" s="558" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" s="560" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="562"/>
+      <c r="G1" s="560" t="s">
         <v>640</v>
       </c>
-      <c r="B1" s="550" t="s">
-        <v>641</v>
-      </c>
-      <c r="C1" s="551"/>
-      <c r="D1" s="551"/>
-      <c r="E1" s="551"/>
-      <c r="F1" s="552"/>
-      <c r="G1" s="550" t="s">
-        <v>642</v>
-      </c>
-      <c r="H1" s="551"/>
-      <c r="I1" s="551"/>
-      <c r="J1" s="551"/>
-      <c r="K1" s="552"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="562"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -47912,36 +47889,36 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="549"/>
+      <c r="A2" s="559"/>
       <c r="B2" s="466" t="s">
         <v>284</v>
       </c>
       <c r="C2" s="467" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" s="467" t="s">
+        <v>642</v>
+      </c>
+      <c r="E2" s="467" t="s">
         <v>643</v>
       </c>
-      <c r="D2" s="467" t="s">
+      <c r="F2" s="468" t="s">
         <v>644</v>
-      </c>
-      <c r="E2" s="467" t="s">
-        <v>645</v>
-      </c>
-      <c r="F2" s="468" t="s">
-        <v>646</v>
       </c>
       <c r="G2" s="466" t="s">
         <v>284</v>
       </c>
       <c r="H2" s="467" t="s">
+        <v>641</v>
+      </c>
+      <c r="I2" s="467" t="s">
+        <v>642</v>
+      </c>
+      <c r="J2" s="467" t="s">
         <v>643</v>
       </c>
-      <c r="I2" s="467" t="s">
+      <c r="K2" s="468" t="s">
         <v>644</v>
-      </c>
-      <c r="J2" s="467" t="s">
-        <v>645</v>
-      </c>
-      <c r="K2" s="468" t="s">
-        <v>646</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="469"/>
@@ -47953,7 +47930,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="470" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B3" s="471">
         <f>SUM(C3:F3)</f>
@@ -48058,12 +48035,12 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="547" t="s">
-        <v>643</v>
-      </c>
-      <c r="B7" s="547"/>
-      <c r="C7" s="547"/>
-      <c r="D7" s="547"/>
+      <c r="A7" s="555" t="s">
+        <v>641</v>
+      </c>
+      <c r="B7" s="555"/>
+      <c r="C7" s="555"/>
+      <c r="D7" s="555"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -48081,7 +48058,7 @@
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="479" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B8" s="479">
         <v>2015</v>
@@ -48109,7 +48086,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
@@ -48135,7 +48112,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="410">
@@ -48161,7 +48138,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5">
@@ -48189,7 +48166,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="410">
@@ -48216,7 +48193,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="410">
@@ -48243,7 +48220,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="480">
@@ -48271,7 +48248,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5">
@@ -48299,7 +48276,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B16" s="480">
         <f>C3</f>
@@ -48349,12 +48326,12 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="547" t="s">
-        <v>657</v>
-      </c>
-      <c r="B18" s="547"/>
-      <c r="C18" s="547"/>
-      <c r="D18" s="547"/>
+      <c r="A18" s="555" t="s">
+        <v>655</v>
+      </c>
+      <c r="B18" s="555"/>
+      <c r="C18" s="555"/>
+      <c r="D18" s="555"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -48372,7 +48349,7 @@
     </row>
     <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="479" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B19" s="479"/>
       <c r="C19" s="479">
@@ -48398,7 +48375,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5">
@@ -48426,7 +48403,7 @@
     </row>
     <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="481">
@@ -48452,7 +48429,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="1">
@@ -48480,7 +48457,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="465">
@@ -48506,7 +48483,7 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="1">
@@ -48534,7 +48511,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="465">
@@ -48562,7 +48539,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="480">
@@ -48609,12 +48586,12 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="547" t="s">
-        <v>665</v>
-      </c>
-      <c r="B28" s="547"/>
-      <c r="C28" s="547"/>
-      <c r="D28" s="547"/>
+      <c r="A28" s="555" t="s">
+        <v>663</v>
+      </c>
+      <c r="B28" s="555"/>
+      <c r="C28" s="555"/>
+      <c r="D28" s="555"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -48632,7 +48609,7 @@
     </row>
     <row r="29" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="479" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B29" s="479">
         <v>2015</v>
@@ -48660,21 +48637,21 @@
       <c r="T29" s="460"/>
       <c r="U29" s="461"/>
       <c r="V29" s="462" t="s">
+        <v>624</v>
+      </c>
+      <c r="W29" s="462" t="s">
+        <v>625</v>
+      </c>
+      <c r="X29" s="462" t="s">
         <v>626</v>
       </c>
-      <c r="W29" s="462" t="s">
+      <c r="Y29" s="462" t="s">
         <v>627</v>
-      </c>
-      <c r="X29" s="462" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y29" s="462" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B30" s="5">
         <v>18</v>
@@ -48703,24 +48680,24 @@
       <c r="R30" s="5"/>
       <c r="T30" s="460"/>
       <c r="U30" s="460" t="s">
+        <v>628</v>
+      </c>
+      <c r="V30" s="460" t="s">
+        <v>629</v>
+      </c>
+      <c r="W30" s="460" t="s">
         <v>630</v>
       </c>
-      <c r="V30" s="460" t="s">
+      <c r="X30" s="460" t="s">
         <v>631</v>
       </c>
-      <c r="W30" s="460" t="s">
+      <c r="Y30" s="460" t="s">
         <v>632</v>
-      </c>
-      <c r="X30" s="460" t="s">
-        <v>633</v>
-      </c>
-      <c r="Y30" s="460" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B31" s="410">
         <v>0.25</v>
@@ -48748,7 +48725,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="T31" s="461" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="U31" s="460">
         <v>311.65399600000001</v>
@@ -48768,7 +48745,7 @@
     </row>
     <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B32" s="465">
         <f>B30/B31</f>
@@ -48797,7 +48774,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="T32" s="461" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="U32" s="463">
         <v>2.9555506715861044E-3</v>
@@ -48819,12 +48796,12 @@
         <v>0.65097749291433249</v>
       </c>
       <c r="AD32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B33" s="410">
         <v>0.8</v>
@@ -48873,7 +48850,7 @@
     </row>
     <row r="34" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B34" s="410">
         <v>0.7</v>
@@ -48901,7 +48878,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="T34" s="461" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="U34" s="460"/>
       <c r="V34" s="460">
@@ -48919,7 +48896,7 @@
     </row>
     <row r="35" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B35" s="465">
         <f>(B32*8760*B33*B34)</f>
@@ -48948,7 +48925,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="T35" s="461" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="U35" s="460"/>
       <c r="V35" s="493">
@@ -48970,7 +48947,7 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B36" s="480">
         <f>B35/10^6</f>
@@ -49007,7 +48984,7 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B37" s="465">
         <f>B36*3600</f>
@@ -49036,7 +49013,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="T37" s="465" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="U37" s="465"/>
       <c r="V37" s="465"/>
@@ -49046,7 +49023,7 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B38" s="1">
         <f>B37/1000</f>
@@ -49095,19 +49072,19 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="T39" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Z39">
         <v>2018</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="547" t="s">
-        <v>646</v>
-      </c>
-      <c r="B40" s="547"/>
-      <c r="C40" s="547"/>
-      <c r="D40" s="547"/>
+      <c r="A40" s="555" t="s">
+        <v>644</v>
+      </c>
+      <c r="B40" s="555"/>
+      <c r="C40" s="555"/>
+      <c r="D40" s="555"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -49126,7 +49103,7 @@
         <v>8</v>
       </c>
       <c r="T40" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="V40">
         <v>101.7</v>
@@ -49135,7 +49112,7 @@
         <v>16</v>
       </c>
       <c r="Y40" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Z40">
         <v>4.6900000000000004</v>
@@ -49146,7 +49123,7 @@
     </row>
     <row r="41" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="479" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B41" s="479">
         <v>2015</v>
@@ -49170,10 +49147,10 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="U41" s="5"/>
       <c r="V41">
@@ -49183,7 +49160,7 @@
         <v>16</v>
       </c>
       <c r="Y41" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Z41">
         <v>37.79</v>
@@ -49194,7 +49171,7 @@
     </row>
     <row r="42" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B42" s="1">
         <f>F3</f>
@@ -49229,7 +49206,7 @@
         <v>16</v>
       </c>
       <c r="Y42" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Z42">
         <v>59.22</v>
@@ -49283,12 +49260,12 @@
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="547" t="s">
-        <v>674</v>
-      </c>
-      <c r="B45" s="547"/>
-      <c r="C45" s="547"/>
-      <c r="D45" s="547"/>
+      <c r="A45" s="555" t="s">
+        <v>672</v>
+      </c>
+      <c r="B45" s="555"/>
+      <c r="C45" s="555"/>
+      <c r="D45" s="555"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -49308,7 +49285,7 @@
     </row>
     <row r="46" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="479" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B46" s="479">
         <v>2018</v>
@@ -49321,7 +49298,7 @@
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="479" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -49340,7 +49317,7 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B47" s="5">
         <v>400</v>
@@ -49368,12 +49345,12 @@
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="Y47" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="483" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B48" s="484">
         <v>0.5</v>
@@ -49403,17 +49380,17 @@
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="Y48" t="s">
-        <v>691</v>
-      </c>
-      <c r="Z48" s="553" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA48" s="554"/>
-      <c r="AB48" s="554"/>
+        <v>689</v>
+      </c>
+      <c r="Z48" s="556" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA48" s="557"/>
+      <c r="AB48" s="557"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B49" s="5">
         <f>B48*B47</f>
@@ -49448,7 +49425,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Z49" s="5">
         <v>0.35792764326805798</v>
@@ -49456,7 +49433,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B50" s="410">
         <v>1</v>
@@ -49490,7 +49467,7 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Z50" s="5">
         <v>0.5922178577259587</v>
@@ -49498,7 +49475,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B51" s="5">
         <f>B49*B50*8760</f>
@@ -49533,7 +49510,7 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Z51" s="5">
         <v>5.2470383697893502E-2</v>
@@ -49541,7 +49518,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B52" s="480">
         <f>B51/10^6</f>
@@ -49576,7 +49553,7 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="499" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="Z52">
         <f>V41*AD33*Y32</f>
@@ -49589,7 +49566,7 @@
     </row>
     <row r="53" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B53" s="465">
         <f>B52*3600</f>
@@ -49624,17 +49601,17 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" t="s">
-        <v>693</v>
-      </c>
-      <c r="Z53" s="553" t="s">
-        <v>628</v>
-      </c>
-      <c r="AA53" s="554"/>
-      <c r="AB53" s="554"/>
+        <v>691</v>
+      </c>
+      <c r="Z53" s="556" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA53" s="557"/>
+      <c r="AB53" s="557"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B54" s="1">
         <f>B53/1000</f>
@@ -49669,7 +49646,7 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Z54">
         <v>0.31966635214720912</v>
@@ -49702,7 +49679,7 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Z55">
         <v>0.60404221809878245</v>
@@ -49735,7 +49712,7 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Z56" s="5">
         <v>7.6291429754008364E-2</v>
@@ -49764,7 +49741,7 @@
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="Y57" s="499" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -49830,13 +49807,13 @@
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="Y59" t="s">
-        <v>694</v>
-      </c>
-      <c r="Z59" s="553" t="s">
-        <v>695</v>
-      </c>
-      <c r="AA59" s="554"/>
-      <c r="AB59" s="554"/>
+        <v>692</v>
+      </c>
+      <c r="Z59" s="556" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA59" s="557"/>
+      <c r="AB59" s="557"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="486" t="str">
@@ -49871,7 +49848,7 @@
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
       <c r="Y60" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="Z60">
         <v>0.20014125552486003</v>
@@ -49910,7 +49887,7 @@
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="Y61" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Z61">
         <v>0.54761388560430635</v>
@@ -49949,7 +49926,7 @@
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="Y62" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Z62" s="5">
         <v>0.25224485887083364</v>
@@ -49988,7 +49965,7 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="Y63" s="499" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -50673,17 +50650,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="59" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7991041-B864-40DA-A575-100E701F8CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625CEEE-1548-49A0-A61C-BB752D361576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="225" yWindow="2235" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -46,6 +46,30 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{AFD704E8-C41E-41A6-9BF8-19F3C415A5FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From BER Average Efficiency </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I7" authorId="0" shapeId="0" xr:uid="{91DD9C37-52E2-43FC-8EFA-7560A8088EC4}">
       <text>
         <r>
@@ -67,6 +91,54 @@
           </rPr>
           <t xml:space="preserve">
 As per PoTENCIA space cooling projections multiplied by Factor to account for dwelling size</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{5BE08AD4-6495-4D68-AB1E-4737AADFC4DF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From Base Year</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0" shapeId="0" xr:uid="{334F5795-065E-4848-9A0B-D80E7E81897C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From Base Year</t>
         </r>
       </text>
     </comment>
@@ -8548,7 +8620,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="737">
   <si>
     <t>Document type:</t>
   </si>
@@ -10765,6 +10837,21 @@
   </si>
   <si>
     <t>All rights reserved - No third party may rely upon this document without the prior and express written agreement agreement of AECOM (only used for crosschecking)</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>PF</t>
   </si>
 </sst>
 </file>
@@ -12504,7 +12591,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -13506,6 +13593,15 @@
     <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13513,15 +13609,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13533,13 +13620,22 @@
     <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13551,19 +13647,10 @@
     <xf numFmtId="0" fontId="58" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13581,12 +13668,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13601,6 +13682,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="27" borderId="1" xfId="14" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="26" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="26" borderId="47" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -14358,6 +14457,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15831,8 +15934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <dimension ref="A2:AL103"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15935,7 +16038,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="3:23" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="40" t="s">
         <v>145</v>
       </c>
@@ -15952,6 +16055,10 @@
       <c r="J5" s="64" t="s">
         <v>100</v>
       </c>
+      <c r="M5" s="563" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="563"/>
       <c r="S5" s="233" t="s">
         <v>263</v>
       </c>
@@ -15990,11 +16097,17 @@
         <v>100</v>
       </c>
       <c r="I6" s="252">
-        <f>AH23</f>
-        <v>4.4223271439528837E-3</v>
+        <f>AH23*N6</f>
+        <v>3.9800944295575952E-3</v>
       </c>
       <c r="J6" s="133">
         <v>2020</v>
+      </c>
+      <c r="M6" s="233" t="s">
+        <v>732</v>
+      </c>
+      <c r="N6" s="566">
+        <v>0.9</v>
       </c>
       <c r="S6" s="236" t="s">
         <v>264</v>
@@ -16022,10 +16135,16 @@
       <c r="G7" s="28"/>
       <c r="H7" s="66"/>
       <c r="I7" s="253">
-        <f>0.000214944231847928*0.9</f>
+        <f>0.000214944231847928*0.9*N7</f>
         <v>1.934498086631352E-4</v>
       </c>
       <c r="J7" s="60"/>
+      <c r="M7" s="236" t="s">
+        <v>733</v>
+      </c>
+      <c r="N7" s="564">
+        <v>1</v>
+      </c>
       <c r="S7" s="239" t="s">
         <v>265</v>
       </c>
@@ -16052,10 +16171,17 @@
       <c r="G8" s="44"/>
       <c r="H8" s="65"/>
       <c r="I8" s="254">
-        <f>AI23</f>
-        <v>7.9109298846992832E-3</v>
+        <f>AI23*N8</f>
+        <v>4.9838858273605485E-3</v>
       </c>
       <c r="J8" s="61"/>
+      <c r="M8" s="239" t="s">
+        <v>734</v>
+      </c>
+      <c r="N8" s="565">
+        <f>N6*0.7</f>
+        <v>0.63</v>
+      </c>
       <c r="S8" s="236" t="s">
         <v>266</v>
       </c>
@@ -16082,10 +16208,16 @@
       <c r="G9" s="28"/>
       <c r="H9" s="66"/>
       <c r="I9" s="253">
-        <f>AJ22</f>
-        <v>1.4074238978033962E-3</v>
+        <f>AJ22*N9</f>
+        <v>5.6296955912135845E-4</v>
       </c>
       <c r="J9" s="60"/>
+      <c r="M9" s="236" t="s">
+        <v>735</v>
+      </c>
+      <c r="N9" s="564">
+        <v>0.4</v>
+      </c>
       <c r="S9" s="239" t="s">
         <v>267</v>
       </c>
@@ -16112,10 +16244,16 @@
       <c r="G10" s="123"/>
       <c r="H10" s="89"/>
       <c r="I10" s="255">
-        <f>(AK22)</f>
-        <v>1.0616640598224022E-3</v>
+        <f>(AK22)*N10</f>
+        <v>6.369984358934413E-4</v>
       </c>
       <c r="J10" s="98"/>
+      <c r="M10" s="239" t="s">
+        <v>736</v>
+      </c>
+      <c r="N10" s="565">
+        <v>0.6</v>
+      </c>
       <c r="S10" s="236" t="s">
         <v>268</v>
       </c>
@@ -16185,8 +16323,8 @@
         <v>100</v>
       </c>
       <c r="I12" s="252">
-        <f>AH38</f>
-        <v>1.0242117509517548E-2</v>
+        <f>AH38*N6</f>
+        <v>9.2179057585657937E-3</v>
       </c>
       <c r="J12" s="133">
         <v>2020</v>
@@ -16217,7 +16355,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="66"/>
       <c r="I13" s="253">
-        <f>0.000214944231847928*1</f>
+        <f>0.000214944231847928*1*N7</f>
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J13" s="60"/>
@@ -16247,8 +16385,8 @@
       <c r="G14" s="44"/>
       <c r="H14" s="65"/>
       <c r="I14" s="254">
-        <f>AI38</f>
-        <v>8.461889951638905E-3</v>
+        <f>AI38*N8</f>
+        <v>5.33099066953251E-3</v>
       </c>
       <c r="J14" s="61"/>
       <c r="S14" s="244" t="s">
@@ -16277,8 +16415,8 @@
       <c r="G15" s="28"/>
       <c r="H15" s="66"/>
       <c r="I15" s="253">
-        <f>AJ37</f>
-        <v>2.0645399747711616E-3</v>
+        <f>AJ37*N9</f>
+        <v>8.258159899084647E-4</v>
       </c>
       <c r="J15" s="60"/>
       <c r="S15" s="248" t="s">
@@ -16304,8 +16442,8 @@
       <c r="G16" s="123"/>
       <c r="H16" s="89"/>
       <c r="I16" s="255">
-        <f>AK37</f>
-        <v>1.2480261603648479E-3</v>
+        <f>AK37*N10</f>
+        <v>7.488156962189087E-4</v>
       </c>
       <c r="J16" s="98"/>
     </row>
@@ -16347,8 +16485,8 @@
         <v>100</v>
       </c>
       <c r="I18" s="252">
-        <f>AH52</f>
-        <v>2.4280865417312326E-2</v>
+        <f>AH52*N6</f>
+        <v>2.1852778875581094E-2</v>
       </c>
       <c r="J18" s="133">
         <v>2020</v>
@@ -16364,7 +16502,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="66"/>
       <c r="I19" s="253">
-        <f>0.000214944231847928*1.1</f>
+        <f>0.000214944231847928*1.1*N7</f>
         <v>2.364386550327208E-4</v>
       </c>
       <c r="J19" s="60"/>
@@ -16379,8 +16517,8 @@
       <c r="G20" s="44"/>
       <c r="H20" s="65"/>
       <c r="I20" s="254">
-        <f>AI51</f>
-        <v>8.9758896942700953E-3</v>
+        <f>AI51*N8</f>
+        <v>5.65481050739016E-3</v>
       </c>
       <c r="J20" s="61"/>
       <c r="X20" s="5" t="s">
@@ -16439,8 +16577,8 @@
       <c r="G21" s="28"/>
       <c r="H21" s="66"/>
       <c r="I21" s="253">
-        <f>AJ51</f>
-        <v>3.5262400890868602E-3</v>
+        <f>AJ51*N9</f>
+        <v>1.4104960356347441E-3</v>
       </c>
       <c r="J21" s="60"/>
       <c r="W21" s="5" t="s">
@@ -16490,8 +16628,8 @@
       <c r="G22" s="123"/>
       <c r="H22" s="89"/>
       <c r="I22" s="255">
-        <f>AK51</f>
-        <v>1.8402541810083014E-3</v>
+        <f>AK51*N10</f>
+        <v>1.1041525086049808E-3</v>
       </c>
       <c r="J22" s="98"/>
       <c r="V22" s="5" t="s">
@@ -18905,12 +19043,12 @@
         <v>91</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="540" t="s">
+      <c r="V4" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="541"/>
-      <c r="X4" s="541"/>
-      <c r="Y4" s="542"/>
+      <c r="W4" s="532"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="533"/>
       <c r="Z4" s="63"/>
       <c r="AA4" s="63"/>
       <c r="AB4" s="71" t="s">
@@ -19009,34 +19147,34 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="531" t="s">
+      <c r="H6" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="532"/>
-      <c r="J6" s="532"/>
-      <c r="K6" s="533"/>
-      <c r="L6" s="532" t="s">
+      <c r="I6" s="535"/>
+      <c r="J6" s="535"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="533"/>
-      <c r="P6" s="531" t="s">
+      <c r="M6" s="535"/>
+      <c r="N6" s="535"/>
+      <c r="O6" s="536"/>
+      <c r="P6" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="531" t="s">
+      <c r="Q6" s="535"/>
+      <c r="R6" s="535"/>
+      <c r="S6" s="536"/>
+      <c r="T6" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="533"/>
-      <c r="V6" s="531" t="s">
+      <c r="U6" s="536"/>
+      <c r="V6" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="W6" s="532"/>
-      <c r="X6" s="532"/>
-      <c r="Y6" s="533"/>
+      <c r="W6" s="535"/>
+      <c r="X6" s="535"/>
+      <c r="Y6" s="536"/>
       <c r="Z6" s="64" t="s">
         <v>564</v>
       </c>
@@ -22055,12 +22193,12 @@
         <v>91</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="540" t="s">
+      <c r="V42" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="541"/>
-      <c r="X42" s="541"/>
-      <c r="Y42" s="542"/>
+      <c r="W42" s="532"/>
+      <c r="X42" s="532"/>
+      <c r="Y42" s="533"/>
       <c r="Z42" s="63"/>
       <c r="AA42" s="63"/>
       <c r="AB42" s="71" t="s">
@@ -22159,34 +22297,34 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="531" t="s">
+      <c r="H44" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="532"/>
-      <c r="J44" s="532"/>
-      <c r="K44" s="533"/>
-      <c r="L44" s="532" t="s">
+      <c r="I44" s="535"/>
+      <c r="J44" s="535"/>
+      <c r="K44" s="536"/>
+      <c r="L44" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="532"/>
-      <c r="N44" s="532"/>
-      <c r="O44" s="533"/>
-      <c r="P44" s="531" t="s">
+      <c r="M44" s="535"/>
+      <c r="N44" s="535"/>
+      <c r="O44" s="536"/>
+      <c r="P44" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="532"/>
-      <c r="R44" s="532"/>
-      <c r="S44" s="533"/>
-      <c r="T44" s="534" t="s">
+      <c r="Q44" s="535"/>
+      <c r="R44" s="535"/>
+      <c r="S44" s="536"/>
+      <c r="T44" s="540" t="s">
         <v>74</v>
       </c>
-      <c r="U44" s="535"/>
-      <c r="V44" s="534" t="s">
+      <c r="U44" s="541"/>
+      <c r="V44" s="540" t="s">
         <v>552</v>
       </c>
-      <c r="W44" s="536"/>
-      <c r="X44" s="536"/>
-      <c r="Y44" s="535"/>
+      <c r="W44" s="542"/>
+      <c r="X44" s="542"/>
+      <c r="Y44" s="541"/>
       <c r="Z44" s="389" t="s">
         <v>564</v>
       </c>
@@ -25965,12 +26103,12 @@
         <v>91</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="540" t="s">
+      <c r="V90" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="541"/>
-      <c r="X90" s="541"/>
-      <c r="Y90" s="542"/>
+      <c r="W90" s="532"/>
+      <c r="X90" s="532"/>
+      <c r="Y90" s="533"/>
       <c r="Z90" s="63"/>
       <c r="AA90" s="63"/>
       <c r="AB90" s="71" t="s">
@@ -26069,34 +26207,34 @@
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
-      <c r="H92" s="531" t="s">
+      <c r="H92" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="532"/>
-      <c r="J92" s="532"/>
-      <c r="K92" s="533"/>
-      <c r="L92" s="532" t="s">
+      <c r="I92" s="535"/>
+      <c r="J92" s="535"/>
+      <c r="K92" s="536"/>
+      <c r="L92" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="532"/>
-      <c r="N92" s="532"/>
-      <c r="O92" s="533"/>
-      <c r="P92" s="531" t="s">
+      <c r="M92" s="535"/>
+      <c r="N92" s="535"/>
+      <c r="O92" s="536"/>
+      <c r="P92" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="Q92" s="532"/>
-      <c r="R92" s="532"/>
-      <c r="S92" s="533"/>
-      <c r="T92" s="534" t="s">
+      <c r="Q92" s="535"/>
+      <c r="R92" s="535"/>
+      <c r="S92" s="536"/>
+      <c r="T92" s="540" t="s">
         <v>74</v>
       </c>
-      <c r="U92" s="535"/>
-      <c r="V92" s="534" t="s">
+      <c r="U92" s="541"/>
+      <c r="V92" s="540" t="s">
         <v>552</v>
       </c>
-      <c r="W92" s="536"/>
-      <c r="X92" s="536"/>
-      <c r="Y92" s="535"/>
+      <c r="W92" s="542"/>
+      <c r="X92" s="542"/>
+      <c r="Y92" s="541"/>
       <c r="Z92" s="389" t="s">
         <v>564</v>
       </c>
@@ -30015,6 +30153,26 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -30025,26 +30183,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -30189,12 +30327,12 @@
       <c r="I5" s="130"/>
       <c r="J5" s="130"/>
       <c r="K5" s="130"/>
-      <c r="L5" s="540" t="s">
+      <c r="L5" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="541"/>
-      <c r="N5" s="541"/>
-      <c r="O5" s="542"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="532"/>
+      <c r="O5" s="533"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="63" t="s">
         <v>93</v>
@@ -30225,12 +30363,12 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="534" t="s">
+      <c r="L6" s="540" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="536"/>
-      <c r="N6" s="536"/>
-      <c r="O6" s="535"/>
+      <c r="M6" s="542"/>
+      <c r="N6" s="542"/>
+      <c r="O6" s="541"/>
       <c r="P6" s="389" t="s">
         <v>564</v>
       </c>
@@ -31116,23 +31254,23 @@
       <c r="K33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="540" t="s">
+      <c r="L33" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="M33" s="541"/>
-      <c r="N33" s="541"/>
-      <c r="O33" s="542"/>
+      <c r="M33" s="532"/>
+      <c r="N33" s="532"/>
+      <c r="O33" s="533"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="534" t="s">
+      <c r="L34" s="540" t="s">
         <v>97</v>
       </c>
-      <c r="M34" s="536"/>
-      <c r="N34" s="536"/>
-      <c r="O34" s="535"/>
+      <c r="M34" s="542"/>
+      <c r="N34" s="542"/>
+      <c r="O34" s="541"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
@@ -31478,11 +31616,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="540" t="s">
+      <c r="K4" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="541"/>
-      <c r="M4" s="542"/>
+      <c r="L4" s="532"/>
+      <c r="M4" s="533"/>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>93</v>
@@ -31508,16 +31646,16 @@
       <c r="G5" s="397" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="546" t="s">
+      <c r="H5" s="543" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="546" t="s">
+      <c r="I5" s="544"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="543" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="547"/>
-      <c r="M5" s="548"/>
+      <c r="L5" s="544"/>
+      <c r="M5" s="545"/>
       <c r="N5" s="398" t="s">
         <v>98</v>
       </c>
@@ -31534,23 +31672,23 @@
         <v>226</v>
       </c>
       <c r="AA5" s="220"/>
-      <c r="AB5" s="543" t="s">
+      <c r="AB5" s="546" t="s">
         <v>594</v>
       </c>
-      <c r="AC5" s="543"/>
+      <c r="AC5" s="546"/>
       <c r="AD5" s="400"/>
-      <c r="AE5" s="544" t="s">
+      <c r="AE5" s="547" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="544"/>
-      <c r="AG5" s="544" t="s">
+      <c r="AF5" s="547"/>
+      <c r="AG5" s="547" t="s">
         <v>595</v>
       </c>
-      <c r="AH5" s="544"/>
-      <c r="AI5" s="545" t="s">
+      <c r="AH5" s="547"/>
+      <c r="AI5" s="548" t="s">
         <v>596</v>
       </c>
-      <c r="AJ5" s="545"/>
+      <c r="AJ5" s="548"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="444" t="str">
@@ -32288,12 +32426,12 @@
       <c r="K27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="540" t="s">
+      <c r="L27" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="541"/>
-      <c r="N27" s="541"/>
-      <c r="O27" s="542"/>
+      <c r="M27" s="532"/>
+      <c r="N27" s="532"/>
+      <c r="O27" s="533"/>
       <c r="T27" s="222"/>
       <c r="U27" s="222"/>
     </row>
@@ -32301,12 +32439,12 @@
       <c r="J28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="531" t="s">
+      <c r="L28" s="534" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="532"/>
-      <c r="N28" s="532"/>
-      <c r="O28" s="533"/>
+      <c r="M28" s="535"/>
+      <c r="N28" s="535"/>
+      <c r="O28" s="536"/>
       <c r="T28" s="222"/>
       <c r="U28" s="222"/>
     </row>
@@ -33696,16 +33834,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -34135,103 +34273,103 @@
       <c r="C4" s="295" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="550" t="s">
+      <c r="D4" s="549" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="549"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549"/>
+      <c r="E4" s="550"/>
+      <c r="F4" s="550"/>
+      <c r="G4" s="550"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="549" t="s">
+      <c r="I4" s="550" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="549"/>
-      <c r="K4" s="549"/>
-      <c r="L4" s="549"/>
+      <c r="J4" s="550"/>
+      <c r="K4" s="550"/>
+      <c r="L4" s="550"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="549" t="s">
+      <c r="N4" s="550" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="549"/>
-      <c r="P4" s="549"/>
-      <c r="Q4" s="549"/>
+      <c r="O4" s="550"/>
+      <c r="P4" s="550"/>
+      <c r="Q4" s="550"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="549" t="s">
+      <c r="S4" s="550" t="s">
         <v>354</v>
       </c>
-      <c r="T4" s="549"/>
-      <c r="U4" s="549"/>
-      <c r="V4" s="549"/>
+      <c r="T4" s="550"/>
+      <c r="U4" s="550"/>
+      <c r="V4" s="550"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="549" t="s">
+      <c r="X4" s="550" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" s="549"/>
-      <c r="Z4" s="549"/>
-      <c r="AA4" s="549"/>
+      <c r="Y4" s="550"/>
+      <c r="Z4" s="550"/>
+      <c r="AA4" s="550"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="549" t="s">
+      <c r="AC4" s="550" t="s">
         <v>356</v>
       </c>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="549"/>
-      <c r="AF4" s="549"/>
+      <c r="AD4" s="550"/>
+      <c r="AE4" s="550"/>
+      <c r="AF4" s="550"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="549" t="s">
+      <c r="AH4" s="550" t="s">
         <v>357</v>
       </c>
-      <c r="AI4" s="549"/>
-      <c r="AJ4" s="549"/>
-      <c r="AK4" s="549"/>
+      <c r="AI4" s="550"/>
+      <c r="AJ4" s="550"/>
+      <c r="AK4" s="550"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="549" t="s">
+      <c r="AM4" s="550" t="s">
         <v>358</v>
       </c>
-      <c r="AN4" s="549"/>
-      <c r="AO4" s="549"/>
-      <c r="AP4" s="549"/>
+      <c r="AN4" s="550"/>
+      <c r="AO4" s="550"/>
+      <c r="AP4" s="550"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="549" t="s">
+      <c r="AR4" s="550" t="s">
         <v>359</v>
       </c>
-      <c r="AS4" s="549"/>
-      <c r="AT4" s="549"/>
-      <c r="AU4" s="549"/>
+      <c r="AS4" s="550"/>
+      <c r="AT4" s="550"/>
+      <c r="AU4" s="550"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="549" t="s">
+      <c r="AW4" s="550" t="s">
         <v>360</v>
       </c>
-      <c r="AX4" s="549"/>
-      <c r="AY4" s="549"/>
-      <c r="AZ4" s="549"/>
-      <c r="BA4" s="549"/>
-      <c r="BB4" s="550" t="s">
+      <c r="AX4" s="550"/>
+      <c r="AY4" s="550"/>
+      <c r="AZ4" s="550"/>
+      <c r="BA4" s="550"/>
+      <c r="BB4" s="549" t="s">
         <v>361</v>
       </c>
-      <c r="BC4" s="549"/>
-      <c r="BD4" s="549"/>
-      <c r="BE4" s="549"/>
+      <c r="BC4" s="550"/>
+      <c r="BD4" s="550"/>
+      <c r="BE4" s="550"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="549" t="s">
+      <c r="BG4" s="550" t="s">
         <v>362</v>
       </c>
-      <c r="BH4" s="549"/>
-      <c r="BI4" s="549"/>
-      <c r="BJ4" s="549"/>
-      <c r="BK4" s="549"/>
-      <c r="BL4" s="550" t="s">
+      <c r="BH4" s="550"/>
+      <c r="BI4" s="550"/>
+      <c r="BJ4" s="550"/>
+      <c r="BK4" s="550"/>
+      <c r="BL4" s="549" t="s">
         <v>363</v>
       </c>
-      <c r="BM4" s="549"/>
-      <c r="BN4" s="549"/>
-      <c r="BO4" s="549"/>
-      <c r="BP4" s="549"/>
-      <c r="BQ4" s="550" t="s">
+      <c r="BM4" s="550"/>
+      <c r="BN4" s="550"/>
+      <c r="BO4" s="550"/>
+      <c r="BP4" s="550"/>
+      <c r="BQ4" s="549" t="s">
         <v>364</v>
       </c>
-      <c r="BR4" s="549"/>
-      <c r="BS4" s="549"/>
-      <c r="BT4" s="549"/>
+      <c r="BR4" s="550"/>
+      <c r="BS4" s="550"/>
+      <c r="BT4" s="550"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="296" t="s">
         <v>365</v>
@@ -47825,11 +47963,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -47842,6 +47975,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -47852,7 +47990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C74-4930-4E02-A6A2-617D513D886A}">
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
@@ -47863,23 +48001,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="556" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="560" t="s">
+      <c r="B1" s="558" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="560" t="s">
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="560"/>
+      <c r="G1" s="558" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="561"/>
-      <c r="I1" s="561"/>
-      <c r="J1" s="561"/>
-      <c r="K1" s="562"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
+      <c r="K1" s="560"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -47889,7 +48027,7 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="559"/>
+      <c r="A2" s="557"/>
       <c r="B2" s="466" t="s">
         <v>284</v>
       </c>
@@ -49382,11 +49520,11 @@
       <c r="Y48" t="s">
         <v>689</v>
       </c>
-      <c r="Z48" s="556" t="s">
+      <c r="Z48" s="561" t="s">
         <v>627</v>
       </c>
-      <c r="AA48" s="557"/>
-      <c r="AB48" s="557"/>
+      <c r="AA48" s="562"/>
+      <c r="AB48" s="562"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -49603,11 +49741,11 @@
       <c r="Y53" t="s">
         <v>691</v>
       </c>
-      <c r="Z53" s="556" t="s">
+      <c r="Z53" s="561" t="s">
         <v>626</v>
       </c>
-      <c r="AA53" s="557"/>
-      <c r="AB53" s="557"/>
+      <c r="AA53" s="562"/>
+      <c r="AB53" s="562"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
@@ -49809,11 +49947,11 @@
       <c r="Y59" t="s">
         <v>692</v>
       </c>
-      <c r="Z59" s="556" t="s">
+      <c r="Z59" s="561" t="s">
         <v>693</v>
       </c>
-      <c r="AA59" s="557"/>
-      <c r="AB59" s="557"/>
+      <c r="AA59" s="562"/>
+      <c r="AB59" s="562"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="486" t="str">
@@ -50650,17 +50788,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="59" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625CEEE-1548-49A0-A61C-BB752D361576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E3134-A32B-4F51-85A5-99E9FE2E430F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="2235" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -13551,6 +13551,18 @@
     <xf numFmtId="0" fontId="62" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="27" borderId="1" xfId="14" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="26" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="26" borderId="47" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13688,18 +13700,6 @@
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="27" borderId="1" xfId="14" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="26" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="26" borderId="47" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -14457,10 +14457,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14938,14 +14934,14 @@
       <c r="F16" s="156"/>
     </row>
     <row r="17" spans="1:14" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="518" t="s">
+      <c r="A17" s="522" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="518"/>
-      <c r="C17" s="518"/>
-      <c r="D17" s="518"/>
-      <c r="E17" s="518"/>
-      <c r="F17" s="518"/>
+      <c r="B17" s="522"/>
+      <c r="C17" s="522"/>
+      <c r="D17" s="522"/>
+      <c r="E17" s="522"/>
+      <c r="F17" s="522"/>
       <c r="G17" s="158"/>
       <c r="H17" s="158"/>
       <c r="I17" s="159"/>
@@ -14983,13 +14979,13 @@
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="519" t="s">
+      <c r="B20" s="523" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="519"/>
-      <c r="D20" s="519"/>
-      <c r="E20" s="519"/>
-      <c r="F20" s="519"/>
+      <c r="C20" s="523"/>
+      <c r="D20" s="523"/>
+      <c r="E20" s="523"/>
+      <c r="F20" s="523"/>
       <c r="G20" s="163"/>
       <c r="H20" s="163"/>
       <c r="I20" s="164"/>
@@ -15003,13 +14999,13 @@
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="520" t="s">
+      <c r="B21" s="524" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="520"/>
-      <c r="D21" s="520"/>
-      <c r="E21" s="520"/>
-      <c r="F21" s="520"/>
+      <c r="C21" s="524"/>
+      <c r="D21" s="524"/>
+      <c r="E21" s="524"/>
+      <c r="F21" s="524"/>
       <c r="G21" s="163"/>
       <c r="H21" s="163"/>
       <c r="I21" s="164"/>
@@ -15023,13 +15019,13 @@
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="520" t="s">
+      <c r="B22" s="524" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="520"/>
-      <c r="D22" s="520"/>
-      <c r="E22" s="520"/>
-      <c r="F22" s="520"/>
+      <c r="C22" s="524"/>
+      <c r="D22" s="524"/>
+      <c r="E22" s="524"/>
+      <c r="F22" s="524"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
@@ -15058,22 +15054,22 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="521"/>
-      <c r="B25" s="521"/>
-      <c r="C25" s="521"/>
-      <c r="D25" s="521"/>
-      <c r="E25" s="521"/>
-      <c r="F25" s="521"/>
+      <c r="A25" s="525"/>
+      <c r="B25" s="525"/>
+      <c r="C25" s="525"/>
+      <c r="D25" s="525"/>
+      <c r="E25" s="525"/>
+      <c r="F25" s="525"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="517"/>
-      <c r="B26" s="517"/>
-      <c r="C26" s="517"/>
-      <c r="D26" s="517"/>
-      <c r="E26" s="517"/>
-      <c r="F26" s="517"/>
+      <c r="A26" s="521"/>
+      <c r="B26" s="521"/>
+      <c r="C26" s="521"/>
+      <c r="D26" s="521"/>
+      <c r="E26" s="521"/>
+      <c r="F26" s="521"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="156"/>
@@ -15260,16 +15256,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="522" t="s">
+      <c r="B2" s="526" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="523"/>
-      <c r="D2" s="523"/>
-      <c r="E2" s="524"/>
-      <c r="G2" s="522" t="s">
+      <c r="C2" s="527"/>
+      <c r="D2" s="527"/>
+      <c r="E2" s="528"/>
+      <c r="G2" s="526" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="524"/>
+      <c r="H2" s="528"/>
       <c r="I2" s="166"/>
       <c r="J2" s="166"/>
       <c r="K2" s="167"/>
@@ -15552,10 +15548,10 @@
       <c r="E14" s="182" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="522" t="s">
+      <c r="G14" s="526" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="524"/>
+      <c r="H14" s="528"/>
     </row>
     <row r="15" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="179" t="s">
@@ -15639,12 +15635,12 @@
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="525" t="s">
+      <c r="B20" s="529" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="526"/>
-      <c r="D20" s="526"/>
-      <c r="E20" s="527"/>
+      <c r="C20" s="530"/>
+      <c r="D20" s="530"/>
+      <c r="E20" s="531"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="194" t="s">
@@ -15827,16 +15823,16 @@
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="522" t="s">
+      <c r="B36" s="526" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="523"/>
-      <c r="D36" s="523"/>
-      <c r="E36" s="524"/>
-      <c r="G36" s="528" t="s">
+      <c r="C36" s="527"/>
+      <c r="D36" s="527"/>
+      <c r="E36" s="528"/>
+      <c r="G36" s="532" t="s">
         <v>61</v>
       </c>
-      <c r="H36" s="529"/>
+      <c r="H36" s="533"/>
     </row>
     <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="210" t="s">
@@ -15934,7 +15930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <dimension ref="A2:AL103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -15995,13 +15991,13 @@
       <c r="J3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="S3" s="530" t="s">
+      <c r="S3" s="534" t="s">
         <v>278</v>
       </c>
-      <c r="T3" s="530"/>
-      <c r="U3" s="530"/>
-      <c r="V3" s="530"/>
-      <c r="W3" s="530"/>
+      <c r="T3" s="534"/>
+      <c r="U3" s="534"/>
+      <c r="V3" s="534"/>
+      <c r="W3" s="534"/>
     </row>
     <row r="4" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="19" t="s">
@@ -16055,10 +16051,10 @@
       <c r="J5" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="M5" s="563" t="s">
+      <c r="M5" s="517" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="563"/>
+      <c r="N5" s="517"/>
       <c r="S5" s="233" t="s">
         <v>263</v>
       </c>
@@ -16106,7 +16102,7 @@
       <c r="M6" s="233" t="s">
         <v>732</v>
       </c>
-      <c r="N6" s="566">
+      <c r="N6" s="520">
         <v>0.9</v>
       </c>
       <c r="S6" s="236" t="s">
@@ -16142,7 +16138,7 @@
       <c r="M7" s="236" t="s">
         <v>733</v>
       </c>
-      <c r="N7" s="564">
+      <c r="N7" s="518">
         <v>1</v>
       </c>
       <c r="S7" s="239" t="s">
@@ -16178,7 +16174,7 @@
       <c r="M8" s="239" t="s">
         <v>734</v>
       </c>
-      <c r="N8" s="565">
+      <c r="N8" s="519">
         <f>N6*0.7</f>
         <v>0.63</v>
       </c>
@@ -16215,7 +16211,7 @@
       <c r="M9" s="236" t="s">
         <v>735</v>
       </c>
-      <c r="N9" s="564">
+      <c r="N9" s="518">
         <v>0.4</v>
       </c>
       <c r="S9" s="239" t="s">
@@ -16251,7 +16247,7 @@
       <c r="M10" s="239" t="s">
         <v>736</v>
       </c>
-      <c r="N10" s="565">
+      <c r="N10" s="519">
         <v>0.6</v>
       </c>
       <c r="S10" s="236" t="s">
@@ -19021,34 +19017,34 @@
       <c r="G4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="537" t="s">
+      <c r="H4" s="541" t="s">
         <v>304</v>
       </c>
-      <c r="I4" s="538"/>
-      <c r="J4" s="538"/>
-      <c r="K4" s="539"/>
-      <c r="L4" s="537" t="s">
+      <c r="I4" s="542"/>
+      <c r="J4" s="542"/>
+      <c r="K4" s="543"/>
+      <c r="L4" s="541" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="538"/>
-      <c r="N4" s="538"/>
-      <c r="O4" s="539"/>
-      <c r="P4" s="537" t="s">
+      <c r="M4" s="542"/>
+      <c r="N4" s="542"/>
+      <c r="O4" s="543"/>
+      <c r="P4" s="541" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" s="538"/>
-      <c r="R4" s="538"/>
-      <c r="S4" s="539"/>
-      <c r="T4" s="537" t="s">
+      <c r="Q4" s="542"/>
+      <c r="R4" s="542"/>
+      <c r="S4" s="543"/>
+      <c r="T4" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="U4" s="539"/>
-      <c r="V4" s="531" t="s">
+      <c r="U4" s="543"/>
+      <c r="V4" s="535" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="532"/>
-      <c r="X4" s="532"/>
-      <c r="Y4" s="533"/>
+      <c r="W4" s="536"/>
+      <c r="X4" s="536"/>
+      <c r="Y4" s="537"/>
       <c r="Z4" s="63"/>
       <c r="AA4" s="63"/>
       <c r="AB4" s="71" t="s">
@@ -19147,34 +19143,34 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="534" t="s">
+      <c r="H6" s="538" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="535"/>
-      <c r="J6" s="535"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="535" t="s">
+      <c r="I6" s="539"/>
+      <c r="J6" s="539"/>
+      <c r="K6" s="540"/>
+      <c r="L6" s="539" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="535"/>
-      <c r="N6" s="535"/>
-      <c r="O6" s="536"/>
-      <c r="P6" s="534" t="s">
+      <c r="M6" s="539"/>
+      <c r="N6" s="539"/>
+      <c r="O6" s="540"/>
+      <c r="P6" s="538" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="535"/>
-      <c r="R6" s="535"/>
-      <c r="S6" s="536"/>
-      <c r="T6" s="534" t="s">
+      <c r="Q6" s="539"/>
+      <c r="R6" s="539"/>
+      <c r="S6" s="540"/>
+      <c r="T6" s="538" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="536"/>
-      <c r="V6" s="534" t="s">
+      <c r="U6" s="540"/>
+      <c r="V6" s="538" t="s">
         <v>552</v>
       </c>
-      <c r="W6" s="535"/>
-      <c r="X6" s="535"/>
-      <c r="Y6" s="536"/>
+      <c r="W6" s="539"/>
+      <c r="X6" s="539"/>
+      <c r="Y6" s="540"/>
       <c r="Z6" s="64" t="s">
         <v>564</v>
       </c>
@@ -22171,34 +22167,34 @@
       <c r="G42" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="537" t="s">
+      <c r="H42" s="541" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="538"/>
-      <c r="J42" s="538"/>
-      <c r="K42" s="539"/>
-      <c r="L42" s="537" t="s">
+      <c r="I42" s="542"/>
+      <c r="J42" s="542"/>
+      <c r="K42" s="543"/>
+      <c r="L42" s="541" t="s">
         <v>89</v>
       </c>
-      <c r="M42" s="538"/>
-      <c r="N42" s="538"/>
-      <c r="O42" s="539"/>
-      <c r="P42" s="537" t="s">
+      <c r="M42" s="542"/>
+      <c r="N42" s="542"/>
+      <c r="O42" s="543"/>
+      <c r="P42" s="541" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="538"/>
-      <c r="R42" s="538"/>
-      <c r="S42" s="539"/>
-      <c r="T42" s="537" t="s">
+      <c r="Q42" s="542"/>
+      <c r="R42" s="542"/>
+      <c r="S42" s="543"/>
+      <c r="T42" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="U42" s="539"/>
-      <c r="V42" s="531" t="s">
+      <c r="U42" s="543"/>
+      <c r="V42" s="535" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="532"/>
-      <c r="X42" s="532"/>
-      <c r="Y42" s="533"/>
+      <c r="W42" s="536"/>
+      <c r="X42" s="536"/>
+      <c r="Y42" s="537"/>
       <c r="Z42" s="63"/>
       <c r="AA42" s="63"/>
       <c r="AB42" s="71" t="s">
@@ -22297,34 +22293,34 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="534" t="s">
+      <c r="H44" s="538" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="535"/>
-      <c r="J44" s="535"/>
-      <c r="K44" s="536"/>
-      <c r="L44" s="535" t="s">
+      <c r="I44" s="539"/>
+      <c r="J44" s="539"/>
+      <c r="K44" s="540"/>
+      <c r="L44" s="539" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="535"/>
-      <c r="N44" s="535"/>
-      <c r="O44" s="536"/>
-      <c r="P44" s="534" t="s">
+      <c r="M44" s="539"/>
+      <c r="N44" s="539"/>
+      <c r="O44" s="540"/>
+      <c r="P44" s="538" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="535"/>
-      <c r="R44" s="535"/>
-      <c r="S44" s="536"/>
-      <c r="T44" s="540" t="s">
+      <c r="Q44" s="539"/>
+      <c r="R44" s="539"/>
+      <c r="S44" s="540"/>
+      <c r="T44" s="544" t="s">
         <v>74</v>
       </c>
-      <c r="U44" s="541"/>
-      <c r="V44" s="540" t="s">
+      <c r="U44" s="545"/>
+      <c r="V44" s="544" t="s">
         <v>552</v>
       </c>
-      <c r="W44" s="542"/>
-      <c r="X44" s="542"/>
-      <c r="Y44" s="541"/>
+      <c r="W44" s="546"/>
+      <c r="X44" s="546"/>
+      <c r="Y44" s="545"/>
       <c r="Z44" s="389" t="s">
         <v>564</v>
       </c>
@@ -26081,34 +26077,34 @@
       <c r="G90" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H90" s="537" t="s">
+      <c r="H90" s="541" t="s">
         <v>88</v>
       </c>
-      <c r="I90" s="538"/>
-      <c r="J90" s="538"/>
-      <c r="K90" s="539"/>
-      <c r="L90" s="537" t="s">
+      <c r="I90" s="542"/>
+      <c r="J90" s="542"/>
+      <c r="K90" s="543"/>
+      <c r="L90" s="541" t="s">
         <v>89</v>
       </c>
-      <c r="M90" s="538"/>
-      <c r="N90" s="538"/>
-      <c r="O90" s="539"/>
-      <c r="P90" s="537" t="s">
+      <c r="M90" s="542"/>
+      <c r="N90" s="542"/>
+      <c r="O90" s="543"/>
+      <c r="P90" s="541" t="s">
         <v>90</v>
       </c>
-      <c r="Q90" s="538"/>
-      <c r="R90" s="538"/>
-      <c r="S90" s="539"/>
-      <c r="T90" s="537" t="s">
+      <c r="Q90" s="542"/>
+      <c r="R90" s="542"/>
+      <c r="S90" s="543"/>
+      <c r="T90" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="U90" s="539"/>
-      <c r="V90" s="531" t="s">
+      <c r="U90" s="543"/>
+      <c r="V90" s="535" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="532"/>
-      <c r="X90" s="532"/>
-      <c r="Y90" s="533"/>
+      <c r="W90" s="536"/>
+      <c r="X90" s="536"/>
+      <c r="Y90" s="537"/>
       <c r="Z90" s="63"/>
       <c r="AA90" s="63"/>
       <c r="AB90" s="71" t="s">
@@ -26207,34 +26203,34 @@
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
-      <c r="H92" s="534" t="s">
+      <c r="H92" s="538" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="535"/>
-      <c r="J92" s="535"/>
-      <c r="K92" s="536"/>
-      <c r="L92" s="535" t="s">
+      <c r="I92" s="539"/>
+      <c r="J92" s="539"/>
+      <c r="K92" s="540"/>
+      <c r="L92" s="539" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="535"/>
-      <c r="N92" s="535"/>
-      <c r="O92" s="536"/>
-      <c r="P92" s="534" t="s">
+      <c r="M92" s="539"/>
+      <c r="N92" s="539"/>
+      <c r="O92" s="540"/>
+      <c r="P92" s="538" t="s">
         <v>37</v>
       </c>
-      <c r="Q92" s="535"/>
-      <c r="R92" s="535"/>
-      <c r="S92" s="536"/>
-      <c r="T92" s="540" t="s">
+      <c r="Q92" s="539"/>
+      <c r="R92" s="539"/>
+      <c r="S92" s="540"/>
+      <c r="T92" s="544" t="s">
         <v>74</v>
       </c>
-      <c r="U92" s="541"/>
-      <c r="V92" s="540" t="s">
+      <c r="U92" s="545"/>
+      <c r="V92" s="544" t="s">
         <v>552</v>
       </c>
-      <c r="W92" s="542"/>
-      <c r="X92" s="542"/>
-      <c r="Y92" s="541"/>
+      <c r="W92" s="546"/>
+      <c r="X92" s="546"/>
+      <c r="Y92" s="545"/>
       <c r="Z92" s="389" t="s">
         <v>564</v>
       </c>
@@ -30327,12 +30323,12 @@
       <c r="I5" s="130"/>
       <c r="J5" s="130"/>
       <c r="K5" s="130"/>
-      <c r="L5" s="531" t="s">
+      <c r="L5" s="535" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="532"/>
-      <c r="N5" s="532"/>
-      <c r="O5" s="533"/>
+      <c r="M5" s="536"/>
+      <c r="N5" s="536"/>
+      <c r="O5" s="537"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="63" t="s">
         <v>93</v>
@@ -30363,12 +30359,12 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="540" t="s">
+      <c r="L6" s="544" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="542"/>
-      <c r="N6" s="542"/>
-      <c r="O6" s="541"/>
+      <c r="M6" s="546"/>
+      <c r="N6" s="546"/>
+      <c r="O6" s="545"/>
       <c r="P6" s="389" t="s">
         <v>564</v>
       </c>
@@ -31254,23 +31250,23 @@
       <c r="K33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="531" t="s">
+      <c r="L33" s="535" t="s">
         <v>92</v>
       </c>
-      <c r="M33" s="532"/>
-      <c r="N33" s="532"/>
-      <c r="O33" s="533"/>
+      <c r="M33" s="536"/>
+      <c r="N33" s="536"/>
+      <c r="O33" s="537"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="540" t="s">
+      <c r="L34" s="544" t="s">
         <v>97</v>
       </c>
-      <c r="M34" s="542"/>
-      <c r="N34" s="542"/>
-      <c r="O34" s="541"/>
+      <c r="M34" s="546"/>
+      <c r="N34" s="546"/>
+      <c r="O34" s="545"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
@@ -31611,16 +31607,16 @@
       <c r="G4" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="537" t="s">
+      <c r="H4" s="541" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="538"/>
-      <c r="J4" s="539"/>
-      <c r="K4" s="531" t="s">
+      <c r="I4" s="542"/>
+      <c r="J4" s="543"/>
+      <c r="K4" s="535" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="532"/>
-      <c r="M4" s="533"/>
+      <c r="L4" s="536"/>
+      <c r="M4" s="537"/>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>93</v>
@@ -31646,16 +31642,16 @@
       <c r="G5" s="397" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="543" t="s">
+      <c r="H5" s="547" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="544"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="543" t="s">
+      <c r="I5" s="548"/>
+      <c r="J5" s="549"/>
+      <c r="K5" s="547" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="544"/>
-      <c r="M5" s="545"/>
+      <c r="L5" s="548"/>
+      <c r="M5" s="549"/>
       <c r="N5" s="398" t="s">
         <v>98</v>
       </c>
@@ -31672,23 +31668,23 @@
         <v>226</v>
       </c>
       <c r="AA5" s="220"/>
-      <c r="AB5" s="546" t="s">
+      <c r="AB5" s="550" t="s">
         <v>594</v>
       </c>
-      <c r="AC5" s="546"/>
+      <c r="AC5" s="550"/>
       <c r="AD5" s="400"/>
-      <c r="AE5" s="547" t="s">
+      <c r="AE5" s="551" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="547"/>
-      <c r="AG5" s="547" t="s">
+      <c r="AF5" s="551"/>
+      <c r="AG5" s="551" t="s">
         <v>595</v>
       </c>
-      <c r="AH5" s="547"/>
-      <c r="AI5" s="548" t="s">
+      <c r="AH5" s="551"/>
+      <c r="AI5" s="552" t="s">
         <v>596</v>
       </c>
-      <c r="AJ5" s="548"/>
+      <c r="AJ5" s="552"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="444" t="str">
@@ -32426,12 +32422,12 @@
       <c r="K27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="531" t="s">
+      <c r="L27" s="535" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="532"/>
-      <c r="N27" s="532"/>
-      <c r="O27" s="533"/>
+      <c r="M27" s="536"/>
+      <c r="N27" s="536"/>
+      <c r="O27" s="537"/>
       <c r="T27" s="222"/>
       <c r="U27" s="222"/>
     </row>
@@ -32439,12 +32435,12 @@
       <c r="J28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="534" t="s">
+      <c r="L28" s="538" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="535"/>
-      <c r="N28" s="535"/>
-      <c r="O28" s="536"/>
+      <c r="M28" s="539"/>
+      <c r="N28" s="539"/>
+      <c r="O28" s="540"/>
       <c r="T28" s="222"/>
       <c r="U28" s="222"/>
     </row>
@@ -34273,128 +34269,128 @@
       <c r="C4" s="295" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="549" t="s">
+      <c r="D4" s="553" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="550"/>
-      <c r="F4" s="550"/>
-      <c r="G4" s="550"/>
-      <c r="H4" s="551"/>
-      <c r="I4" s="550" t="s">
+      <c r="E4" s="554"/>
+      <c r="F4" s="554"/>
+      <c r="G4" s="554"/>
+      <c r="H4" s="555"/>
+      <c r="I4" s="554" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="550"/>
-      <c r="K4" s="550"/>
-      <c r="L4" s="550"/>
-      <c r="M4" s="551"/>
-      <c r="N4" s="550" t="s">
+      <c r="J4" s="554"/>
+      <c r="K4" s="554"/>
+      <c r="L4" s="554"/>
+      <c r="M4" s="555"/>
+      <c r="N4" s="554" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="550"/>
-      <c r="P4" s="550"/>
-      <c r="Q4" s="550"/>
-      <c r="R4" s="551"/>
-      <c r="S4" s="550" t="s">
+      <c r="O4" s="554"/>
+      <c r="P4" s="554"/>
+      <c r="Q4" s="554"/>
+      <c r="R4" s="555"/>
+      <c r="S4" s="554" t="s">
         <v>354</v>
       </c>
-      <c r="T4" s="550"/>
-      <c r="U4" s="550"/>
-      <c r="V4" s="550"/>
-      <c r="W4" s="551"/>
-      <c r="X4" s="550" t="s">
+      <c r="T4" s="554"/>
+      <c r="U4" s="554"/>
+      <c r="V4" s="554"/>
+      <c r="W4" s="555"/>
+      <c r="X4" s="554" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" s="550"/>
-      <c r="Z4" s="550"/>
-      <c r="AA4" s="550"/>
-      <c r="AB4" s="551"/>
-      <c r="AC4" s="550" t="s">
+      <c r="Y4" s="554"/>
+      <c r="Z4" s="554"/>
+      <c r="AA4" s="554"/>
+      <c r="AB4" s="555"/>
+      <c r="AC4" s="554" t="s">
         <v>356</v>
       </c>
-      <c r="AD4" s="550"/>
-      <c r="AE4" s="550"/>
-      <c r="AF4" s="550"/>
-      <c r="AG4" s="551"/>
-      <c r="AH4" s="550" t="s">
+      <c r="AD4" s="554"/>
+      <c r="AE4" s="554"/>
+      <c r="AF4" s="554"/>
+      <c r="AG4" s="555"/>
+      <c r="AH4" s="554" t="s">
         <v>357</v>
       </c>
-      <c r="AI4" s="550"/>
-      <c r="AJ4" s="550"/>
-      <c r="AK4" s="550"/>
-      <c r="AL4" s="551"/>
-      <c r="AM4" s="550" t="s">
+      <c r="AI4" s="554"/>
+      <c r="AJ4" s="554"/>
+      <c r="AK4" s="554"/>
+      <c r="AL4" s="555"/>
+      <c r="AM4" s="554" t="s">
         <v>358</v>
       </c>
-      <c r="AN4" s="550"/>
-      <c r="AO4" s="550"/>
-      <c r="AP4" s="550"/>
-      <c r="AQ4" s="551"/>
-      <c r="AR4" s="550" t="s">
+      <c r="AN4" s="554"/>
+      <c r="AO4" s="554"/>
+      <c r="AP4" s="554"/>
+      <c r="AQ4" s="555"/>
+      <c r="AR4" s="554" t="s">
         <v>359</v>
       </c>
-      <c r="AS4" s="550"/>
-      <c r="AT4" s="550"/>
-      <c r="AU4" s="550"/>
-      <c r="AV4" s="551"/>
-      <c r="AW4" s="550" t="s">
+      <c r="AS4" s="554"/>
+      <c r="AT4" s="554"/>
+      <c r="AU4" s="554"/>
+      <c r="AV4" s="555"/>
+      <c r="AW4" s="554" t="s">
         <v>360</v>
       </c>
-      <c r="AX4" s="550"/>
-      <c r="AY4" s="550"/>
-      <c r="AZ4" s="550"/>
-      <c r="BA4" s="550"/>
-      <c r="BB4" s="549" t="s">
+      <c r="AX4" s="554"/>
+      <c r="AY4" s="554"/>
+      <c r="AZ4" s="554"/>
+      <c r="BA4" s="554"/>
+      <c r="BB4" s="553" t="s">
         <v>361</v>
       </c>
-      <c r="BC4" s="550"/>
-      <c r="BD4" s="550"/>
-      <c r="BE4" s="550"/>
-      <c r="BF4" s="551"/>
-      <c r="BG4" s="550" t="s">
+      <c r="BC4" s="554"/>
+      <c r="BD4" s="554"/>
+      <c r="BE4" s="554"/>
+      <c r="BF4" s="555"/>
+      <c r="BG4" s="554" t="s">
         <v>362</v>
       </c>
-      <c r="BH4" s="550"/>
-      <c r="BI4" s="550"/>
-      <c r="BJ4" s="550"/>
-      <c r="BK4" s="550"/>
-      <c r="BL4" s="549" t="s">
+      <c r="BH4" s="554"/>
+      <c r="BI4" s="554"/>
+      <c r="BJ4" s="554"/>
+      <c r="BK4" s="554"/>
+      <c r="BL4" s="553" t="s">
         <v>363</v>
       </c>
-      <c r="BM4" s="550"/>
-      <c r="BN4" s="550"/>
-      <c r="BO4" s="550"/>
-      <c r="BP4" s="550"/>
-      <c r="BQ4" s="549" t="s">
+      <c r="BM4" s="554"/>
+      <c r="BN4" s="554"/>
+      <c r="BO4" s="554"/>
+      <c r="BP4" s="554"/>
+      <c r="BQ4" s="553" t="s">
         <v>364</v>
       </c>
-      <c r="BR4" s="550"/>
-      <c r="BS4" s="550"/>
-      <c r="BT4" s="550"/>
-      <c r="BU4" s="551"/>
+      <c r="BR4" s="554"/>
+      <c r="BS4" s="554"/>
+      <c r="BT4" s="554"/>
+      <c r="BU4" s="555"/>
       <c r="BV4" s="296" t="s">
         <v>365</v>
       </c>
-      <c r="BW4" s="552" t="s">
+      <c r="BW4" s="556" t="s">
         <v>366</v>
       </c>
-      <c r="BX4" s="553"/>
-      <c r="BY4" s="553"/>
-      <c r="BZ4" s="553"/>
-      <c r="CA4" s="554"/>
-      <c r="CB4" s="552" t="s">
+      <c r="BX4" s="557"/>
+      <c r="BY4" s="557"/>
+      <c r="BZ4" s="557"/>
+      <c r="CA4" s="558"/>
+      <c r="CB4" s="556" t="s">
         <v>367</v>
       </c>
-      <c r="CC4" s="553"/>
-      <c r="CD4" s="553"/>
-      <c r="CE4" s="553"/>
-      <c r="CF4" s="554"/>
-      <c r="CG4" s="552" t="s">
+      <c r="CC4" s="557"/>
+      <c r="CD4" s="557"/>
+      <c r="CE4" s="557"/>
+      <c r="CF4" s="558"/>
+      <c r="CG4" s="556" t="s">
         <v>368</v>
       </c>
-      <c r="CH4" s="553"/>
-      <c r="CI4" s="553"/>
-      <c r="CJ4" s="553"/>
-      <c r="CK4" s="554"/>
+      <c r="CH4" s="557"/>
+      <c r="CI4" s="557"/>
+      <c r="CJ4" s="557"/>
+      <c r="CK4" s="558"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A5" s="298"/>
@@ -48001,23 +47997,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="556" t="s">
+      <c r="A1" s="560" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="558" t="s">
+      <c r="B1" s="562" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="560"/>
-      <c r="G1" s="558" t="s">
+      <c r="C1" s="563"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="562" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
-      <c r="K1" s="560"/>
+      <c r="H1" s="563"/>
+      <c r="I1" s="563"/>
+      <c r="J1" s="563"/>
+      <c r="K1" s="564"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -48027,7 +48023,7 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557"/>
+      <c r="A2" s="561"/>
       <c r="B2" s="466" t="s">
         <v>284</v>
       </c>
@@ -48173,12 +48169,12 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="555" t="s">
+      <c r="A7" s="559" t="s">
         <v>641</v>
       </c>
-      <c r="B7" s="555"/>
-      <c r="C7" s="555"/>
-      <c r="D7" s="555"/>
+      <c r="B7" s="559"/>
+      <c r="C7" s="559"/>
+      <c r="D7" s="559"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -48464,12 +48460,12 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="555" t="s">
+      <c r="A18" s="559" t="s">
         <v>655</v>
       </c>
-      <c r="B18" s="555"/>
-      <c r="C18" s="555"/>
-      <c r="D18" s="555"/>
+      <c r="B18" s="559"/>
+      <c r="C18" s="559"/>
+      <c r="D18" s="559"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -48724,12 +48720,12 @@
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="555" t="s">
+      <c r="A28" s="559" t="s">
         <v>663</v>
       </c>
-      <c r="B28" s="555"/>
-      <c r="C28" s="555"/>
-      <c r="D28" s="555"/>
+      <c r="B28" s="559"/>
+      <c r="C28" s="559"/>
+      <c r="D28" s="559"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -49217,12 +49213,12 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="555" t="s">
+      <c r="A40" s="559" t="s">
         <v>644</v>
       </c>
-      <c r="B40" s="555"/>
-      <c r="C40" s="555"/>
-      <c r="D40" s="555"/>
+      <c r="B40" s="559"/>
+      <c r="C40" s="559"/>
+      <c r="D40" s="559"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
@@ -49398,12 +49394,12 @@
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="555" t="s">
+      <c r="A45" s="559" t="s">
         <v>672</v>
       </c>
-      <c r="B45" s="555"/>
-      <c r="C45" s="555"/>
-      <c r="D45" s="555"/>
+      <c r="B45" s="559"/>
+      <c r="C45" s="559"/>
+      <c r="D45" s="559"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -49520,11 +49516,11 @@
       <c r="Y48" t="s">
         <v>689</v>
       </c>
-      <c r="Z48" s="561" t="s">
+      <c r="Z48" s="565" t="s">
         <v>627</v>
       </c>
-      <c r="AA48" s="562"/>
-      <c r="AB48" s="562"/>
+      <c r="AA48" s="566"/>
+      <c r="AB48" s="566"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -49741,11 +49737,11 @@
       <c r="Y53" t="s">
         <v>691</v>
       </c>
-      <c r="Z53" s="561" t="s">
+      <c r="Z53" s="565" t="s">
         <v>626</v>
       </c>
-      <c r="AA53" s="562"/>
-      <c r="AB53" s="562"/>
+      <c r="AA53" s="566"/>
+      <c r="AB53" s="566"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
@@ -49947,11 +49943,11 @@
       <c r="Y59" t="s">
         <v>692</v>
       </c>
-      <c r="Z59" s="561" t="s">
+      <c r="Z59" s="565" t="s">
         <v>693</v>
       </c>
-      <c r="AA59" s="562"/>
-      <c r="AB59" s="562"/>
+      <c r="AA59" s="566"/>
+      <c r="AB59" s="566"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="486" t="str">

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E3134-A32B-4F51-85A5-99E9FE2E430F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20BE32-78B0-4D3D-8D7F-14F41295A8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -15930,7 +15930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <dimension ref="A2:AL103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -18852,8 +18852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AR166"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="E27" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X68" sqref="X68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24104,20 +24104,20 @@
       </c>
       <c r="U62" s="81"/>
       <c r="V62" s="82">
-        <f>(JRC_Data!BB48/1000)*($U$152/$U$151)</f>
-        <v>4.0495867768595044</v>
+        <f>(JRC_Data!BB48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="W62" s="82">
-        <f>(JRC_Data!BC48/1000)*($U$152/$U$151)</f>
-        <v>4.0495867768595044</v>
+        <f>(JRC_Data!BC48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="X62" s="82">
-        <f>(JRC_Data!BD48/1000)*($U$152/$U$151)</f>
-        <v>4.0495867768595044</v>
+        <f>(JRC_Data!BD48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="Y62" s="82">
-        <f>(JRC_Data!BE48/1000)*($U$152/$U$151)</f>
-        <v>4.0495867768595044</v>
+        <f>(JRC_Data!BE48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="Z62" s="85">
         <f>JRC_Data!BL48/1000</f>
@@ -28014,20 +28014,20 @@
       </c>
       <c r="U110" s="81"/>
       <c r="V110" s="82">
-        <f>(JRC_Data!BB48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BB48/1000)*($U$154/$U$151)</f>
+        <v>4.6198347107438016</v>
       </c>
       <c r="W110" s="82">
-        <f>(JRC_Data!BC48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BC48/1000)*($U$154/$U$151)</f>
+        <v>4.6198347107438016</v>
       </c>
       <c r="X110" s="82">
-        <f>(JRC_Data!BD48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BD48/1000)*($U$154/$U$151)</f>
+        <v>4.6198347107438016</v>
       </c>
       <c r="Y110" s="82">
-        <f>(JRC_Data!BE48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BE48/1000)*($U$154/$U$151)</f>
+        <v>4.6198347107438016</v>
       </c>
       <c r="Z110" s="85">
         <f>JRC_Data!BL48/1000</f>
@@ -33856,8 +33856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061230A-839F-45A9-841C-C412BBE6D334}">
   <dimension ref="A1:CK183"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY47" sqref="AY47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20BE32-78B0-4D3D-8D7F-14F41295A8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA717D5-1D02-42A5-831C-4F0884BDFE72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
@@ -13605,15 +13605,6 @@
     <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13621,6 +13612,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13632,22 +13632,13 @@
     <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13659,10 +13650,19 @@
     <xf numFmtId="0" fontId="58" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13680,6 +13680,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13694,12 +13700,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -18852,8 +18852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <dimension ref="A2:AR166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X68" sqref="X68"/>
+    <sheetView tabSelected="1" topLeftCell="E69" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X114" sqref="X114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19039,12 +19039,12 @@
         <v>91</v>
       </c>
       <c r="U4" s="543"/>
-      <c r="V4" s="535" t="s">
+      <c r="V4" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="536"/>
-      <c r="X4" s="536"/>
-      <c r="Y4" s="537"/>
+      <c r="W4" s="545"/>
+      <c r="X4" s="545"/>
+      <c r="Y4" s="546"/>
       <c r="Z4" s="63"/>
       <c r="AA4" s="63"/>
       <c r="AB4" s="71" t="s">
@@ -19143,34 +19143,34 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="538" t="s">
+      <c r="H6" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="539"/>
-      <c r="J6" s="539"/>
-      <c r="K6" s="540"/>
-      <c r="L6" s="539" t="s">
+      <c r="I6" s="536"/>
+      <c r="J6" s="536"/>
+      <c r="K6" s="537"/>
+      <c r="L6" s="536" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="539"/>
-      <c r="N6" s="539"/>
-      <c r="O6" s="540"/>
-      <c r="P6" s="538" t="s">
+      <c r="M6" s="536"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="537"/>
+      <c r="P6" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="539"/>
-      <c r="R6" s="539"/>
-      <c r="S6" s="540"/>
-      <c r="T6" s="538" t="s">
+      <c r="Q6" s="536"/>
+      <c r="R6" s="536"/>
+      <c r="S6" s="537"/>
+      <c r="T6" s="535" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="540"/>
-      <c r="V6" s="538" t="s">
+      <c r="U6" s="537"/>
+      <c r="V6" s="535" t="s">
         <v>552</v>
       </c>
-      <c r="W6" s="539"/>
-      <c r="X6" s="539"/>
-      <c r="Y6" s="540"/>
+      <c r="W6" s="536"/>
+      <c r="X6" s="536"/>
+      <c r="Y6" s="537"/>
       <c r="Z6" s="64" t="s">
         <v>564</v>
       </c>
@@ -22189,12 +22189,12 @@
         <v>91</v>
       </c>
       <c r="U42" s="543"/>
-      <c r="V42" s="535" t="s">
+      <c r="V42" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="536"/>
-      <c r="X42" s="536"/>
-      <c r="Y42" s="537"/>
+      <c r="W42" s="545"/>
+      <c r="X42" s="545"/>
+      <c r="Y42" s="546"/>
       <c r="Z42" s="63"/>
       <c r="AA42" s="63"/>
       <c r="AB42" s="71" t="s">
@@ -22293,34 +22293,34 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="538" t="s">
+      <c r="H44" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="539"/>
-      <c r="J44" s="539"/>
-      <c r="K44" s="540"/>
-      <c r="L44" s="539" t="s">
+      <c r="I44" s="536"/>
+      <c r="J44" s="536"/>
+      <c r="K44" s="537"/>
+      <c r="L44" s="536" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="539"/>
-      <c r="N44" s="539"/>
-      <c r="O44" s="540"/>
-      <c r="P44" s="538" t="s">
+      <c r="M44" s="536"/>
+      <c r="N44" s="536"/>
+      <c r="O44" s="537"/>
+      <c r="P44" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="539"/>
-      <c r="R44" s="539"/>
-      <c r="S44" s="540"/>
-      <c r="T44" s="544" t="s">
+      <c r="Q44" s="536"/>
+      <c r="R44" s="536"/>
+      <c r="S44" s="537"/>
+      <c r="T44" s="538" t="s">
         <v>74</v>
       </c>
-      <c r="U44" s="545"/>
-      <c r="V44" s="544" t="s">
+      <c r="U44" s="539"/>
+      <c r="V44" s="538" t="s">
         <v>552</v>
       </c>
-      <c r="W44" s="546"/>
-      <c r="X44" s="546"/>
-      <c r="Y44" s="545"/>
+      <c r="W44" s="540"/>
+      <c r="X44" s="540"/>
+      <c r="Y44" s="539"/>
       <c r="Z44" s="389" t="s">
         <v>564</v>
       </c>
@@ -24104,20 +24104,20 @@
       </c>
       <c r="U62" s="81"/>
       <c r="V62" s="82">
-        <f>(JRC_Data!BB48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BB48/1000)*($U$152/$U$151)</f>
+        <v>4.0495867768595044</v>
       </c>
       <c r="W62" s="82">
-        <f>(JRC_Data!BC48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BC48/1000)*($U$152/$U$151)</f>
+        <v>4.0495867768595044</v>
       </c>
       <c r="X62" s="82">
-        <f>(JRC_Data!BD48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BD48/1000)*($U$152/$U$151)</f>
+        <v>4.0495867768595044</v>
       </c>
       <c r="Y62" s="82">
-        <f>(JRC_Data!BE48/1000)*($U$153/$U$151)</f>
-        <v>4.2809917355371896</v>
+        <f>(JRC_Data!BE48/1000)*($U$152/$U$151)</f>
+        <v>4.0495867768595044</v>
       </c>
       <c r="Z62" s="85">
         <f>JRC_Data!BL48/1000</f>
@@ -26099,12 +26099,12 @@
         <v>91</v>
       </c>
       <c r="U90" s="543"/>
-      <c r="V90" s="535" t="s">
+      <c r="V90" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="536"/>
-      <c r="X90" s="536"/>
-      <c r="Y90" s="537"/>
+      <c r="W90" s="545"/>
+      <c r="X90" s="545"/>
+      <c r="Y90" s="546"/>
       <c r="Z90" s="63"/>
       <c r="AA90" s="63"/>
       <c r="AB90" s="71" t="s">
@@ -26203,34 +26203,34 @@
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
-      <c r="H92" s="538" t="s">
+      <c r="H92" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="539"/>
-      <c r="J92" s="539"/>
-      <c r="K92" s="540"/>
-      <c r="L92" s="539" t="s">
+      <c r="I92" s="536"/>
+      <c r="J92" s="536"/>
+      <c r="K92" s="537"/>
+      <c r="L92" s="536" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="539"/>
-      <c r="N92" s="539"/>
-      <c r="O92" s="540"/>
-      <c r="P92" s="538" t="s">
+      <c r="M92" s="536"/>
+      <c r="N92" s="536"/>
+      <c r="O92" s="537"/>
+      <c r="P92" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="Q92" s="539"/>
-      <c r="R92" s="539"/>
-      <c r="S92" s="540"/>
-      <c r="T92" s="544" t="s">
+      <c r="Q92" s="536"/>
+      <c r="R92" s="536"/>
+      <c r="S92" s="537"/>
+      <c r="T92" s="538" t="s">
         <v>74</v>
       </c>
-      <c r="U92" s="545"/>
-      <c r="V92" s="544" t="s">
+      <c r="U92" s="539"/>
+      <c r="V92" s="538" t="s">
         <v>552</v>
       </c>
-      <c r="W92" s="546"/>
-      <c r="X92" s="546"/>
-      <c r="Y92" s="545"/>
+      <c r="W92" s="540"/>
+      <c r="X92" s="540"/>
+      <c r="Y92" s="539"/>
       <c r="Z92" s="389" t="s">
         <v>564</v>
       </c>
@@ -28014,20 +28014,20 @@
       </c>
       <c r="U110" s="81"/>
       <c r="V110" s="82">
-        <f>(JRC_Data!BB48/1000)*($U$154/$U$151)</f>
-        <v>4.6198347107438016</v>
+        <f>(JRC_Data!BB48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="W110" s="82">
-        <f>(JRC_Data!BC48/1000)*($U$154/$U$151)</f>
-        <v>4.6198347107438016</v>
+        <f>(JRC_Data!BC48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="X110" s="82">
-        <f>(JRC_Data!BD48/1000)*($U$154/$U$151)</f>
-        <v>4.6198347107438016</v>
+        <f>(JRC_Data!BD48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="Y110" s="82">
-        <f>(JRC_Data!BE48/1000)*($U$154/$U$151)</f>
-        <v>4.6198347107438016</v>
+        <f>(JRC_Data!BE48/1000)*($U$153/$U$151)</f>
+        <v>4.2809917355371896</v>
       </c>
       <c r="Z110" s="85">
         <f>JRC_Data!BL48/1000</f>
@@ -30149,26 +30149,6 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -30179,6 +30159,26 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -30323,12 +30323,12 @@
       <c r="I5" s="130"/>
       <c r="J5" s="130"/>
       <c r="K5" s="130"/>
-      <c r="L5" s="535" t="s">
+      <c r="L5" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="536"/>
-      <c r="N5" s="536"/>
-      <c r="O5" s="537"/>
+      <c r="M5" s="545"/>
+      <c r="N5" s="545"/>
+      <c r="O5" s="546"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="63" t="s">
         <v>93</v>
@@ -30359,12 +30359,12 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="544" t="s">
+      <c r="L6" s="538" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="546"/>
-      <c r="N6" s="546"/>
-      <c r="O6" s="545"/>
+      <c r="M6" s="540"/>
+      <c r="N6" s="540"/>
+      <c r="O6" s="539"/>
       <c r="P6" s="389" t="s">
         <v>564</v>
       </c>
@@ -31250,23 +31250,23 @@
       <c r="K33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="535" t="s">
+      <c r="L33" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="M33" s="536"/>
-      <c r="N33" s="536"/>
-      <c r="O33" s="537"/>
+      <c r="M33" s="545"/>
+      <c r="N33" s="545"/>
+      <c r="O33" s="546"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="544" t="s">
+      <c r="L34" s="538" t="s">
         <v>97</v>
       </c>
-      <c r="M34" s="546"/>
-      <c r="N34" s="546"/>
-      <c r="O34" s="545"/>
+      <c r="M34" s="540"/>
+      <c r="N34" s="540"/>
+      <c r="O34" s="539"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
@@ -31612,11 +31612,11 @@
       </c>
       <c r="I4" s="542"/>
       <c r="J4" s="543"/>
-      <c r="K4" s="535" t="s">
+      <c r="K4" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="536"/>
-      <c r="M4" s="537"/>
+      <c r="L4" s="545"/>
+      <c r="M4" s="546"/>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>93</v>
@@ -31642,16 +31642,16 @@
       <c r="G5" s="397" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="547" t="s">
+      <c r="H5" s="550" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="548"/>
-      <c r="J5" s="549"/>
-      <c r="K5" s="547" t="s">
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="550" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="548"/>
-      <c r="M5" s="549"/>
+      <c r="L5" s="551"/>
+      <c r="M5" s="552"/>
       <c r="N5" s="398" t="s">
         <v>98</v>
       </c>
@@ -31668,23 +31668,23 @@
         <v>226</v>
       </c>
       <c r="AA5" s="220"/>
-      <c r="AB5" s="550" t="s">
+      <c r="AB5" s="547" t="s">
         <v>594</v>
       </c>
-      <c r="AC5" s="550"/>
+      <c r="AC5" s="547"/>
       <c r="AD5" s="400"/>
-      <c r="AE5" s="551" t="s">
+      <c r="AE5" s="548" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="551"/>
-      <c r="AG5" s="551" t="s">
+      <c r="AF5" s="548"/>
+      <c r="AG5" s="548" t="s">
         <v>595</v>
       </c>
-      <c r="AH5" s="551"/>
-      <c r="AI5" s="552" t="s">
+      <c r="AH5" s="548"/>
+      <c r="AI5" s="549" t="s">
         <v>596</v>
       </c>
-      <c r="AJ5" s="552"/>
+      <c r="AJ5" s="549"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="444" t="str">
@@ -32422,12 +32422,12 @@
       <c r="K27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="535" t="s">
+      <c r="L27" s="544" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="536"/>
-      <c r="N27" s="536"/>
-      <c r="O27" s="537"/>
+      <c r="M27" s="545"/>
+      <c r="N27" s="545"/>
+      <c r="O27" s="546"/>
       <c r="T27" s="222"/>
       <c r="U27" s="222"/>
     </row>
@@ -32435,12 +32435,12 @@
       <c r="J28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="538" t="s">
+      <c r="L28" s="535" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="539"/>
-      <c r="N28" s="539"/>
-      <c r="O28" s="540"/>
+      <c r="M28" s="536"/>
+      <c r="N28" s="536"/>
+      <c r="O28" s="537"/>
       <c r="T28" s="222"/>
       <c r="U28" s="222"/>
     </row>
@@ -33830,16 +33830,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -34269,103 +34269,103 @@
       <c r="C4" s="295" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="553" t="s">
+      <c r="D4" s="554" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="554"/>
-      <c r="F4" s="554"/>
-      <c r="G4" s="554"/>
+      <c r="E4" s="553"/>
+      <c r="F4" s="553"/>
+      <c r="G4" s="553"/>
       <c r="H4" s="555"/>
-      <c r="I4" s="554" t="s">
+      <c r="I4" s="553" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="554"/>
-      <c r="K4" s="554"/>
-      <c r="L4" s="554"/>
+      <c r="J4" s="553"/>
+      <c r="K4" s="553"/>
+      <c r="L4" s="553"/>
       <c r="M4" s="555"/>
-      <c r="N4" s="554" t="s">
+      <c r="N4" s="553" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="554"/>
-      <c r="P4" s="554"/>
-      <c r="Q4" s="554"/>
+      <c r="O4" s="553"/>
+      <c r="P4" s="553"/>
+      <c r="Q4" s="553"/>
       <c r="R4" s="555"/>
-      <c r="S4" s="554" t="s">
+      <c r="S4" s="553" t="s">
         <v>354</v>
       </c>
-      <c r="T4" s="554"/>
-      <c r="U4" s="554"/>
-      <c r="V4" s="554"/>
+      <c r="T4" s="553"/>
+      <c r="U4" s="553"/>
+      <c r="V4" s="553"/>
       <c r="W4" s="555"/>
-      <c r="X4" s="554" t="s">
+      <c r="X4" s="553" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" s="554"/>
-      <c r="Z4" s="554"/>
-      <c r="AA4" s="554"/>
+      <c r="Y4" s="553"/>
+      <c r="Z4" s="553"/>
+      <c r="AA4" s="553"/>
       <c r="AB4" s="555"/>
-      <c r="AC4" s="554" t="s">
+      <c r="AC4" s="553" t="s">
         <v>356</v>
       </c>
-      <c r="AD4" s="554"/>
-      <c r="AE4" s="554"/>
-      <c r="AF4" s="554"/>
+      <c r="AD4" s="553"/>
+      <c r="AE4" s="553"/>
+      <c r="AF4" s="553"/>
       <c r="AG4" s="555"/>
-      <c r="AH4" s="554" t="s">
+      <c r="AH4" s="553" t="s">
         <v>357</v>
       </c>
-      <c r="AI4" s="554"/>
-      <c r="AJ4" s="554"/>
-      <c r="AK4" s="554"/>
+      <c r="AI4" s="553"/>
+      <c r="AJ4" s="553"/>
+      <c r="AK4" s="553"/>
       <c r="AL4" s="555"/>
-      <c r="AM4" s="554" t="s">
+      <c r="AM4" s="553" t="s">
         <v>358</v>
       </c>
-      <c r="AN4" s="554"/>
-      <c r="AO4" s="554"/>
-      <c r="AP4" s="554"/>
+      <c r="AN4" s="553"/>
+      <c r="AO4" s="553"/>
+      <c r="AP4" s="553"/>
       <c r="AQ4" s="555"/>
-      <c r="AR4" s="554" t="s">
+      <c r="AR4" s="553" t="s">
         <v>359</v>
       </c>
-      <c r="AS4" s="554"/>
-      <c r="AT4" s="554"/>
-      <c r="AU4" s="554"/>
+      <c r="AS4" s="553"/>
+      <c r="AT4" s="553"/>
+      <c r="AU4" s="553"/>
       <c r="AV4" s="555"/>
-      <c r="AW4" s="554" t="s">
+      <c r="AW4" s="553" t="s">
         <v>360</v>
       </c>
-      <c r="AX4" s="554"/>
-      <c r="AY4" s="554"/>
-      <c r="AZ4" s="554"/>
-      <c r="BA4" s="554"/>
-      <c r="BB4" s="553" t="s">
+      <c r="AX4" s="553"/>
+      <c r="AY4" s="553"/>
+      <c r="AZ4" s="553"/>
+      <c r="BA4" s="553"/>
+      <c r="BB4" s="554" t="s">
         <v>361</v>
       </c>
-      <c r="BC4" s="554"/>
-      <c r="BD4" s="554"/>
-      <c r="BE4" s="554"/>
+      <c r="BC4" s="553"/>
+      <c r="BD4" s="553"/>
+      <c r="BE4" s="553"/>
       <c r="BF4" s="555"/>
-      <c r="BG4" s="554" t="s">
+      <c r="BG4" s="553" t="s">
         <v>362</v>
       </c>
-      <c r="BH4" s="554"/>
-      <c r="BI4" s="554"/>
-      <c r="BJ4" s="554"/>
-      <c r="BK4" s="554"/>
-      <c r="BL4" s="553" t="s">
+      <c r="BH4" s="553"/>
+      <c r="BI4" s="553"/>
+      <c r="BJ4" s="553"/>
+      <c r="BK4" s="553"/>
+      <c r="BL4" s="554" t="s">
         <v>363</v>
       </c>
-      <c r="BM4" s="554"/>
-      <c r="BN4" s="554"/>
-      <c r="BO4" s="554"/>
-      <c r="BP4" s="554"/>
-      <c r="BQ4" s="553" t="s">
+      <c r="BM4" s="553"/>
+      <c r="BN4" s="553"/>
+      <c r="BO4" s="553"/>
+      <c r="BP4" s="553"/>
+      <c r="BQ4" s="554" t="s">
         <v>364</v>
       </c>
-      <c r="BR4" s="554"/>
-      <c r="BS4" s="554"/>
-      <c r="BT4" s="554"/>
+      <c r="BR4" s="553"/>
+      <c r="BS4" s="553"/>
+      <c r="BT4" s="553"/>
       <c r="BU4" s="555"/>
       <c r="BV4" s="296" t="s">
         <v>365</v>
@@ -47959,6 +47959,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -47971,11 +47976,6 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -47997,23 +47997,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="560" t="s">
+      <c r="A1" s="562" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="562" t="s">
+      <c r="B1" s="564" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="563"/>
-      <c r="D1" s="563"/>
-      <c r="E1" s="563"/>
-      <c r="F1" s="564"/>
-      <c r="G1" s="562" t="s">
+      <c r="C1" s="565"/>
+      <c r="D1" s="565"/>
+      <c r="E1" s="565"/>
+      <c r="F1" s="566"/>
+      <c r="G1" s="564" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="563"/>
-      <c r="I1" s="563"/>
-      <c r="J1" s="563"/>
-      <c r="K1" s="564"/>
+      <c r="H1" s="565"/>
+      <c r="I1" s="565"/>
+      <c r="J1" s="565"/>
+      <c r="K1" s="566"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -48023,7 +48023,7 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="561"/>
+      <c r="A2" s="563"/>
       <c r="B2" s="466" t="s">
         <v>284</v>
       </c>
@@ -49516,11 +49516,11 @@
       <c r="Y48" t="s">
         <v>689</v>
       </c>
-      <c r="Z48" s="565" t="s">
+      <c r="Z48" s="560" t="s">
         <v>627</v>
       </c>
-      <c r="AA48" s="566"/>
-      <c r="AB48" s="566"/>
+      <c r="AA48" s="561"/>
+      <c r="AB48" s="561"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -49737,11 +49737,11 @@
       <c r="Y53" t="s">
         <v>691</v>
       </c>
-      <c r="Z53" s="565" t="s">
+      <c r="Z53" s="560" t="s">
         <v>626</v>
       </c>
-      <c r="AA53" s="566"/>
-      <c r="AB53" s="566"/>
+      <c r="AA53" s="561"/>
+      <c r="AB53" s="561"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
@@ -49943,11 +49943,11 @@
       <c r="Y59" t="s">
         <v>692</v>
       </c>
-      <c r="Z59" s="565" t="s">
+      <c r="Z59" s="560" t="s">
         <v>693</v>
       </c>
-      <c r="AA59" s="566"/>
-      <c r="AB59" s="566"/>
+      <c r="AA59" s="561"/>
+      <c r="AB59" s="561"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="486" t="str">
@@ -50784,17 +50784,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="59" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7991041-B864-40DA-A575-100E701F8CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A00C5E-4822-46C2-92E5-8008B4CF3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="34" r:id="rId1"/>
@@ -10771,30 +10771,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="11">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="10">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="\Te\x\t"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -10945,18 +10937,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -10964,12 +10944,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -11189,7 +11163,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11284,11 +11258,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="29"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -12484,879 +12453,866 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="60" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="563">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="27" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="5" borderId="2" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="22" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="18" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="27" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="17" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="26" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="30" fillId="5" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="26" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="26" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="26" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="26" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="25" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="26" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="26" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="26" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="26" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="27" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="27" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="27" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="27" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="26" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="27" fillId="27" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="26" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="26" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="26" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="27" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="27" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="31" fillId="28" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="31" fillId="28" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="26" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="25" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="17" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="17" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="17" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="20" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="26" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="20" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="23" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="56" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="57" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="55" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="55" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="55" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="55" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="10" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="25" xfId="14" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="55" fillId="0" borderId="0" xfId="14" applyFont="1"/>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="32" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="32" fillId="20" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="20" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="20" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="28" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="19" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="32" fillId="20" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="20" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="20" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="20" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="33" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="28" fillId="19" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="19" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="19" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="28" fillId="19" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="29" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="26" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="20" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="20" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="20" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="23" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="19" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="19" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="14" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13392,15 +13348,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="15" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="16" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13418,174 +13374,168 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="14" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="60" fillId="36" borderId="0" xfId="17" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="60" fillId="36" borderId="0" xfId="17" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="60" fillId="36" borderId="0" xfId="17"/>
-    <xf numFmtId="166" fontId="61" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="56" fillId="35" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="56" fillId="35" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" xfId="4"/>
+    <xf numFmtId="166" fontId="57" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="61" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="57" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="34" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="30" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="24" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="24" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="24" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13602,26 +13552,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="20% - Colore 2" xfId="11" xr:uid="{3E3DAF22-4D86-48A9-B6EE-8D230C1E993C}"/>
-    <cellStyle name="Accent1" xfId="17" builtinId="29"/>
+  <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="12" xr:uid="{0ABA8B51-FCCD-40DB-958F-AE78849A8FFE}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="5" xr:uid="{E1BCE1F9-C32B-49FB-A63B-D516C5E840D2}"/>
-    <cellStyle name="Normal 10 2" xfId="10" xr:uid="{403CABF5-5076-4EF0-B1C7-90DFA4621072}"/>
-    <cellStyle name="Normal 13" xfId="4" xr:uid="{7795B802-A17D-4590-A427-E52A73DAE426}"/>
-    <cellStyle name="Normal 15" xfId="7" xr:uid="{ECC42FCF-829B-4185-889D-06A7EB4A5E0F}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{81BCDB32-370A-45D4-8768-8E71CE87AC81}"/>
-    <cellStyle name="Normal 2 2" xfId="16" xr:uid="{F55A96FA-1F39-4399-9746-FC7A0FF0CF85}"/>
-    <cellStyle name="Normal 3" xfId="15" xr:uid="{E546F610-2CE8-44AC-929E-860AF660C194}"/>
-    <cellStyle name="Normal 3 2" xfId="8" xr:uid="{5199F4FA-30A6-4F2B-B914-9F4ECA1F08E9}"/>
-    <cellStyle name="Normal 3 2 2" xfId="6" xr:uid="{AB77C6EE-5FAA-4EA6-92D0-2986F2803EAB}"/>
-    <cellStyle name="Normal 4" xfId="13" xr:uid="{C3AFA141-A2C0-4D00-BCC8-D2E525C207DA}"/>
-    <cellStyle name="Normal 4 2" xfId="9" xr:uid="{87BDABB2-3FF4-448F-8C91-A21FFDA39A5E}"/>
-    <cellStyle name="Percent" xfId="14" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -15829,6 +15772,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AL103"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -18707,7 +18651,7 @@
   <mergeCells count="1">
     <mergeCell ref="S3:W3"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -18716,6 +18660,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AR166"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -18905,12 +18850,12 @@
         <v>91</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="540" t="s">
+      <c r="V4" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="541"/>
-      <c r="X4" s="541"/>
-      <c r="Y4" s="542"/>
+      <c r="W4" s="532"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="533"/>
       <c r="Z4" s="63"/>
       <c r="AA4" s="63"/>
       <c r="AB4" s="71" t="s">
@@ -19009,34 +18954,34 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="531" t="s">
+      <c r="H6" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="532"/>
-      <c r="J6" s="532"/>
-      <c r="K6" s="533"/>
-      <c r="L6" s="532" t="s">
+      <c r="I6" s="535"/>
+      <c r="J6" s="535"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="533"/>
-      <c r="P6" s="531" t="s">
+      <c r="M6" s="535"/>
+      <c r="N6" s="535"/>
+      <c r="O6" s="536"/>
+      <c r="P6" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="531" t="s">
+      <c r="Q6" s="535"/>
+      <c r="R6" s="535"/>
+      <c r="S6" s="536"/>
+      <c r="T6" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="533"/>
-      <c r="V6" s="531" t="s">
+      <c r="U6" s="536"/>
+      <c r="V6" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="W6" s="532"/>
-      <c r="X6" s="532"/>
-      <c r="Y6" s="533"/>
+      <c r="W6" s="535"/>
+      <c r="X6" s="535"/>
+      <c r="Y6" s="536"/>
       <c r="Z6" s="64" t="s">
         <v>564</v>
       </c>
@@ -22055,12 +22000,12 @@
         <v>91</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="540" t="s">
+      <c r="V42" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="541"/>
-      <c r="X42" s="541"/>
-      <c r="Y42" s="542"/>
+      <c r="W42" s="532"/>
+      <c r="X42" s="532"/>
+      <c r="Y42" s="533"/>
       <c r="Z42" s="63"/>
       <c r="AA42" s="63"/>
       <c r="AB42" s="71" t="s">
@@ -22159,34 +22104,34 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="531" t="s">
+      <c r="H44" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="532"/>
-      <c r="J44" s="532"/>
-      <c r="K44" s="533"/>
-      <c r="L44" s="532" t="s">
+      <c r="I44" s="535"/>
+      <c r="J44" s="535"/>
+      <c r="K44" s="536"/>
+      <c r="L44" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="532"/>
-      <c r="N44" s="532"/>
-      <c r="O44" s="533"/>
-      <c r="P44" s="531" t="s">
+      <c r="M44" s="535"/>
+      <c r="N44" s="535"/>
+      <c r="O44" s="536"/>
+      <c r="P44" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="532"/>
-      <c r="R44" s="532"/>
-      <c r="S44" s="533"/>
-      <c r="T44" s="534" t="s">
+      <c r="Q44" s="535"/>
+      <c r="R44" s="535"/>
+      <c r="S44" s="536"/>
+      <c r="T44" s="540" t="s">
         <v>74</v>
       </c>
-      <c r="U44" s="535"/>
-      <c r="V44" s="534" t="s">
+      <c r="U44" s="541"/>
+      <c r="V44" s="540" t="s">
         <v>552</v>
       </c>
-      <c r="W44" s="536"/>
-      <c r="X44" s="536"/>
-      <c r="Y44" s="535"/>
+      <c r="W44" s="542"/>
+      <c r="X44" s="542"/>
+      <c r="Y44" s="541"/>
       <c r="Z44" s="389" t="s">
         <v>564</v>
       </c>
@@ -25965,12 +25910,12 @@
         <v>91</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="540" t="s">
+      <c r="V90" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="541"/>
-      <c r="X90" s="541"/>
-      <c r="Y90" s="542"/>
+      <c r="W90" s="532"/>
+      <c r="X90" s="532"/>
+      <c r="Y90" s="533"/>
       <c r="Z90" s="63"/>
       <c r="AA90" s="63"/>
       <c r="AB90" s="71" t="s">
@@ -26069,34 +26014,34 @@
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
-      <c r="H92" s="531" t="s">
+      <c r="H92" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="532"/>
-      <c r="J92" s="532"/>
-      <c r="K92" s="533"/>
-      <c r="L92" s="532" t="s">
+      <c r="I92" s="535"/>
+      <c r="J92" s="535"/>
+      <c r="K92" s="536"/>
+      <c r="L92" s="535" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="532"/>
-      <c r="N92" s="532"/>
-      <c r="O92" s="533"/>
-      <c r="P92" s="531" t="s">
+      <c r="M92" s="535"/>
+      <c r="N92" s="535"/>
+      <c r="O92" s="536"/>
+      <c r="P92" s="534" t="s">
         <v>37</v>
       </c>
-      <c r="Q92" s="532"/>
-      <c r="R92" s="532"/>
-      <c r="S92" s="533"/>
-      <c r="T92" s="534" t="s">
+      <c r="Q92" s="535"/>
+      <c r="R92" s="535"/>
+      <c r="S92" s="536"/>
+      <c r="T92" s="540" t="s">
         <v>74</v>
       </c>
-      <c r="U92" s="535"/>
-      <c r="V92" s="534" t="s">
+      <c r="U92" s="541"/>
+      <c r="V92" s="540" t="s">
         <v>552</v>
       </c>
-      <c r="W92" s="536"/>
-      <c r="X92" s="536"/>
-      <c r="Y92" s="535"/>
+      <c r="W92" s="542"/>
+      <c r="X92" s="542"/>
+      <c r="Y92" s="541"/>
       <c r="Z92" s="389" t="s">
         <v>564</v>
       </c>
@@ -30015,6 +29960,26 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -30025,28 +29990,8 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M158" r:id="rId1" xr:uid="{95A20A04-5652-40C1-8115-13257477A004}"/>
   </hyperlinks>
@@ -30059,6 +30004,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="C2:AA43"/>
   <sheetViews>
     <sheetView topLeftCell="F4" workbookViewId="0">
@@ -30189,12 +30135,12 @@
       <c r="I5" s="130"/>
       <c r="J5" s="130"/>
       <c r="K5" s="130"/>
-      <c r="L5" s="540" t="s">
+      <c r="L5" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="541"/>
-      <c r="N5" s="541"/>
-      <c r="O5" s="542"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="532"/>
+      <c r="O5" s="533"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="63" t="s">
         <v>93</v>
@@ -30225,12 +30171,12 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="534" t="s">
+      <c r="L6" s="540" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="536"/>
-      <c r="N6" s="536"/>
-      <c r="O6" s="535"/>
+      <c r="M6" s="542"/>
+      <c r="N6" s="542"/>
+      <c r="O6" s="541"/>
       <c r="P6" s="389" t="s">
         <v>564</v>
       </c>
@@ -31116,23 +31062,23 @@
       <c r="K33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="540" t="s">
+      <c r="L33" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="M33" s="541"/>
-      <c r="N33" s="541"/>
-      <c r="O33" s="542"/>
+      <c r="M33" s="532"/>
+      <c r="N33" s="532"/>
+      <c r="O33" s="533"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="534" t="s">
+      <c r="L34" s="540" t="s">
         <v>97</v>
       </c>
-      <c r="M34" s="536"/>
-      <c r="N34" s="536"/>
-      <c r="O34" s="535"/>
+      <c r="M34" s="542"/>
+      <c r="N34" s="542"/>
+      <c r="O34" s="541"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
@@ -31374,6 +31320,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF4867-10C8-4ED5-9BE1-6E89AAC9887A}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:AK347"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -31478,11 +31425,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="540" t="s">
+      <c r="K4" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="541"/>
-      <c r="M4" s="542"/>
+      <c r="L4" s="532"/>
+      <c r="M4" s="533"/>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>93</v>
@@ -31508,16 +31455,16 @@
       <c r="G5" s="397" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="546" t="s">
+      <c r="H5" s="543" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="546" t="s">
+      <c r="I5" s="544"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="543" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="547"/>
-      <c r="M5" s="548"/>
+      <c r="L5" s="544"/>
+      <c r="M5" s="545"/>
       <c r="N5" s="398" t="s">
         <v>98</v>
       </c>
@@ -31534,23 +31481,23 @@
         <v>226</v>
       </c>
       <c r="AA5" s="220"/>
-      <c r="AB5" s="543" t="s">
+      <c r="AB5" s="546" t="s">
         <v>594</v>
       </c>
-      <c r="AC5" s="543"/>
+      <c r="AC5" s="546"/>
       <c r="AD5" s="400"/>
-      <c r="AE5" s="544" t="s">
+      <c r="AE5" s="547" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="544"/>
-      <c r="AG5" s="544" t="s">
+      <c r="AF5" s="547"/>
+      <c r="AG5" s="547" t="s">
         <v>595</v>
       </c>
-      <c r="AH5" s="544"/>
-      <c r="AI5" s="545" t="s">
+      <c r="AH5" s="547"/>
+      <c r="AI5" s="548" t="s">
         <v>596</v>
       </c>
-      <c r="AJ5" s="545"/>
+      <c r="AJ5" s="548"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="444" t="str">
@@ -32288,12 +32235,12 @@
       <c r="K27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="540" t="s">
+      <c r="L27" s="531" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="541"/>
-      <c r="N27" s="541"/>
-      <c r="O27" s="542"/>
+      <c r="M27" s="532"/>
+      <c r="N27" s="532"/>
+      <c r="O27" s="533"/>
       <c r="T27" s="222"/>
       <c r="U27" s="222"/>
     </row>
@@ -32301,12 +32248,12 @@
       <c r="J28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="531" t="s">
+      <c r="L28" s="534" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="532"/>
-      <c r="N28" s="532"/>
-      <c r="O28" s="533"/>
+      <c r="M28" s="535"/>
+      <c r="N28" s="535"/>
+      <c r="O28" s="536"/>
       <c r="T28" s="222"/>
       <c r="U28" s="222"/>
     </row>
@@ -33696,16 +33643,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -33720,6 +33667,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061230A-839F-45A9-841C-C412BBE6D334}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:CK183"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -34135,103 +34083,103 @@
       <c r="C4" s="295" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="550" t="s">
+      <c r="D4" s="549" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="549"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549"/>
+      <c r="E4" s="550"/>
+      <c r="F4" s="550"/>
+      <c r="G4" s="550"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="549" t="s">
+      <c r="I4" s="550" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="549"/>
-      <c r="K4" s="549"/>
-      <c r="L4" s="549"/>
+      <c r="J4" s="550"/>
+      <c r="K4" s="550"/>
+      <c r="L4" s="550"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="549" t="s">
+      <c r="N4" s="550" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="549"/>
-      <c r="P4" s="549"/>
-      <c r="Q4" s="549"/>
+      <c r="O4" s="550"/>
+      <c r="P4" s="550"/>
+      <c r="Q4" s="550"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="549" t="s">
+      <c r="S4" s="550" t="s">
         <v>354</v>
       </c>
-      <c r="T4" s="549"/>
-      <c r="U4" s="549"/>
-      <c r="V4" s="549"/>
+      <c r="T4" s="550"/>
+      <c r="U4" s="550"/>
+      <c r="V4" s="550"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="549" t="s">
+      <c r="X4" s="550" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" s="549"/>
-      <c r="Z4" s="549"/>
-      <c r="AA4" s="549"/>
+      <c r="Y4" s="550"/>
+      <c r="Z4" s="550"/>
+      <c r="AA4" s="550"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="549" t="s">
+      <c r="AC4" s="550" t="s">
         <v>356</v>
       </c>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="549"/>
-      <c r="AF4" s="549"/>
+      <c r="AD4" s="550"/>
+      <c r="AE4" s="550"/>
+      <c r="AF4" s="550"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="549" t="s">
+      <c r="AH4" s="550" t="s">
         <v>357</v>
       </c>
-      <c r="AI4" s="549"/>
-      <c r="AJ4" s="549"/>
-      <c r="AK4" s="549"/>
+      <c r="AI4" s="550"/>
+      <c r="AJ4" s="550"/>
+      <c r="AK4" s="550"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="549" t="s">
+      <c r="AM4" s="550" t="s">
         <v>358</v>
       </c>
-      <c r="AN4" s="549"/>
-      <c r="AO4" s="549"/>
-      <c r="AP4" s="549"/>
+      <c r="AN4" s="550"/>
+      <c r="AO4" s="550"/>
+      <c r="AP4" s="550"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="549" t="s">
+      <c r="AR4" s="550" t="s">
         <v>359</v>
       </c>
-      <c r="AS4" s="549"/>
-      <c r="AT4" s="549"/>
-      <c r="AU4" s="549"/>
+      <c r="AS4" s="550"/>
+      <c r="AT4" s="550"/>
+      <c r="AU4" s="550"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="549" t="s">
+      <c r="AW4" s="550" t="s">
         <v>360</v>
       </c>
-      <c r="AX4" s="549"/>
-      <c r="AY4" s="549"/>
-      <c r="AZ4" s="549"/>
-      <c r="BA4" s="549"/>
-      <c r="BB4" s="550" t="s">
+      <c r="AX4" s="550"/>
+      <c r="AY4" s="550"/>
+      <c r="AZ4" s="550"/>
+      <c r="BA4" s="550"/>
+      <c r="BB4" s="549" t="s">
         <v>361</v>
       </c>
-      <c r="BC4" s="549"/>
-      <c r="BD4" s="549"/>
-      <c r="BE4" s="549"/>
+      <c r="BC4" s="550"/>
+      <c r="BD4" s="550"/>
+      <c r="BE4" s="550"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="549" t="s">
+      <c r="BG4" s="550" t="s">
         <v>362</v>
       </c>
-      <c r="BH4" s="549"/>
-      <c r="BI4" s="549"/>
-      <c r="BJ4" s="549"/>
-      <c r="BK4" s="549"/>
-      <c r="BL4" s="550" t="s">
+      <c r="BH4" s="550"/>
+      <c r="BI4" s="550"/>
+      <c r="BJ4" s="550"/>
+      <c r="BK4" s="550"/>
+      <c r="BL4" s="549" t="s">
         <v>363</v>
       </c>
-      <c r="BM4" s="549"/>
-      <c r="BN4" s="549"/>
-      <c r="BO4" s="549"/>
-      <c r="BP4" s="549"/>
-      <c r="BQ4" s="550" t="s">
+      <c r="BM4" s="550"/>
+      <c r="BN4" s="550"/>
+      <c r="BO4" s="550"/>
+      <c r="BP4" s="550"/>
+      <c r="BQ4" s="549" t="s">
         <v>364</v>
       </c>
-      <c r="BR4" s="549"/>
-      <c r="BS4" s="549"/>
-      <c r="BT4" s="549"/>
+      <c r="BR4" s="550"/>
+      <c r="BS4" s="550"/>
+      <c r="BT4" s="550"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="296" t="s">
         <v>365</v>
@@ -47825,11 +47773,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -47842,6 +47785,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -47850,6 +47798,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C74-4930-4E02-A6A2-617D513D886A}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -47863,23 +47812,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="556" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="560" t="s">
+      <c r="B1" s="558" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="560" t="s">
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="560"/>
+      <c r="G1" s="558" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="561"/>
-      <c r="I1" s="561"/>
-      <c r="J1" s="561"/>
-      <c r="K1" s="562"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
+      <c r="K1" s="560"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -47889,7 +47838,7 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="559"/>
+      <c r="A2" s="557"/>
       <c r="B2" s="466" t="s">
         <v>284</v>
       </c>
@@ -49382,11 +49331,11 @@
       <c r="Y48" t="s">
         <v>689</v>
       </c>
-      <c r="Z48" s="556" t="s">
+      <c r="Z48" s="561" t="s">
         <v>627</v>
       </c>
-      <c r="AA48" s="557"/>
-      <c r="AB48" s="557"/>
+      <c r="AA48" s="562"/>
+      <c r="AB48" s="562"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -49603,11 +49552,11 @@
       <c r="Y53" t="s">
         <v>691</v>
       </c>
-      <c r="Z53" s="556" t="s">
+      <c r="Z53" s="561" t="s">
         <v>626</v>
       </c>
-      <c r="AA53" s="557"/>
-      <c r="AB53" s="557"/>
+      <c r="AA53" s="562"/>
+      <c r="AB53" s="562"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
@@ -49809,11 +49758,11 @@
       <c r="Y59" t="s">
         <v>692</v>
       </c>
-      <c r="Z59" s="556" t="s">
+      <c r="Z59" s="561" t="s">
         <v>693</v>
       </c>
-      <c r="AA59" s="557"/>
-      <c r="AB59" s="557"/>
+      <c r="AA59" s="562"/>
+      <c r="AB59" s="562"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="486" t="str">
@@ -50650,19 +50599,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
-  <phoneticPr fontId="59" type="noConversion"/>
+  <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -3,27 +3,95 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A00C5E-4822-46C2-92E5-8008B4CF3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F1E994-735D-4B3F-8F4D-CF70D7DE1E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="34" r:id="rId1"/>
-    <sheet name="Intro" sheetId="35" r:id="rId2"/>
-    <sheet name="RSD_Building" sheetId="56" r:id="rId3"/>
-    <sheet name="RSD_Heating" sheetId="55" r:id="rId4"/>
-    <sheet name="RSD_Cook+App" sheetId="58" r:id="rId5"/>
-    <sheet name="RSD_Light+Pumps+Fans" sheetId="59" r:id="rId6"/>
-    <sheet name="JRC_Data" sheetId="60" r:id="rId7"/>
-    <sheet name="DistrictHeating" sheetId="61" r:id="rId8"/>
+    <sheet name="Cover" sheetId="62" r:id="rId1"/>
+    <sheet name="Cover_old" sheetId="34" r:id="rId2"/>
+    <sheet name="Intro" sheetId="35" r:id="rId3"/>
+    <sheet name="RSD_Building" sheetId="56" r:id="rId4"/>
+    <sheet name="RSD_Heating" sheetId="55" r:id="rId5"/>
+    <sheet name="RSD_Cook+App" sheetId="58" r:id="rId6"/>
+    <sheet name="RSD_Light+Pumps+Fans" sheetId="59" r:id="rId7"/>
+    <sheet name="JRC_Data" sheetId="60" r:id="rId8"/>
+    <sheet name="DistrictHeating" sheetId="61" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -8548,7 +8616,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="747">
   <si>
     <t>Document type:</t>
   </si>
@@ -10766,27 +10834,79 @@
   <si>
     <t>All rights reserved - No third party may rely upon this document without the prior and express written agreement agreement of AECOM (only used for crosschecking)</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="10">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
     <numFmt numFmtId="171" formatCode="#,##0.000"/>
     <numFmt numFmtId="172" formatCode="0.000"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12453,609 +12573,600 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="563">
+  <cellXfs count="582">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="25" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="26" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="27" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="26" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="25" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="25" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="25" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="26" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="26" borderId="49" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="26" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="26" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="26" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="26" borderId="50" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="25" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="25" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="8" fillId="25" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="25" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="25" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="26" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="26" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="26" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="26" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="27" fillId="27" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="28" fillId="27" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="27" fillId="27" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="28" fillId="27" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="25" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="25" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="16" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="16" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="170" fontId="17" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="17" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="17" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="23" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="24" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="19" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13066,10 +13177,16 @@
     <xf numFmtId="3" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -13078,242 +13195,248 @@
     <xf numFmtId="3" fontId="53" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="50" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="50" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="50" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="51" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="30" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="31" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="19" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="29" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="28" fillId="19" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="19" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="19" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="28" fillId="19" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="29" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="29" fillId="19" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="29" fillId="19" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="30" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="23" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="19" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="19" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="19" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="19" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="19" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13333,13 +13456,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -13349,20 +13472,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -13371,171 +13494,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="56" fillId="35" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="56" fillId="35" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" xfId="4"/>
-    <xf numFmtId="166" fontId="57" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="57" fillId="35" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="57" fillId="35" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="57" fillId="35" borderId="0" xfId="4"/>
+    <xf numFmtId="167" fontId="58" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="57" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="58" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="30" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="31" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="23" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="23" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="10" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="10" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13552,18 +13681,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="7" xr:uid="{644956F0-ADA1-4AAD-89A4-D8A6538D1218}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{6626E82B-0C03-4AD9-9218-C622D50801DA}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{585956F9-83C3-41B6-8B8D-98187E060657}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
@@ -13604,6 +13785,315 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB9EADC-646D-4726-B967-9A305DB6D5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA36E26-E152-4AA8-8B94-CDA332865E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F7EC78-0584-46E3-906E-F789AAEF3317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E95AB37-C63E-4D1D-9218-1DCAB0DFD911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75408E63-51CF-4C8C-ADB8-3BF2A5F56D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C073FACE-A0AC-4458-8B4A-AD5FB82BA5EB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13896,7 +14386,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14191,7 +14681,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14299,6 +14789,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14621,6 +15124,2857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD405422-B6E5-418C-931D-180794A80E9A}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" style="565" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="565" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="565" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="565" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="565" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="565" customWidth="1"/>
+    <col min="13" max="13" width="10" style="565" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="565" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="565" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="565"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="563"/>
+      <c r="B1" s="563"/>
+      <c r="C1" s="563"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="564"/>
+      <c r="F1" s="564"/>
+      <c r="G1" s="564"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="564"/>
+      <c r="J1" s="564"/>
+      <c r="K1" s="564"/>
+      <c r="L1" s="564"/>
+      <c r="M1" s="564"/>
+      <c r="N1" s="564"/>
+      <c r="O1" s="564"/>
+      <c r="P1" s="564"/>
+      <c r="Q1" s="564"/>
+      <c r="R1" s="564"/>
+      <c r="S1" s="564"/>
+      <c r="T1" s="564"/>
+      <c r="U1" s="564"/>
+      <c r="V1" s="564"/>
+      <c r="W1" s="564"/>
+      <c r="X1" s="564"/>
+      <c r="Y1" s="564"/>
+      <c r="Z1" s="564"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="563"/>
+      <c r="B2" s="563"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="563"/>
+      <c r="E2" s="564"/>
+      <c r="F2" s="564"/>
+      <c r="G2" s="564"/>
+      <c r="H2" s="564"/>
+      <c r="I2" s="564"/>
+      <c r="J2" s="564"/>
+      <c r="K2" s="564"/>
+      <c r="L2" s="564"/>
+      <c r="M2" s="564"/>
+      <c r="N2" s="564"/>
+      <c r="O2" s="564"/>
+      <c r="P2" s="564"/>
+      <c r="Q2" s="564"/>
+      <c r="R2" s="564"/>
+      <c r="S2" s="564"/>
+      <c r="T2" s="564"/>
+      <c r="U2" s="564"/>
+      <c r="V2" s="564"/>
+      <c r="W2" s="564"/>
+      <c r="X2" s="564"/>
+      <c r="Y2" s="564"/>
+      <c r="Z2" s="564"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="563"/>
+      <c r="B3" s="563"/>
+      <c r="C3" s="563"/>
+      <c r="D3" s="563"/>
+      <c r="E3" s="564"/>
+      <c r="F3" s="564"/>
+      <c r="G3" s="564"/>
+      <c r="H3" s="564"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="564"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="564"/>
+      <c r="M3" s="564"/>
+      <c r="N3" s="564"/>
+      <c r="O3" s="564"/>
+      <c r="P3" s="564"/>
+      <c r="Q3" s="564"/>
+      <c r="R3" s="564"/>
+      <c r="S3" s="564"/>
+      <c r="T3" s="564"/>
+      <c r="U3" s="564"/>
+      <c r="V3" s="564"/>
+      <c r="W3" s="564"/>
+      <c r="X3" s="564"/>
+      <c r="Y3" s="564"/>
+      <c r="Z3" s="564"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="563"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="563"/>
+      <c r="D4" s="563"/>
+      <c r="E4" s="564"/>
+      <c r="F4" s="564"/>
+      <c r="G4" s="564"/>
+      <c r="H4" s="564"/>
+      <c r="I4" s="564"/>
+      <c r="J4" s="564"/>
+      <c r="K4" s="564"/>
+      <c r="L4" s="564"/>
+      <c r="M4" s="564"/>
+      <c r="N4" s="564"/>
+      <c r="O4" s="564"/>
+      <c r="P4" s="564"/>
+      <c r="Q4" s="564"/>
+      <c r="R4" s="564"/>
+      <c r="S4" s="564"/>
+      <c r="T4" s="564"/>
+      <c r="U4" s="564"/>
+      <c r="V4" s="564"/>
+      <c r="W4" s="564"/>
+      <c r="X4" s="564"/>
+      <c r="Y4" s="564"/>
+      <c r="Z4" s="564"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="563"/>
+      <c r="B5" s="563"/>
+      <c r="C5" s="563"/>
+      <c r="D5" s="563"/>
+      <c r="E5" s="564"/>
+      <c r="F5" s="564"/>
+      <c r="G5" s="564"/>
+      <c r="H5" s="564"/>
+      <c r="I5" s="564"/>
+      <c r="J5" s="564"/>
+      <c r="K5" s="564"/>
+      <c r="L5" s="564"/>
+      <c r="M5" s="564"/>
+      <c r="N5" s="564"/>
+      <c r="O5" s="564"/>
+      <c r="P5" s="564"/>
+      <c r="Q5" s="564"/>
+      <c r="R5" s="564"/>
+      <c r="S5" s="564"/>
+      <c r="T5" s="564"/>
+      <c r="U5" s="564"/>
+      <c r="V5" s="564"/>
+      <c r="W5" s="564"/>
+      <c r="X5" s="564"/>
+      <c r="Y5" s="564"/>
+      <c r="Z5" s="564"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="563"/>
+      <c r="B6" s="563"/>
+      <c r="C6" s="563"/>
+      <c r="D6" s="563"/>
+      <c r="E6" s="564"/>
+      <c r="F6" s="564"/>
+      <c r="G6" s="564"/>
+      <c r="H6" s="564"/>
+      <c r="I6" s="564"/>
+      <c r="J6" s="564"/>
+      <c r="K6" s="564"/>
+      <c r="L6" s="564"/>
+      <c r="M6" s="564"/>
+      <c r="N6" s="564"/>
+      <c r="O6" s="564"/>
+      <c r="P6" s="564"/>
+      <c r="Q6" s="564"/>
+      <c r="R6" s="564"/>
+      <c r="S6" s="564"/>
+      <c r="T6" s="564"/>
+      <c r="U6" s="564"/>
+      <c r="V6" s="564"/>
+      <c r="W6" s="564"/>
+      <c r="X6" s="564"/>
+      <c r="Y6" s="564"/>
+      <c r="Z6" s="564"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="563"/>
+      <c r="B7" s="563"/>
+      <c r="C7" s="563"/>
+      <c r="D7" s="563"/>
+      <c r="E7" s="564"/>
+      <c r="F7" s="564"/>
+      <c r="G7" s="564"/>
+      <c r="H7" s="564"/>
+      <c r="I7" s="564"/>
+      <c r="J7" s="564"/>
+      <c r="K7" s="564"/>
+      <c r="L7" s="564"/>
+      <c r="M7" s="564"/>
+      <c r="N7" s="564"/>
+      <c r="O7" s="564"/>
+      <c r="P7" s="564"/>
+      <c r="Q7" s="564"/>
+      <c r="R7" s="564"/>
+      <c r="S7" s="564"/>
+      <c r="T7" s="564"/>
+      <c r="U7" s="564"/>
+      <c r="V7" s="564"/>
+      <c r="W7" s="564"/>
+      <c r="X7" s="564"/>
+      <c r="Y7" s="564"/>
+      <c r="Z7" s="564"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="563"/>
+      <c r="B8" s="563"/>
+      <c r="C8" s="563"/>
+      <c r="D8" s="563"/>
+      <c r="E8" s="564"/>
+      <c r="F8" s="564"/>
+      <c r="G8" s="564"/>
+      <c r="H8" s="564"/>
+      <c r="I8" s="564"/>
+      <c r="J8" s="564"/>
+      <c r="K8" s="564"/>
+      <c r="L8" s="564"/>
+      <c r="M8" s="564"/>
+      <c r="N8" s="564"/>
+      <c r="O8" s="564"/>
+      <c r="P8" s="564"/>
+      <c r="Q8" s="564"/>
+      <c r="R8" s="564"/>
+      <c r="S8" s="564"/>
+      <c r="T8" s="564"/>
+      <c r="U8" s="564"/>
+      <c r="V8" s="564"/>
+      <c r="W8" s="564"/>
+      <c r="X8" s="564"/>
+      <c r="Y8" s="564"/>
+      <c r="Z8" s="564"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="563"/>
+      <c r="B9" s="563"/>
+      <c r="C9" s="563"/>
+      <c r="D9" s="563"/>
+      <c r="E9" s="564"/>
+      <c r="F9" s="564"/>
+      <c r="G9" s="564"/>
+      <c r="H9" s="564"/>
+      <c r="I9" s="564"/>
+      <c r="J9" s="564"/>
+      <c r="K9" s="564"/>
+      <c r="L9" s="564"/>
+      <c r="M9" s="564"/>
+      <c r="N9" s="564"/>
+      <c r="O9" s="564"/>
+      <c r="P9" s="564"/>
+      <c r="Q9" s="564"/>
+      <c r="R9" s="564"/>
+      <c r="S9" s="564"/>
+      <c r="T9" s="564"/>
+      <c r="U9" s="564"/>
+      <c r="V9" s="564"/>
+      <c r="W9" s="564"/>
+      <c r="X9" s="564"/>
+      <c r="Y9" s="564"/>
+      <c r="Z9" s="564"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="563"/>
+      <c r="B10" s="563"/>
+      <c r="C10" s="563"/>
+      <c r="D10" s="563"/>
+      <c r="E10" s="564"/>
+      <c r="F10" s="564"/>
+      <c r="G10" s="564"/>
+      <c r="H10" s="564"/>
+      <c r="I10" s="564"/>
+      <c r="J10" s="564"/>
+      <c r="K10" s="564"/>
+      <c r="L10" s="564"/>
+      <c r="M10" s="564"/>
+      <c r="N10" s="564"/>
+      <c r="O10" s="564"/>
+      <c r="P10" s="564"/>
+      <c r="Q10" s="564"/>
+      <c r="R10" s="564"/>
+      <c r="S10" s="564"/>
+      <c r="T10" s="564"/>
+      <c r="U10" s="564"/>
+      <c r="V10" s="564"/>
+      <c r="W10" s="564"/>
+      <c r="X10" s="564"/>
+      <c r="Y10" s="564"/>
+      <c r="Z10" s="564"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="563"/>
+      <c r="B11" s="563"/>
+      <c r="C11" s="563"/>
+      <c r="D11" s="563"/>
+      <c r="E11" s="564"/>
+      <c r="F11" s="564"/>
+      <c r="G11" s="564"/>
+      <c r="H11" s="564"/>
+      <c r="I11" s="564"/>
+      <c r="J11" s="564"/>
+      <c r="K11" s="564"/>
+      <c r="L11" s="564"/>
+      <c r="M11" s="564"/>
+      <c r="N11" s="564"/>
+      <c r="O11" s="564"/>
+      <c r="P11" s="564"/>
+      <c r="Q11" s="564"/>
+      <c r="R11" s="564"/>
+      <c r="S11" s="564"/>
+      <c r="T11" s="564"/>
+      <c r="U11" s="564"/>
+      <c r="V11" s="564"/>
+      <c r="W11" s="564"/>
+      <c r="X11" s="564"/>
+      <c r="Y11" s="564"/>
+      <c r="Z11" s="564"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="563"/>
+      <c r="B12" s="563"/>
+      <c r="C12" s="563"/>
+      <c r="D12" s="563"/>
+      <c r="E12" s="564"/>
+      <c r="F12" s="564"/>
+      <c r="G12" s="564"/>
+      <c r="H12" s="564"/>
+      <c r="I12" s="564"/>
+      <c r="J12" s="564"/>
+      <c r="K12" s="564"/>
+      <c r="L12" s="564"/>
+      <c r="M12" s="564"/>
+      <c r="N12" s="564"/>
+      <c r="O12" s="564"/>
+      <c r="P12" s="564"/>
+      <c r="Q12" s="564"/>
+      <c r="R12" s="564"/>
+      <c r="S12" s="564"/>
+      <c r="T12" s="564"/>
+      <c r="U12" s="564"/>
+      <c r="V12" s="564"/>
+      <c r="W12" s="564"/>
+      <c r="X12" s="564"/>
+      <c r="Y12" s="564"/>
+      <c r="Z12" s="564"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="563"/>
+      <c r="B13" s="563"/>
+      <c r="C13" s="563"/>
+      <c r="D13" s="563"/>
+      <c r="E13" s="564"/>
+      <c r="F13" s="564"/>
+      <c r="G13" s="564"/>
+      <c r="H13" s="564"/>
+      <c r="I13" s="564"/>
+      <c r="J13" s="564"/>
+      <c r="K13" s="564"/>
+      <c r="L13" s="564"/>
+      <c r="M13" s="564"/>
+      <c r="N13" s="564"/>
+      <c r="O13" s="564"/>
+      <c r="P13" s="564"/>
+      <c r="Q13" s="564"/>
+      <c r="R13" s="564"/>
+      <c r="S13" s="564"/>
+      <c r="T13" s="564"/>
+      <c r="U13" s="564"/>
+      <c r="V13" s="564"/>
+      <c r="W13" s="564"/>
+      <c r="X13" s="564"/>
+      <c r="Y13" s="564"/>
+      <c r="Z13" s="564"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="563"/>
+      <c r="B14" s="563"/>
+      <c r="C14" s="563"/>
+      <c r="D14" s="563"/>
+      <c r="E14" s="564"/>
+      <c r="F14" s="564"/>
+      <c r="G14" s="564"/>
+      <c r="H14" s="564"/>
+      <c r="I14" s="564"/>
+      <c r="J14" s="564"/>
+      <c r="K14" s="564"/>
+      <c r="L14" s="564"/>
+      <c r="M14" s="564"/>
+      <c r="N14" s="564"/>
+      <c r="O14" s="564"/>
+      <c r="P14" s="564"/>
+      <c r="Q14" s="564"/>
+      <c r="R14" s="564"/>
+      <c r="S14" s="564"/>
+      <c r="T14" s="564"/>
+      <c r="U14" s="564"/>
+      <c r="V14" s="564"/>
+      <c r="W14" s="564"/>
+      <c r="X14" s="564"/>
+      <c r="Y14" s="564"/>
+      <c r="Z14" s="564"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="563"/>
+      <c r="B15" s="563"/>
+      <c r="C15" s="563"/>
+      <c r="D15" s="563"/>
+      <c r="E15" s="564"/>
+      <c r="F15" s="564"/>
+      <c r="G15" s="564"/>
+      <c r="H15" s="564"/>
+      <c r="I15" s="564"/>
+      <c r="J15" s="564"/>
+      <c r="K15" s="564"/>
+      <c r="L15" s="564"/>
+      <c r="M15" s="564"/>
+      <c r="N15" s="564"/>
+      <c r="O15" s="564"/>
+      <c r="P15" s="564"/>
+      <c r="Q15" s="564"/>
+      <c r="R15" s="564"/>
+      <c r="S15" s="564"/>
+      <c r="T15" s="564"/>
+      <c r="U15" s="564"/>
+      <c r="V15" s="564"/>
+      <c r="W15" s="564"/>
+      <c r="X15" s="564"/>
+      <c r="Y15" s="564"/>
+      <c r="Z15" s="564"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="566" t="s">
+        <v>732</v>
+      </c>
+      <c r="B16" s="566"/>
+      <c r="C16" s="566"/>
+      <c r="D16" s="566"/>
+      <c r="E16" s="567"/>
+      <c r="F16" s="567"/>
+      <c r="G16" s="568"/>
+      <c r="H16" s="568"/>
+      <c r="I16" s="568"/>
+      <c r="J16" s="568"/>
+      <c r="K16" s="568"/>
+      <c r="L16" s="568"/>
+      <c r="M16" s="564"/>
+      <c r="N16" s="564"/>
+      <c r="O16" s="564"/>
+      <c r="P16" s="564"/>
+      <c r="Q16" s="564"/>
+      <c r="R16" s="564"/>
+      <c r="S16" s="564"/>
+      <c r="T16" s="564"/>
+      <c r="U16" s="564"/>
+      <c r="V16" s="564"/>
+      <c r="W16" s="564"/>
+      <c r="X16" s="564"/>
+      <c r="Y16" s="564"/>
+      <c r="Z16" s="564"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="569"/>
+      <c r="B17" s="569"/>
+      <c r="C17" s="569"/>
+      <c r="D17" s="569"/>
+      <c r="E17" s="564"/>
+      <c r="F17" s="564"/>
+      <c r="G17" s="564"/>
+      <c r="H17" s="564"/>
+      <c r="I17" s="564"/>
+      <c r="J17" s="564"/>
+      <c r="K17" s="564"/>
+      <c r="L17" s="564"/>
+      <c r="M17" s="564"/>
+      <c r="N17" s="564"/>
+      <c r="O17" s="564"/>
+      <c r="P17" s="564"/>
+      <c r="Q17" s="564"/>
+      <c r="R17" s="564"/>
+      <c r="S17" s="564"/>
+      <c r="T17" s="564"/>
+      <c r="U17" s="564"/>
+      <c r="V17" s="564"/>
+      <c r="W17" s="564"/>
+      <c r="X17" s="564"/>
+      <c r="Y17" s="564"/>
+      <c r="Z17" s="564"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="569"/>
+      <c r="B18" s="569"/>
+      <c r="C18" s="569"/>
+      <c r="D18" s="569"/>
+      <c r="E18" s="570"/>
+      <c r="F18" s="570"/>
+      <c r="G18" s="571"/>
+      <c r="H18" s="571"/>
+      <c r="I18" s="571"/>
+      <c r="J18" s="571"/>
+      <c r="K18" s="571"/>
+      <c r="L18" s="571"/>
+      <c r="M18" s="564"/>
+      <c r="N18" s="564"/>
+      <c r="O18" s="564"/>
+      <c r="P18" s="564"/>
+      <c r="Q18" s="564"/>
+      <c r="R18" s="564"/>
+      <c r="S18" s="564"/>
+      <c r="T18" s="564"/>
+      <c r="U18" s="564"/>
+      <c r="V18" s="564"/>
+      <c r="W18" s="564"/>
+      <c r="X18" s="564"/>
+      <c r="Y18" s="564"/>
+      <c r="Z18" s="564"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="572" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="573" t="s">
+        <v>733</v>
+      </c>
+      <c r="C19" s="573"/>
+      <c r="D19" s="573"/>
+      <c r="E19" s="574"/>
+      <c r="F19" s="574"/>
+      <c r="G19" s="575"/>
+      <c r="H19" s="575"/>
+      <c r="I19" s="575"/>
+      <c r="J19" s="575"/>
+      <c r="K19" s="575"/>
+      <c r="L19" s="575"/>
+      <c r="M19" s="564"/>
+      <c r="N19" s="564"/>
+      <c r="O19" s="564"/>
+      <c r="P19" s="564"/>
+      <c r="Q19" s="564"/>
+      <c r="R19" s="564"/>
+      <c r="S19" s="564"/>
+      <c r="T19" s="564"/>
+      <c r="U19" s="564"/>
+      <c r="V19" s="564"/>
+      <c r="W19" s="564"/>
+      <c r="X19" s="564"/>
+      <c r="Y19" s="564"/>
+      <c r="Z19" s="564"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="572" t="s">
+        <v>734</v>
+      </c>
+      <c r="B20" s="573" t="s">
+        <v>735</v>
+      </c>
+      <c r="C20" s="573"/>
+      <c r="D20" s="573"/>
+      <c r="E20" s="574"/>
+      <c r="F20" s="574"/>
+      <c r="G20" s="575"/>
+      <c r="H20" s="575"/>
+      <c r="I20" s="575"/>
+      <c r="J20" s="575"/>
+      <c r="K20" s="575"/>
+      <c r="L20" s="575"/>
+      <c r="M20" s="564"/>
+      <c r="N20" s="564"/>
+      <c r="O20" s="564"/>
+      <c r="P20" s="564"/>
+      <c r="Q20" s="564"/>
+      <c r="R20" s="564"/>
+      <c r="S20" s="564"/>
+      <c r="T20" s="564"/>
+      <c r="U20" s="564"/>
+      <c r="V20" s="564"/>
+      <c r="W20" s="564"/>
+      <c r="X20" s="564"/>
+      <c r="Y20" s="564"/>
+      <c r="Z20" s="564"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="572" t="s">
+        <v>736</v>
+      </c>
+      <c r="B21" s="576" t="s">
+        <v>737</v>
+      </c>
+      <c r="C21" s="576"/>
+      <c r="D21" s="576"/>
+      <c r="E21" s="574"/>
+      <c r="F21" s="574"/>
+      <c r="G21" s="575"/>
+      <c r="H21" s="575"/>
+      <c r="I21" s="575"/>
+      <c r="J21" s="575"/>
+      <c r="K21" s="575"/>
+      <c r="L21" s="575"/>
+      <c r="M21" s="564"/>
+      <c r="N21" s="564"/>
+      <c r="O21" s="564"/>
+      <c r="P21" s="564"/>
+      <c r="Q21" s="564"/>
+      <c r="R21" s="564"/>
+      <c r="S21" s="564"/>
+      <c r="T21" s="564"/>
+      <c r="U21" s="564"/>
+      <c r="V21" s="564"/>
+      <c r="W21" s="564"/>
+      <c r="X21" s="564"/>
+      <c r="Y21" s="564"/>
+      <c r="Z21" s="564"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="572"/>
+      <c r="B22" s="576"/>
+      <c r="C22" s="576"/>
+      <c r="D22" s="576"/>
+      <c r="E22" s="574"/>
+      <c r="F22" s="574"/>
+      <c r="G22" s="575"/>
+      <c r="H22" s="575"/>
+      <c r="I22" s="575"/>
+      <c r="J22" s="575"/>
+      <c r="K22" s="575"/>
+      <c r="L22" s="575"/>
+      <c r="M22" s="564"/>
+      <c r="N22" s="564"/>
+      <c r="O22" s="564"/>
+      <c r="P22" s="564"/>
+      <c r="Q22" s="564"/>
+      <c r="R22" s="564"/>
+      <c r="S22" s="564"/>
+      <c r="T22" s="564"/>
+      <c r="U22" s="564"/>
+      <c r="V22" s="564"/>
+      <c r="W22" s="564"/>
+      <c r="X22" s="564"/>
+      <c r="Y22" s="564"/>
+      <c r="Z22" s="564"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="572" t="s">
+        <v>738</v>
+      </c>
+      <c r="B23" s="573" t="s">
+        <v>739</v>
+      </c>
+      <c r="C23" s="573"/>
+      <c r="D23" s="573"/>
+      <c r="E23" s="564"/>
+      <c r="F23" s="564"/>
+      <c r="G23" s="564"/>
+      <c r="H23" s="564"/>
+      <c r="I23" s="564"/>
+      <c r="J23" s="564"/>
+      <c r="K23" s="564"/>
+      <c r="L23" s="564"/>
+      <c r="M23" s="564"/>
+      <c r="N23" s="564"/>
+      <c r="O23" s="564"/>
+      <c r="P23" s="564"/>
+      <c r="Q23" s="564"/>
+      <c r="R23" s="564"/>
+      <c r="S23" s="564"/>
+      <c r="T23" s="564"/>
+      <c r="U23" s="564"/>
+      <c r="V23" s="564"/>
+      <c r="W23" s="564"/>
+      <c r="X23" s="564"/>
+      <c r="Y23" s="564"/>
+      <c r="Z23" s="564"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="572"/>
+      <c r="B24" s="576"/>
+      <c r="C24" s="576"/>
+      <c r="D24" s="576"/>
+      <c r="E24" s="564"/>
+      <c r="F24" s="564"/>
+      <c r="G24" s="564"/>
+      <c r="H24" s="564"/>
+      <c r="I24" s="564"/>
+      <c r="J24" s="564"/>
+      <c r="K24" s="564"/>
+      <c r="L24" s="564"/>
+      <c r="M24" s="564"/>
+      <c r="N24" s="564"/>
+      <c r="O24" s="564"/>
+      <c r="P24" s="564"/>
+      <c r="Q24" s="564"/>
+      <c r="R24" s="564"/>
+      <c r="S24" s="564"/>
+      <c r="T24" s="564"/>
+      <c r="U24" s="564"/>
+      <c r="V24" s="564"/>
+      <c r="W24" s="564"/>
+      <c r="X24" s="564"/>
+      <c r="Y24" s="564"/>
+      <c r="Z24" s="564"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="572"/>
+      <c r="B25" s="576"/>
+      <c r="C25" s="576"/>
+      <c r="D25" s="576"/>
+      <c r="E25" s="564"/>
+      <c r="F25" s="564"/>
+      <c r="G25" s="564"/>
+      <c r="H25" s="564"/>
+      <c r="I25" s="564"/>
+      <c r="J25" s="564"/>
+      <c r="K25" s="564"/>
+      <c r="L25" s="564"/>
+      <c r="M25" s="564"/>
+      <c r="N25" s="564"/>
+      <c r="O25" s="564"/>
+      <c r="P25" s="564"/>
+      <c r="Q25" s="564"/>
+      <c r="R25" s="564"/>
+      <c r="S25" s="564"/>
+      <c r="T25" s="564"/>
+      <c r="U25" s="564"/>
+      <c r="V25" s="564"/>
+      <c r="W25" s="564"/>
+      <c r="X25" s="564"/>
+      <c r="Y25" s="564"/>
+      <c r="Z25" s="564"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="572" t="s">
+        <v>740</v>
+      </c>
+      <c r="B26" s="573" t="s">
+        <v>739</v>
+      </c>
+      <c r="C26" s="573"/>
+      <c r="D26" s="573"/>
+      <c r="E26" s="564"/>
+      <c r="F26" s="564"/>
+      <c r="G26" s="564"/>
+      <c r="H26" s="564"/>
+      <c r="I26" s="564"/>
+      <c r="J26" s="564"/>
+      <c r="K26" s="564"/>
+      <c r="L26" s="564"/>
+      <c r="M26" s="564"/>
+      <c r="N26" s="564"/>
+      <c r="O26" s="564"/>
+      <c r="P26" s="564"/>
+      <c r="Q26" s="564"/>
+      <c r="R26" s="564"/>
+      <c r="S26" s="564"/>
+      <c r="T26" s="564"/>
+      <c r="U26" s="564"/>
+      <c r="V26" s="564"/>
+      <c r="W26" s="564"/>
+      <c r="X26" s="564"/>
+      <c r="Y26" s="564"/>
+      <c r="Z26" s="564"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="572"/>
+      <c r="B27" s="576"/>
+      <c r="C27" s="576"/>
+      <c r="D27" s="576"/>
+      <c r="E27" s="564"/>
+      <c r="F27" s="564"/>
+      <c r="G27" s="564"/>
+      <c r="H27" s="564"/>
+      <c r="I27" s="564"/>
+      <c r="J27" s="564"/>
+      <c r="K27" s="564"/>
+      <c r="L27" s="564"/>
+      <c r="M27" s="564"/>
+      <c r="N27" s="564"/>
+      <c r="O27" s="564"/>
+      <c r="P27" s="564"/>
+      <c r="Q27" s="564"/>
+      <c r="R27" s="564"/>
+      <c r="S27" s="564"/>
+      <c r="T27" s="564"/>
+      <c r="U27" s="564"/>
+      <c r="V27" s="564"/>
+      <c r="W27" s="564"/>
+      <c r="X27" s="564"/>
+      <c r="Y27" s="564"/>
+      <c r="Z27" s="564"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="572"/>
+      <c r="B28" s="576"/>
+      <c r="C28" s="576"/>
+      <c r="D28" s="576"/>
+      <c r="E28" s="564"/>
+      <c r="F28" s="564"/>
+      <c r="G28" s="564"/>
+      <c r="H28" s="564"/>
+      <c r="I28" s="564"/>
+      <c r="J28" s="564"/>
+      <c r="K28" s="564"/>
+      <c r="L28" s="564"/>
+      <c r="M28" s="564"/>
+      <c r="N28" s="564"/>
+      <c r="O28" s="564"/>
+      <c r="P28" s="564"/>
+      <c r="Q28" s="564"/>
+      <c r="R28" s="564"/>
+      <c r="S28" s="564"/>
+      <c r="T28" s="564"/>
+      <c r="U28" s="564"/>
+      <c r="V28" s="564"/>
+      <c r="W28" s="564"/>
+      <c r="X28" s="564"/>
+      <c r="Y28" s="564"/>
+      <c r="Z28" s="564"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="572" t="s">
+        <v>741</v>
+      </c>
+      <c r="B29" s="577">
+        <v>1</v>
+      </c>
+      <c r="C29" s="576"/>
+      <c r="D29" s="576"/>
+      <c r="E29" s="564"/>
+      <c r="F29" s="564"/>
+      <c r="G29" s="564"/>
+      <c r="H29" s="564"/>
+      <c r="I29" s="564"/>
+      <c r="J29" s="564"/>
+      <c r="K29" s="564"/>
+      <c r="L29" s="564"/>
+      <c r="M29" s="564"/>
+      <c r="N29" s="564"/>
+      <c r="O29" s="564"/>
+      <c r="P29" s="564"/>
+      <c r="Q29" s="564"/>
+      <c r="R29" s="564"/>
+      <c r="S29" s="564"/>
+      <c r="T29" s="564"/>
+      <c r="U29" s="564"/>
+      <c r="V29" s="564"/>
+      <c r="W29" s="564"/>
+      <c r="X29" s="564"/>
+      <c r="Y29" s="564"/>
+      <c r="Z29" s="564"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="572" t="s">
+        <v>742</v>
+      </c>
+      <c r="B30" s="578" t="s">
+        <v>743</v>
+      </c>
+      <c r="C30" s="573"/>
+      <c r="D30" s="573"/>
+      <c r="E30" s="579"/>
+      <c r="F30" s="579"/>
+      <c r="G30" s="564"/>
+      <c r="H30" s="564"/>
+      <c r="I30" s="564"/>
+      <c r="J30" s="564"/>
+      <c r="K30" s="564"/>
+      <c r="L30" s="564"/>
+      <c r="M30" s="564"/>
+      <c r="N30" s="564"/>
+      <c r="O30" s="564"/>
+      <c r="P30" s="564"/>
+      <c r="Q30" s="564"/>
+      <c r="R30" s="564"/>
+      <c r="S30" s="564"/>
+      <c r="T30" s="564"/>
+      <c r="U30" s="564"/>
+      <c r="V30" s="564"/>
+      <c r="W30" s="564"/>
+      <c r="X30" s="564"/>
+      <c r="Y30" s="564"/>
+      <c r="Z30" s="564"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="572" t="s">
+        <v>744</v>
+      </c>
+      <c r="B31" s="573" t="s">
+        <v>745</v>
+      </c>
+      <c r="C31" s="573"/>
+      <c r="D31" s="573"/>
+      <c r="E31" s="579"/>
+      <c r="F31" s="579"/>
+      <c r="G31" s="564"/>
+      <c r="H31" s="564"/>
+      <c r="I31" s="564"/>
+      <c r="J31" s="564"/>
+      <c r="K31" s="564"/>
+      <c r="L31" s="564"/>
+      <c r="M31" s="564"/>
+      <c r="N31" s="564"/>
+      <c r="O31" s="564"/>
+      <c r="P31" s="564"/>
+      <c r="Q31" s="564"/>
+      <c r="R31" s="564"/>
+      <c r="S31" s="564"/>
+      <c r="T31" s="564"/>
+      <c r="U31" s="564"/>
+      <c r="V31" s="564"/>
+      <c r="W31" s="564"/>
+      <c r="X31" s="564"/>
+      <c r="Y31" s="564"/>
+      <c r="Z31" s="564"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="580"/>
+      <c r="B32" s="581" t="s">
+        <v>746</v>
+      </c>
+      <c r="C32" s="580"/>
+      <c r="D32" s="580"/>
+      <c r="E32" s="564"/>
+      <c r="F32" s="564"/>
+      <c r="G32" s="564"/>
+      <c r="H32" s="564"/>
+      <c r="I32" s="564"/>
+      <c r="J32" s="564"/>
+      <c r="K32" s="564"/>
+      <c r="L32" s="564"/>
+      <c r="M32" s="564"/>
+      <c r="N32" s="564"/>
+      <c r="O32" s="564"/>
+      <c r="P32" s="564"/>
+      <c r="Q32" s="564"/>
+      <c r="R32" s="564"/>
+      <c r="S32" s="564"/>
+      <c r="T32" s="564"/>
+      <c r="U32" s="564"/>
+      <c r="V32" s="564"/>
+      <c r="W32" s="564"/>
+      <c r="X32" s="564"/>
+      <c r="Y32" s="564"/>
+      <c r="Z32" s="564"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="563"/>
+      <c r="B33" s="563"/>
+      <c r="C33" s="563"/>
+      <c r="D33" s="563"/>
+      <c r="E33" s="564"/>
+      <c r="F33" s="564"/>
+      <c r="G33" s="564"/>
+      <c r="H33" s="564"/>
+      <c r="I33" s="564"/>
+      <c r="J33" s="564"/>
+      <c r="K33" s="564"/>
+      <c r="L33" s="564"/>
+      <c r="M33" s="564"/>
+      <c r="N33" s="564"/>
+      <c r="O33" s="564"/>
+      <c r="P33" s="564"/>
+      <c r="Q33" s="564"/>
+      <c r="R33" s="564"/>
+      <c r="S33" s="564"/>
+      <c r="T33" s="564"/>
+      <c r="U33" s="564"/>
+      <c r="V33" s="564"/>
+      <c r="W33" s="564"/>
+      <c r="X33" s="564"/>
+      <c r="Y33" s="564"/>
+      <c r="Z33" s="564"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="563"/>
+      <c r="B34" s="563"/>
+      <c r="C34" s="563"/>
+      <c r="D34" s="563"/>
+      <c r="E34" s="564"/>
+      <c r="F34" s="564"/>
+      <c r="G34" s="564"/>
+      <c r="H34" s="564"/>
+      <c r="I34" s="564"/>
+      <c r="J34" s="564"/>
+      <c r="K34" s="564"/>
+      <c r="L34" s="564"/>
+      <c r="M34" s="564"/>
+      <c r="N34" s="564"/>
+      <c r="O34" s="564"/>
+      <c r="P34" s="564"/>
+      <c r="Q34" s="564"/>
+      <c r="R34" s="564"/>
+      <c r="S34" s="564"/>
+      <c r="T34" s="564"/>
+      <c r="U34" s="564"/>
+      <c r="V34" s="564"/>
+      <c r="W34" s="564"/>
+      <c r="X34" s="564"/>
+      <c r="Y34" s="564"/>
+      <c r="Z34" s="564"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="563"/>
+      <c r="B35" s="563"/>
+      <c r="C35" s="563"/>
+      <c r="D35" s="563"/>
+      <c r="E35" s="564"/>
+      <c r="F35" s="564"/>
+      <c r="G35" s="564"/>
+      <c r="H35" s="564"/>
+      <c r="I35" s="564"/>
+      <c r="J35" s="564"/>
+      <c r="K35" s="564"/>
+      <c r="L35" s="564"/>
+      <c r="M35" s="564"/>
+      <c r="N35" s="564"/>
+      <c r="O35" s="564"/>
+      <c r="P35" s="564"/>
+      <c r="Q35" s="564"/>
+      <c r="R35" s="564"/>
+      <c r="S35" s="564"/>
+      <c r="T35" s="564"/>
+      <c r="U35" s="564"/>
+      <c r="V35" s="564"/>
+      <c r="W35" s="564"/>
+      <c r="X35" s="564"/>
+      <c r="Y35" s="564"/>
+      <c r="Z35" s="564"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="563"/>
+      <c r="B36" s="563"/>
+      <c r="C36" s="563"/>
+      <c r="D36" s="563"/>
+      <c r="E36" s="564"/>
+      <c r="F36" s="564"/>
+      <c r="G36" s="564"/>
+      <c r="H36" s="564"/>
+      <c r="I36" s="564"/>
+      <c r="J36" s="564"/>
+      <c r="K36" s="564"/>
+      <c r="L36" s="564"/>
+      <c r="M36" s="564"/>
+      <c r="N36" s="564"/>
+      <c r="O36" s="564"/>
+      <c r="P36" s="564"/>
+      <c r="Q36" s="564"/>
+      <c r="R36" s="564"/>
+      <c r="S36" s="564"/>
+      <c r="T36" s="564"/>
+      <c r="U36" s="564"/>
+      <c r="V36" s="564"/>
+      <c r="W36" s="564"/>
+      <c r="X36" s="564"/>
+      <c r="Y36" s="564"/>
+      <c r="Z36" s="564"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="563"/>
+      <c r="B37" s="563"/>
+      <c r="C37" s="563"/>
+      <c r="D37" s="563"/>
+      <c r="E37" s="564"/>
+      <c r="F37" s="564"/>
+      <c r="G37" s="564"/>
+      <c r="H37" s="564"/>
+      <c r="I37" s="564"/>
+      <c r="J37" s="564"/>
+      <c r="K37" s="564"/>
+      <c r="L37" s="564"/>
+      <c r="M37" s="564"/>
+      <c r="N37" s="564"/>
+      <c r="O37" s="564"/>
+      <c r="P37" s="564"/>
+      <c r="Q37" s="564"/>
+      <c r="R37" s="564"/>
+      <c r="S37" s="564"/>
+      <c r="T37" s="564"/>
+      <c r="U37" s="564"/>
+      <c r="V37" s="564"/>
+      <c r="W37" s="564"/>
+      <c r="X37" s="564"/>
+      <c r="Y37" s="564"/>
+      <c r="Z37" s="564"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="563"/>
+      <c r="B38" s="563"/>
+      <c r="C38" s="563"/>
+      <c r="D38" s="563"/>
+      <c r="E38" s="564"/>
+      <c r="F38" s="564"/>
+      <c r="G38" s="564"/>
+      <c r="H38" s="564"/>
+      <c r="I38" s="564"/>
+      <c r="J38" s="564"/>
+      <c r="K38" s="564"/>
+      <c r="L38" s="564"/>
+      <c r="M38" s="564"/>
+      <c r="N38" s="564"/>
+      <c r="O38" s="564"/>
+      <c r="P38" s="564"/>
+      <c r="Q38" s="564"/>
+      <c r="R38" s="564"/>
+      <c r="S38" s="564"/>
+      <c r="T38" s="564"/>
+      <c r="U38" s="564"/>
+      <c r="V38" s="564"/>
+      <c r="W38" s="564"/>
+      <c r="X38" s="564"/>
+      <c r="Y38" s="564"/>
+      <c r="Z38" s="564"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="563"/>
+      <c r="B39" s="563"/>
+      <c r="C39" s="563"/>
+      <c r="D39" s="563"/>
+      <c r="E39" s="564"/>
+      <c r="F39" s="564"/>
+      <c r="G39" s="564"/>
+      <c r="H39" s="564"/>
+      <c r="I39" s="564"/>
+      <c r="J39" s="564"/>
+      <c r="K39" s="564"/>
+      <c r="L39" s="564"/>
+      <c r="M39" s="564"/>
+      <c r="N39" s="564"/>
+      <c r="O39" s="564"/>
+      <c r="P39" s="564"/>
+      <c r="Q39" s="564"/>
+      <c r="R39" s="564"/>
+      <c r="S39" s="564"/>
+      <c r="T39" s="564"/>
+      <c r="U39" s="564"/>
+      <c r="V39" s="564"/>
+      <c r="W39" s="564"/>
+      <c r="X39" s="564"/>
+      <c r="Y39" s="564"/>
+      <c r="Z39" s="564"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="563"/>
+      <c r="B40" s="563"/>
+      <c r="C40" s="563"/>
+      <c r="D40" s="563"/>
+      <c r="E40" s="564"/>
+      <c r="F40" s="564"/>
+      <c r="G40" s="564"/>
+      <c r="H40" s="564"/>
+      <c r="I40" s="564"/>
+      <c r="J40" s="564"/>
+      <c r="K40" s="564"/>
+      <c r="L40" s="564"/>
+      <c r="M40" s="564"/>
+      <c r="N40" s="564"/>
+      <c r="O40" s="564"/>
+      <c r="P40" s="564"/>
+      <c r="Q40" s="564"/>
+      <c r="R40" s="564"/>
+      <c r="S40" s="564"/>
+      <c r="T40" s="564"/>
+      <c r="U40" s="564"/>
+      <c r="V40" s="564"/>
+      <c r="W40" s="564"/>
+      <c r="X40" s="564"/>
+      <c r="Y40" s="564"/>
+      <c r="Z40" s="564"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="563"/>
+      <c r="B41" s="563"/>
+      <c r="C41" s="563"/>
+      <c r="D41" s="563"/>
+      <c r="E41" s="564"/>
+      <c r="F41" s="564"/>
+      <c r="G41" s="564"/>
+      <c r="H41" s="564"/>
+      <c r="I41" s="564"/>
+      <c r="J41" s="564"/>
+      <c r="K41" s="564"/>
+      <c r="L41" s="564"/>
+      <c r="M41" s="564"/>
+      <c r="N41" s="564"/>
+      <c r="O41" s="564"/>
+      <c r="P41" s="564"/>
+      <c r="Q41" s="564"/>
+      <c r="R41" s="564"/>
+      <c r="S41" s="564"/>
+      <c r="T41" s="564"/>
+      <c r="U41" s="564"/>
+      <c r="V41" s="564"/>
+      <c r="W41" s="564"/>
+      <c r="X41" s="564"/>
+      <c r="Y41" s="564"/>
+      <c r="Z41" s="564"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="563"/>
+      <c r="B42" s="563"/>
+      <c r="C42" s="563"/>
+      <c r="D42" s="563"/>
+      <c r="E42" s="564"/>
+      <c r="F42" s="564"/>
+      <c r="G42" s="564"/>
+      <c r="H42" s="564"/>
+      <c r="I42" s="564"/>
+      <c r="J42" s="564"/>
+      <c r="K42" s="564"/>
+      <c r="L42" s="564"/>
+      <c r="M42" s="564"/>
+      <c r="N42" s="564"/>
+      <c r="O42" s="564"/>
+      <c r="P42" s="564"/>
+      <c r="Q42" s="564"/>
+      <c r="R42" s="564"/>
+      <c r="S42" s="564"/>
+      <c r="T42" s="564"/>
+      <c r="U42" s="564"/>
+      <c r="V42" s="564"/>
+      <c r="W42" s="564"/>
+      <c r="X42" s="564"/>
+      <c r="Y42" s="564"/>
+      <c r="Z42" s="564"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="564"/>
+      <c r="B43" s="564"/>
+      <c r="C43" s="564"/>
+      <c r="D43" s="564"/>
+      <c r="E43" s="564"/>
+      <c r="F43" s="564"/>
+      <c r="G43" s="564"/>
+      <c r="H43" s="564"/>
+      <c r="I43" s="564"/>
+      <c r="J43" s="564"/>
+      <c r="K43" s="564"/>
+      <c r="L43" s="564"/>
+      <c r="M43" s="564"/>
+      <c r="N43" s="564"/>
+      <c r="O43" s="564"/>
+      <c r="P43" s="564"/>
+      <c r="Q43" s="564"/>
+      <c r="R43" s="564"/>
+      <c r="S43" s="564"/>
+      <c r="T43" s="564"/>
+      <c r="U43" s="564"/>
+      <c r="V43" s="564"/>
+      <c r="W43" s="564"/>
+      <c r="X43" s="564"/>
+      <c r="Y43" s="564"/>
+      <c r="Z43" s="564"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="564"/>
+      <c r="B44" s="564"/>
+      <c r="C44" s="564"/>
+      <c r="D44" s="564"/>
+      <c r="E44" s="564"/>
+      <c r="F44" s="564"/>
+      <c r="G44" s="564"/>
+      <c r="H44" s="564"/>
+      <c r="I44" s="564"/>
+      <c r="J44" s="564"/>
+      <c r="K44" s="564"/>
+      <c r="L44" s="564"/>
+      <c r="M44" s="564"/>
+      <c r="N44" s="564"/>
+      <c r="O44" s="564"/>
+      <c r="P44" s="564"/>
+      <c r="Q44" s="564"/>
+      <c r="R44" s="564"/>
+      <c r="S44" s="564"/>
+      <c r="T44" s="564"/>
+      <c r="U44" s="564"/>
+      <c r="V44" s="564"/>
+      <c r="W44" s="564"/>
+      <c r="X44" s="564"/>
+      <c r="Y44" s="564"/>
+      <c r="Z44" s="564"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="564"/>
+      <c r="B45" s="564"/>
+      <c r="C45" s="564"/>
+      <c r="D45" s="564"/>
+      <c r="E45" s="564"/>
+      <c r="F45" s="564"/>
+      <c r="G45" s="564"/>
+      <c r="H45" s="564"/>
+      <c r="I45" s="564"/>
+      <c r="J45" s="564"/>
+      <c r="K45" s="564"/>
+      <c r="L45" s="564"/>
+      <c r="M45" s="564"/>
+      <c r="N45" s="564"/>
+      <c r="O45" s="564"/>
+      <c r="P45" s="564"/>
+      <c r="Q45" s="564"/>
+      <c r="R45" s="564"/>
+      <c r="S45" s="564"/>
+      <c r="T45" s="564"/>
+      <c r="U45" s="564"/>
+      <c r="V45" s="564"/>
+      <c r="W45" s="564"/>
+      <c r="X45" s="564"/>
+      <c r="Y45" s="564"/>
+      <c r="Z45" s="564"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="564"/>
+      <c r="B46" s="564"/>
+      <c r="C46" s="564"/>
+      <c r="D46" s="564"/>
+      <c r="E46" s="564"/>
+      <c r="F46" s="564"/>
+      <c r="G46" s="564"/>
+      <c r="H46" s="564"/>
+      <c r="I46" s="564"/>
+      <c r="J46" s="564"/>
+      <c r="K46" s="564"/>
+      <c r="L46" s="564"/>
+      <c r="M46" s="564"/>
+      <c r="N46" s="564"/>
+      <c r="O46" s="564"/>
+      <c r="P46" s="564"/>
+      <c r="Q46" s="564"/>
+      <c r="R46" s="564"/>
+      <c r="S46" s="564"/>
+      <c r="T46" s="564"/>
+      <c r="U46" s="564"/>
+      <c r="V46" s="564"/>
+      <c r="W46" s="564"/>
+      <c r="X46" s="564"/>
+      <c r="Y46" s="564"/>
+      <c r="Z46" s="564"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="564"/>
+      <c r="B47" s="564"/>
+      <c r="C47" s="564"/>
+      <c r="D47" s="564"/>
+      <c r="E47" s="564"/>
+      <c r="F47" s="564"/>
+      <c r="G47" s="564"/>
+      <c r="H47" s="564"/>
+      <c r="I47" s="564"/>
+      <c r="J47" s="564"/>
+      <c r="K47" s="564"/>
+      <c r="L47" s="564"/>
+      <c r="M47" s="564"/>
+      <c r="N47" s="564"/>
+      <c r="O47" s="564"/>
+      <c r="P47" s="564"/>
+      <c r="Q47" s="564"/>
+      <c r="R47" s="564"/>
+      <c r="S47" s="564"/>
+      <c r="T47" s="564"/>
+      <c r="U47" s="564"/>
+      <c r="V47" s="564"/>
+      <c r="W47" s="564"/>
+      <c r="X47" s="564"/>
+      <c r="Y47" s="564"/>
+      <c r="Z47" s="564"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="564"/>
+      <c r="B48" s="564"/>
+      <c r="C48" s="564"/>
+      <c r="D48" s="564"/>
+      <c r="E48" s="564"/>
+      <c r="F48" s="564"/>
+      <c r="G48" s="564"/>
+      <c r="H48" s="564"/>
+      <c r="I48" s="564"/>
+      <c r="J48" s="564"/>
+      <c r="K48" s="564"/>
+      <c r="L48" s="564"/>
+      <c r="M48" s="564"/>
+      <c r="N48" s="564"/>
+      <c r="O48" s="564"/>
+      <c r="P48" s="564"/>
+      <c r="Q48" s="564"/>
+      <c r="R48" s="564"/>
+      <c r="S48" s="564"/>
+      <c r="T48" s="564"/>
+      <c r="U48" s="564"/>
+      <c r="V48" s="564"/>
+      <c r="W48" s="564"/>
+      <c r="X48" s="564"/>
+      <c r="Y48" s="564"/>
+      <c r="Z48" s="564"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="564"/>
+      <c r="B49" s="564"/>
+      <c r="C49" s="564"/>
+      <c r="D49" s="564"/>
+      <c r="E49" s="564"/>
+      <c r="F49" s="564"/>
+      <c r="G49" s="564"/>
+      <c r="H49" s="564"/>
+      <c r="I49" s="564"/>
+      <c r="J49" s="564"/>
+      <c r="K49" s="564"/>
+      <c r="L49" s="564"/>
+      <c r="M49" s="564"/>
+      <c r="N49" s="564"/>
+      <c r="O49" s="564"/>
+      <c r="P49" s="564"/>
+      <c r="Q49" s="564"/>
+      <c r="R49" s="564"/>
+      <c r="S49" s="564"/>
+      <c r="T49" s="564"/>
+      <c r="U49" s="564"/>
+      <c r="V49" s="564"/>
+      <c r="W49" s="564"/>
+      <c r="X49" s="564"/>
+      <c r="Y49" s="564"/>
+      <c r="Z49" s="564"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="564"/>
+      <c r="B50" s="564"/>
+      <c r="C50" s="564"/>
+      <c r="D50" s="564"/>
+      <c r="E50" s="564"/>
+      <c r="F50" s="564"/>
+      <c r="G50" s="564"/>
+      <c r="H50" s="564"/>
+      <c r="I50" s="564"/>
+      <c r="J50" s="564"/>
+      <c r="K50" s="564"/>
+      <c r="L50" s="564"/>
+      <c r="M50" s="564"/>
+      <c r="N50" s="564"/>
+      <c r="O50" s="564"/>
+      <c r="P50" s="564"/>
+      <c r="Q50" s="564"/>
+      <c r="R50" s="564"/>
+      <c r="S50" s="564"/>
+      <c r="T50" s="564"/>
+      <c r="U50" s="564"/>
+      <c r="V50" s="564"/>
+      <c r="W50" s="564"/>
+      <c r="X50" s="564"/>
+      <c r="Y50" s="564"/>
+      <c r="Z50" s="564"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="564"/>
+      <c r="B51" s="564"/>
+      <c r="C51" s="564"/>
+      <c r="D51" s="564"/>
+      <c r="E51" s="564"/>
+      <c r="F51" s="564"/>
+      <c r="G51" s="564"/>
+      <c r="H51" s="564"/>
+      <c r="I51" s="564"/>
+      <c r="J51" s="564"/>
+      <c r="K51" s="564"/>
+      <c r="L51" s="564"/>
+      <c r="M51" s="564"/>
+      <c r="N51" s="564"/>
+      <c r="O51" s="564"/>
+      <c r="P51" s="564"/>
+      <c r="Q51" s="564"/>
+      <c r="R51" s="564"/>
+      <c r="S51" s="564"/>
+      <c r="T51" s="564"/>
+      <c r="U51" s="564"/>
+      <c r="V51" s="564"/>
+      <c r="W51" s="564"/>
+      <c r="X51" s="564"/>
+      <c r="Y51" s="564"/>
+      <c r="Z51" s="564"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="564"/>
+      <c r="B52" s="564"/>
+      <c r="C52" s="564"/>
+      <c r="D52" s="564"/>
+      <c r="E52" s="564"/>
+      <c r="F52" s="564"/>
+      <c r="G52" s="564"/>
+      <c r="H52" s="564"/>
+      <c r="I52" s="564"/>
+      <c r="J52" s="564"/>
+      <c r="K52" s="564"/>
+      <c r="L52" s="564"/>
+      <c r="M52" s="564"/>
+      <c r="N52" s="564"/>
+      <c r="O52" s="564"/>
+      <c r="P52" s="564"/>
+      <c r="Q52" s="564"/>
+      <c r="R52" s="564"/>
+      <c r="S52" s="564"/>
+      <c r="T52" s="564"/>
+      <c r="U52" s="564"/>
+      <c r="V52" s="564"/>
+      <c r="W52" s="564"/>
+      <c r="X52" s="564"/>
+      <c r="Y52" s="564"/>
+      <c r="Z52" s="564"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="564"/>
+      <c r="B53" s="564"/>
+      <c r="C53" s="564"/>
+      <c r="D53" s="564"/>
+      <c r="E53" s="564"/>
+      <c r="F53" s="564"/>
+      <c r="G53" s="564"/>
+      <c r="H53" s="564"/>
+      <c r="I53" s="564"/>
+      <c r="J53" s="564"/>
+      <c r="K53" s="564"/>
+      <c r="L53" s="564"/>
+      <c r="M53" s="564"/>
+      <c r="N53" s="564"/>
+      <c r="O53" s="564"/>
+      <c r="P53" s="564"/>
+      <c r="Q53" s="564"/>
+      <c r="R53" s="564"/>
+      <c r="S53" s="564"/>
+      <c r="T53" s="564"/>
+      <c r="U53" s="564"/>
+      <c r="V53" s="564"/>
+      <c r="W53" s="564"/>
+      <c r="X53" s="564"/>
+      <c r="Y53" s="564"/>
+      <c r="Z53" s="564"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="564"/>
+      <c r="B54" s="564"/>
+      <c r="C54" s="564"/>
+      <c r="D54" s="564"/>
+      <c r="E54" s="564"/>
+      <c r="F54" s="564"/>
+      <c r="G54" s="564"/>
+      <c r="H54" s="564"/>
+      <c r="I54" s="564"/>
+      <c r="J54" s="564"/>
+      <c r="K54" s="564"/>
+      <c r="L54" s="564"/>
+      <c r="M54" s="564"/>
+      <c r="N54" s="564"/>
+      <c r="O54" s="564"/>
+      <c r="P54" s="564"/>
+      <c r="Q54" s="564"/>
+      <c r="R54" s="564"/>
+      <c r="S54" s="564"/>
+      <c r="T54" s="564"/>
+      <c r="U54" s="564"/>
+      <c r="V54" s="564"/>
+      <c r="W54" s="564"/>
+      <c r="X54" s="564"/>
+      <c r="Y54" s="564"/>
+      <c r="Z54" s="564"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="564"/>
+      <c r="B55" s="564"/>
+      <c r="C55" s="564"/>
+      <c r="D55" s="564"/>
+      <c r="E55" s="564"/>
+      <c r="F55" s="564"/>
+      <c r="G55" s="564"/>
+      <c r="H55" s="564"/>
+      <c r="I55" s="564"/>
+      <c r="J55" s="564"/>
+      <c r="K55" s="564"/>
+      <c r="L55" s="564"/>
+      <c r="M55" s="564"/>
+      <c r="N55" s="564"/>
+      <c r="O55" s="564"/>
+      <c r="P55" s="564"/>
+      <c r="Q55" s="564"/>
+      <c r="R55" s="564"/>
+      <c r="S55" s="564"/>
+      <c r="T55" s="564"/>
+      <c r="U55" s="564"/>
+      <c r="V55" s="564"/>
+      <c r="W55" s="564"/>
+      <c r="X55" s="564"/>
+      <c r="Y55" s="564"/>
+      <c r="Z55" s="564"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="564"/>
+      <c r="B56" s="564"/>
+      <c r="C56" s="564"/>
+      <c r="D56" s="564"/>
+      <c r="E56" s="564"/>
+      <c r="F56" s="564"/>
+      <c r="G56" s="564"/>
+      <c r="H56" s="564"/>
+      <c r="I56" s="564"/>
+      <c r="J56" s="564"/>
+      <c r="K56" s="564"/>
+      <c r="L56" s="564"/>
+      <c r="M56" s="564"/>
+      <c r="N56" s="564"/>
+      <c r="O56" s="564"/>
+      <c r="P56" s="564"/>
+      <c r="Q56" s="564"/>
+      <c r="R56" s="564"/>
+      <c r="S56" s="564"/>
+      <c r="T56" s="564"/>
+      <c r="U56" s="564"/>
+      <c r="V56" s="564"/>
+      <c r="W56" s="564"/>
+      <c r="X56" s="564"/>
+      <c r="Y56" s="564"/>
+      <c r="Z56" s="564"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="564"/>
+      <c r="B57" s="564"/>
+      <c r="C57" s="564"/>
+      <c r="D57" s="564"/>
+      <c r="E57" s="564"/>
+      <c r="F57" s="564"/>
+      <c r="G57" s="564"/>
+      <c r="H57" s="564"/>
+      <c r="I57" s="564"/>
+      <c r="J57" s="564"/>
+      <c r="K57" s="564"/>
+      <c r="L57" s="564"/>
+      <c r="M57" s="564"/>
+      <c r="N57" s="564"/>
+      <c r="O57" s="564"/>
+      <c r="P57" s="564"/>
+      <c r="Q57" s="564"/>
+      <c r="R57" s="564"/>
+      <c r="S57" s="564"/>
+      <c r="T57" s="564"/>
+      <c r="U57" s="564"/>
+      <c r="V57" s="564"/>
+      <c r="W57" s="564"/>
+      <c r="X57" s="564"/>
+      <c r="Y57" s="564"/>
+      <c r="Z57" s="564"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="564"/>
+      <c r="B58" s="564"/>
+      <c r="C58" s="564"/>
+      <c r="D58" s="564"/>
+      <c r="E58" s="564"/>
+      <c r="F58" s="564"/>
+      <c r="G58" s="564"/>
+      <c r="H58" s="564"/>
+      <c r="I58" s="564"/>
+      <c r="J58" s="564"/>
+      <c r="K58" s="564"/>
+      <c r="L58" s="564"/>
+      <c r="M58" s="564"/>
+      <c r="N58" s="564"/>
+      <c r="O58" s="564"/>
+      <c r="P58" s="564"/>
+      <c r="Q58" s="564"/>
+      <c r="R58" s="564"/>
+      <c r="S58" s="564"/>
+      <c r="T58" s="564"/>
+      <c r="U58" s="564"/>
+      <c r="V58" s="564"/>
+      <c r="W58" s="564"/>
+      <c r="X58" s="564"/>
+      <c r="Y58" s="564"/>
+      <c r="Z58" s="564"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="564"/>
+      <c r="B59" s="564"/>
+      <c r="C59" s="564"/>
+      <c r="D59" s="564"/>
+      <c r="E59" s="564"/>
+      <c r="F59" s="564"/>
+      <c r="G59" s="564"/>
+      <c r="H59" s="564"/>
+      <c r="I59" s="564"/>
+      <c r="J59" s="564"/>
+      <c r="K59" s="564"/>
+      <c r="L59" s="564"/>
+      <c r="M59" s="564"/>
+      <c r="N59" s="564"/>
+      <c r="O59" s="564"/>
+      <c r="P59" s="564"/>
+      <c r="Q59" s="564"/>
+      <c r="R59" s="564"/>
+      <c r="S59" s="564"/>
+      <c r="T59" s="564"/>
+      <c r="U59" s="564"/>
+      <c r="V59" s="564"/>
+      <c r="W59" s="564"/>
+      <c r="X59" s="564"/>
+      <c r="Y59" s="564"/>
+      <c r="Z59" s="564"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="564"/>
+      <c r="B60" s="564"/>
+      <c r="C60" s="564"/>
+      <c r="D60" s="564"/>
+      <c r="E60" s="564"/>
+      <c r="F60" s="564"/>
+      <c r="G60" s="564"/>
+      <c r="H60" s="564"/>
+      <c r="I60" s="564"/>
+      <c r="J60" s="564"/>
+      <c r="K60" s="564"/>
+      <c r="L60" s="564"/>
+      <c r="M60" s="564"/>
+      <c r="N60" s="564"/>
+      <c r="O60" s="564"/>
+      <c r="P60" s="564"/>
+      <c r="Q60" s="564"/>
+      <c r="R60" s="564"/>
+      <c r="S60" s="564"/>
+      <c r="T60" s="564"/>
+      <c r="U60" s="564"/>
+      <c r="V60" s="564"/>
+      <c r="W60" s="564"/>
+      <c r="X60" s="564"/>
+      <c r="Y60" s="564"/>
+      <c r="Z60" s="564"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="564"/>
+      <c r="B61" s="564"/>
+      <c r="C61" s="564"/>
+      <c r="D61" s="564"/>
+      <c r="E61" s="564"/>
+      <c r="F61" s="564"/>
+      <c r="G61" s="564"/>
+      <c r="H61" s="564"/>
+      <c r="I61" s="564"/>
+      <c r="J61" s="564"/>
+      <c r="K61" s="564"/>
+      <c r="L61" s="564"/>
+      <c r="M61" s="564"/>
+      <c r="N61" s="564"/>
+      <c r="O61" s="564"/>
+      <c r="P61" s="564"/>
+      <c r="Q61" s="564"/>
+      <c r="R61" s="564"/>
+      <c r="S61" s="564"/>
+      <c r="T61" s="564"/>
+      <c r="U61" s="564"/>
+      <c r="V61" s="564"/>
+      <c r="W61" s="564"/>
+      <c r="X61" s="564"/>
+      <c r="Y61" s="564"/>
+      <c r="Z61" s="564"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="564"/>
+      <c r="B62" s="564"/>
+      <c r="C62" s="564"/>
+      <c r="D62" s="564"/>
+      <c r="E62" s="564"/>
+      <c r="F62" s="564"/>
+      <c r="G62" s="564"/>
+      <c r="H62" s="564"/>
+      <c r="I62" s="564"/>
+      <c r="J62" s="564"/>
+      <c r="K62" s="564"/>
+      <c r="L62" s="564"/>
+      <c r="M62" s="564"/>
+      <c r="N62" s="564"/>
+      <c r="O62" s="564"/>
+      <c r="P62" s="564"/>
+      <c r="Q62" s="564"/>
+      <c r="R62" s="564"/>
+      <c r="S62" s="564"/>
+      <c r="T62" s="564"/>
+      <c r="U62" s="564"/>
+      <c r="V62" s="564"/>
+      <c r="W62" s="564"/>
+      <c r="X62" s="564"/>
+      <c r="Y62" s="564"/>
+      <c r="Z62" s="564"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="564"/>
+      <c r="B63" s="564"/>
+      <c r="C63" s="564"/>
+      <c r="D63" s="564"/>
+      <c r="E63" s="564"/>
+      <c r="F63" s="564"/>
+      <c r="G63" s="564"/>
+      <c r="H63" s="564"/>
+      <c r="I63" s="564"/>
+      <c r="J63" s="564"/>
+      <c r="K63" s="564"/>
+      <c r="L63" s="564"/>
+      <c r="M63" s="564"/>
+      <c r="N63" s="564"/>
+      <c r="O63" s="564"/>
+      <c r="P63" s="564"/>
+      <c r="Q63" s="564"/>
+      <c r="R63" s="564"/>
+      <c r="S63" s="564"/>
+      <c r="T63" s="564"/>
+      <c r="U63" s="564"/>
+      <c r="V63" s="564"/>
+      <c r="W63" s="564"/>
+      <c r="X63" s="564"/>
+      <c r="Y63" s="564"/>
+      <c r="Z63" s="564"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="564"/>
+      <c r="B64" s="564"/>
+      <c r="C64" s="564"/>
+      <c r="D64" s="564"/>
+      <c r="E64" s="564"/>
+      <c r="F64" s="564"/>
+      <c r="G64" s="564"/>
+      <c r="H64" s="564"/>
+      <c r="I64" s="564"/>
+      <c r="J64" s="564"/>
+      <c r="K64" s="564"/>
+      <c r="L64" s="564"/>
+      <c r="M64" s="564"/>
+      <c r="N64" s="564"/>
+      <c r="O64" s="564"/>
+      <c r="P64" s="564"/>
+      <c r="Q64" s="564"/>
+      <c r="R64" s="564"/>
+      <c r="S64" s="564"/>
+      <c r="T64" s="564"/>
+      <c r="U64" s="564"/>
+      <c r="V64" s="564"/>
+      <c r="W64" s="564"/>
+      <c r="X64" s="564"/>
+      <c r="Y64" s="564"/>
+      <c r="Z64" s="564"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="564"/>
+      <c r="B65" s="564"/>
+      <c r="C65" s="564"/>
+      <c r="D65" s="564"/>
+      <c r="E65" s="564"/>
+      <c r="F65" s="564"/>
+      <c r="G65" s="564"/>
+      <c r="H65" s="564"/>
+      <c r="I65" s="564"/>
+      <c r="J65" s="564"/>
+      <c r="K65" s="564"/>
+      <c r="L65" s="564"/>
+      <c r="M65" s="564"/>
+      <c r="N65" s="564"/>
+      <c r="O65" s="564"/>
+      <c r="P65" s="564"/>
+      <c r="Q65" s="564"/>
+      <c r="R65" s="564"/>
+      <c r="S65" s="564"/>
+      <c r="T65" s="564"/>
+      <c r="U65" s="564"/>
+      <c r="V65" s="564"/>
+      <c r="W65" s="564"/>
+      <c r="X65" s="564"/>
+      <c r="Y65" s="564"/>
+      <c r="Z65" s="564"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="564"/>
+      <c r="B66" s="564"/>
+      <c r="C66" s="564"/>
+      <c r="D66" s="564"/>
+      <c r="E66" s="564"/>
+      <c r="F66" s="564"/>
+      <c r="G66" s="564"/>
+      <c r="H66" s="564"/>
+      <c r="I66" s="564"/>
+      <c r="J66" s="564"/>
+      <c r="K66" s="564"/>
+      <c r="L66" s="564"/>
+      <c r="M66" s="564"/>
+      <c r="N66" s="564"/>
+      <c r="O66" s="564"/>
+      <c r="P66" s="564"/>
+      <c r="Q66" s="564"/>
+      <c r="R66" s="564"/>
+      <c r="S66" s="564"/>
+      <c r="T66" s="564"/>
+      <c r="U66" s="564"/>
+      <c r="V66" s="564"/>
+      <c r="W66" s="564"/>
+      <c r="X66" s="564"/>
+      <c r="Y66" s="564"/>
+      <c r="Z66" s="564"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="564"/>
+      <c r="B67" s="564"/>
+      <c r="C67" s="564"/>
+      <c r="D67" s="564"/>
+      <c r="E67" s="564"/>
+      <c r="F67" s="564"/>
+      <c r="G67" s="564"/>
+      <c r="H67" s="564"/>
+      <c r="I67" s="564"/>
+      <c r="J67" s="564"/>
+      <c r="K67" s="564"/>
+      <c r="L67" s="564"/>
+      <c r="M67" s="564"/>
+      <c r="N67" s="564"/>
+      <c r="O67" s="564"/>
+      <c r="P67" s="564"/>
+      <c r="Q67" s="564"/>
+      <c r="R67" s="564"/>
+      <c r="S67" s="564"/>
+      <c r="T67" s="564"/>
+      <c r="U67" s="564"/>
+      <c r="V67" s="564"/>
+      <c r="W67" s="564"/>
+      <c r="X67" s="564"/>
+      <c r="Y67" s="564"/>
+      <c r="Z67" s="564"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="564"/>
+      <c r="B68" s="564"/>
+      <c r="C68" s="564"/>
+      <c r="D68" s="564"/>
+      <c r="E68" s="564"/>
+      <c r="F68" s="564"/>
+      <c r="G68" s="564"/>
+      <c r="H68" s="564"/>
+      <c r="I68" s="564"/>
+      <c r="J68" s="564"/>
+      <c r="K68" s="564"/>
+      <c r="L68" s="564"/>
+      <c r="M68" s="564"/>
+      <c r="N68" s="564"/>
+      <c r="O68" s="564"/>
+      <c r="P68" s="564"/>
+      <c r="Q68" s="564"/>
+      <c r="R68" s="564"/>
+      <c r="S68" s="564"/>
+      <c r="T68" s="564"/>
+      <c r="U68" s="564"/>
+      <c r="V68" s="564"/>
+      <c r="W68" s="564"/>
+      <c r="X68" s="564"/>
+      <c r="Y68" s="564"/>
+      <c r="Z68" s="564"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="564"/>
+      <c r="B69" s="564"/>
+      <c r="C69" s="564"/>
+      <c r="D69" s="564"/>
+      <c r="E69" s="564"/>
+      <c r="F69" s="564"/>
+      <c r="G69" s="564"/>
+      <c r="H69" s="564"/>
+      <c r="I69" s="564"/>
+      <c r="J69" s="564"/>
+      <c r="K69" s="564"/>
+      <c r="L69" s="564"/>
+      <c r="M69" s="564"/>
+      <c r="N69" s="564"/>
+      <c r="O69" s="564"/>
+      <c r="P69" s="564"/>
+      <c r="Q69" s="564"/>
+      <c r="R69" s="564"/>
+      <c r="S69" s="564"/>
+      <c r="T69" s="564"/>
+      <c r="U69" s="564"/>
+      <c r="V69" s="564"/>
+      <c r="W69" s="564"/>
+      <c r="X69" s="564"/>
+      <c r="Y69" s="564"/>
+      <c r="Z69" s="564"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="564"/>
+      <c r="B70" s="564"/>
+      <c r="C70" s="564"/>
+      <c r="D70" s="564"/>
+      <c r="E70" s="564"/>
+      <c r="F70" s="564"/>
+      <c r="G70" s="564"/>
+      <c r="H70" s="564"/>
+      <c r="I70" s="564"/>
+      <c r="J70" s="564"/>
+      <c r="K70" s="564"/>
+      <c r="L70" s="564"/>
+      <c r="M70" s="564"/>
+      <c r="N70" s="564"/>
+      <c r="O70" s="564"/>
+      <c r="P70" s="564"/>
+      <c r="Q70" s="564"/>
+      <c r="R70" s="564"/>
+      <c r="S70" s="564"/>
+      <c r="T70" s="564"/>
+      <c r="U70" s="564"/>
+      <c r="V70" s="564"/>
+      <c r="W70" s="564"/>
+      <c r="X70" s="564"/>
+      <c r="Y70" s="564"/>
+      <c r="Z70" s="564"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="564"/>
+      <c r="B71" s="564"/>
+      <c r="C71" s="564"/>
+      <c r="D71" s="564"/>
+      <c r="E71" s="564"/>
+      <c r="F71" s="564"/>
+      <c r="G71" s="564"/>
+      <c r="H71" s="564"/>
+      <c r="I71" s="564"/>
+      <c r="J71" s="564"/>
+      <c r="K71" s="564"/>
+      <c r="L71" s="564"/>
+      <c r="M71" s="564"/>
+      <c r="N71" s="564"/>
+      <c r="O71" s="564"/>
+      <c r="P71" s="564"/>
+      <c r="Q71" s="564"/>
+      <c r="R71" s="564"/>
+      <c r="S71" s="564"/>
+      <c r="T71" s="564"/>
+      <c r="U71" s="564"/>
+      <c r="V71" s="564"/>
+      <c r="W71" s="564"/>
+      <c r="X71" s="564"/>
+      <c r="Y71" s="564"/>
+      <c r="Z71" s="564"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="564"/>
+      <c r="B72" s="564"/>
+      <c r="C72" s="564"/>
+      <c r="D72" s="564"/>
+      <c r="E72" s="564"/>
+      <c r="F72" s="564"/>
+      <c r="G72" s="564"/>
+      <c r="H72" s="564"/>
+      <c r="I72" s="564"/>
+      <c r="J72" s="564"/>
+      <c r="K72" s="564"/>
+      <c r="L72" s="564"/>
+      <c r="M72" s="564"/>
+      <c r="N72" s="564"/>
+      <c r="O72" s="564"/>
+      <c r="P72" s="564"/>
+      <c r="Q72" s="564"/>
+      <c r="R72" s="564"/>
+      <c r="S72" s="564"/>
+      <c r="T72" s="564"/>
+      <c r="U72" s="564"/>
+      <c r="V72" s="564"/>
+      <c r="W72" s="564"/>
+      <c r="X72" s="564"/>
+      <c r="Y72" s="564"/>
+      <c r="Z72" s="564"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="564"/>
+      <c r="B73" s="564"/>
+      <c r="C73" s="564"/>
+      <c r="D73" s="564"/>
+      <c r="E73" s="564"/>
+      <c r="F73" s="564"/>
+      <c r="G73" s="564"/>
+      <c r="H73" s="564"/>
+      <c r="I73" s="564"/>
+      <c r="J73" s="564"/>
+      <c r="K73" s="564"/>
+      <c r="L73" s="564"/>
+      <c r="M73" s="564"/>
+      <c r="N73" s="564"/>
+      <c r="O73" s="564"/>
+      <c r="P73" s="564"/>
+      <c r="Q73" s="564"/>
+      <c r="R73" s="564"/>
+      <c r="S73" s="564"/>
+      <c r="T73" s="564"/>
+      <c r="U73" s="564"/>
+      <c r="V73" s="564"/>
+      <c r="W73" s="564"/>
+      <c r="X73" s="564"/>
+      <c r="Y73" s="564"/>
+      <c r="Z73" s="564"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="564"/>
+      <c r="B74" s="564"/>
+      <c r="C74" s="564"/>
+      <c r="D74" s="564"/>
+      <c r="E74" s="564"/>
+      <c r="F74" s="564"/>
+      <c r="G74" s="564"/>
+      <c r="H74" s="564"/>
+      <c r="I74" s="564"/>
+      <c r="J74" s="564"/>
+      <c r="K74" s="564"/>
+      <c r="L74" s="564"/>
+      <c r="M74" s="564"/>
+      <c r="N74" s="564"/>
+      <c r="O74" s="564"/>
+      <c r="P74" s="564"/>
+      <c r="Q74" s="564"/>
+      <c r="R74" s="564"/>
+      <c r="S74" s="564"/>
+      <c r="T74" s="564"/>
+      <c r="U74" s="564"/>
+      <c r="V74" s="564"/>
+      <c r="W74" s="564"/>
+      <c r="X74" s="564"/>
+      <c r="Y74" s="564"/>
+      <c r="Z74" s="564"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="564"/>
+      <c r="B75" s="564"/>
+      <c r="C75" s="564"/>
+      <c r="D75" s="564"/>
+      <c r="E75" s="564"/>
+      <c r="F75" s="564"/>
+      <c r="G75" s="564"/>
+      <c r="H75" s="564"/>
+      <c r="I75" s="564"/>
+      <c r="J75" s="564"/>
+      <c r="K75" s="564"/>
+      <c r="L75" s="564"/>
+      <c r="M75" s="564"/>
+      <c r="N75" s="564"/>
+      <c r="O75" s="564"/>
+      <c r="P75" s="564"/>
+      <c r="Q75" s="564"/>
+      <c r="R75" s="564"/>
+      <c r="S75" s="564"/>
+      <c r="T75" s="564"/>
+      <c r="U75" s="564"/>
+      <c r="V75" s="564"/>
+      <c r="W75" s="564"/>
+      <c r="X75" s="564"/>
+      <c r="Y75" s="564"/>
+      <c r="Z75" s="564"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="564"/>
+      <c r="B76" s="564"/>
+      <c r="C76" s="564"/>
+      <c r="D76" s="564"/>
+      <c r="E76" s="564"/>
+      <c r="F76" s="564"/>
+      <c r="G76" s="564"/>
+      <c r="H76" s="564"/>
+      <c r="I76" s="564"/>
+      <c r="J76" s="564"/>
+      <c r="K76" s="564"/>
+      <c r="L76" s="564"/>
+      <c r="M76" s="564"/>
+      <c r="N76" s="564"/>
+      <c r="O76" s="564"/>
+      <c r="P76" s="564"/>
+      <c r="Q76" s="564"/>
+      <c r="R76" s="564"/>
+      <c r="S76" s="564"/>
+      <c r="T76" s="564"/>
+      <c r="U76" s="564"/>
+      <c r="V76" s="564"/>
+      <c r="W76" s="564"/>
+      <c r="X76" s="564"/>
+      <c r="Y76" s="564"/>
+      <c r="Z76" s="564"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="564"/>
+      <c r="B77" s="564"/>
+      <c r="C77" s="564"/>
+      <c r="D77" s="564"/>
+      <c r="E77" s="564"/>
+      <c r="F77" s="564"/>
+      <c r="G77" s="564"/>
+      <c r="H77" s="564"/>
+      <c r="I77" s="564"/>
+      <c r="J77" s="564"/>
+      <c r="K77" s="564"/>
+      <c r="L77" s="564"/>
+      <c r="M77" s="564"/>
+      <c r="N77" s="564"/>
+      <c r="O77" s="564"/>
+      <c r="P77" s="564"/>
+      <c r="Q77" s="564"/>
+      <c r="R77" s="564"/>
+      <c r="S77" s="564"/>
+      <c r="T77" s="564"/>
+      <c r="U77" s="564"/>
+      <c r="V77" s="564"/>
+      <c r="W77" s="564"/>
+      <c r="X77" s="564"/>
+      <c r="Y77" s="564"/>
+      <c r="Z77" s="564"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="564"/>
+      <c r="B78" s="564"/>
+      <c r="C78" s="564"/>
+      <c r="D78" s="564"/>
+      <c r="E78" s="564"/>
+      <c r="F78" s="564"/>
+      <c r="G78" s="564"/>
+      <c r="H78" s="564"/>
+      <c r="I78" s="564"/>
+      <c r="J78" s="564"/>
+      <c r="K78" s="564"/>
+      <c r="L78" s="564"/>
+      <c r="M78" s="564"/>
+      <c r="N78" s="564"/>
+      <c r="O78" s="564"/>
+      <c r="P78" s="564"/>
+      <c r="Q78" s="564"/>
+      <c r="R78" s="564"/>
+      <c r="S78" s="564"/>
+      <c r="T78" s="564"/>
+      <c r="U78" s="564"/>
+      <c r="V78" s="564"/>
+      <c r="W78" s="564"/>
+      <c r="X78" s="564"/>
+      <c r="Y78" s="564"/>
+      <c r="Z78" s="564"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="564"/>
+      <c r="B79" s="564"/>
+      <c r="C79" s="564"/>
+      <c r="D79" s="564"/>
+      <c r="E79" s="564"/>
+      <c r="F79" s="564"/>
+      <c r="G79" s="564"/>
+      <c r="H79" s="564"/>
+      <c r="I79" s="564"/>
+      <c r="J79" s="564"/>
+      <c r="K79" s="564"/>
+      <c r="L79" s="564"/>
+      <c r="M79" s="564"/>
+      <c r="N79" s="564"/>
+      <c r="O79" s="564"/>
+      <c r="P79" s="564"/>
+      <c r="Q79" s="564"/>
+      <c r="R79" s="564"/>
+      <c r="S79" s="564"/>
+      <c r="T79" s="564"/>
+      <c r="U79" s="564"/>
+      <c r="V79" s="564"/>
+      <c r="W79" s="564"/>
+      <c r="X79" s="564"/>
+      <c r="Y79" s="564"/>
+      <c r="Z79" s="564"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="564"/>
+      <c r="B80" s="564"/>
+      <c r="C80" s="564"/>
+      <c r="D80" s="564"/>
+      <c r="E80" s="564"/>
+      <c r="F80" s="564"/>
+      <c r="G80" s="564"/>
+      <c r="H80" s="564"/>
+      <c r="I80" s="564"/>
+      <c r="J80" s="564"/>
+      <c r="K80" s="564"/>
+      <c r="L80" s="564"/>
+      <c r="M80" s="564"/>
+      <c r="N80" s="564"/>
+      <c r="O80" s="564"/>
+      <c r="P80" s="564"/>
+      <c r="Q80" s="564"/>
+      <c r="R80" s="564"/>
+      <c r="S80" s="564"/>
+      <c r="T80" s="564"/>
+      <c r="U80" s="564"/>
+      <c r="V80" s="564"/>
+      <c r="W80" s="564"/>
+      <c r="X80" s="564"/>
+      <c r="Y80" s="564"/>
+      <c r="Z80" s="564"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="564"/>
+      <c r="B81" s="564"/>
+      <c r="C81" s="564"/>
+      <c r="D81" s="564"/>
+      <c r="E81" s="564"/>
+      <c r="F81" s="564"/>
+      <c r="G81" s="564"/>
+      <c r="H81" s="564"/>
+      <c r="I81" s="564"/>
+      <c r="J81" s="564"/>
+      <c r="K81" s="564"/>
+      <c r="L81" s="564"/>
+      <c r="M81" s="564"/>
+      <c r="N81" s="564"/>
+      <c r="O81" s="564"/>
+      <c r="P81" s="564"/>
+      <c r="Q81" s="564"/>
+      <c r="R81" s="564"/>
+      <c r="S81" s="564"/>
+      <c r="T81" s="564"/>
+      <c r="U81" s="564"/>
+      <c r="V81" s="564"/>
+      <c r="W81" s="564"/>
+      <c r="X81" s="564"/>
+      <c r="Y81" s="564"/>
+      <c r="Z81" s="564"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="564"/>
+      <c r="B82" s="564"/>
+      <c r="C82" s="564"/>
+      <c r="D82" s="564"/>
+      <c r="E82" s="564"/>
+      <c r="F82" s="564"/>
+      <c r="G82" s="564"/>
+      <c r="H82" s="564"/>
+      <c r="I82" s="564"/>
+      <c r="J82" s="564"/>
+      <c r="K82" s="564"/>
+      <c r="L82" s="564"/>
+      <c r="M82" s="564"/>
+      <c r="N82" s="564"/>
+      <c r="O82" s="564"/>
+      <c r="P82" s="564"/>
+      <c r="Q82" s="564"/>
+      <c r="R82" s="564"/>
+      <c r="S82" s="564"/>
+      <c r="T82" s="564"/>
+      <c r="U82" s="564"/>
+      <c r="V82" s="564"/>
+      <c r="W82" s="564"/>
+      <c r="X82" s="564"/>
+      <c r="Y82" s="564"/>
+      <c r="Z82" s="564"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="564"/>
+      <c r="B83" s="564"/>
+      <c r="C83" s="564"/>
+      <c r="D83" s="564"/>
+      <c r="E83" s="564"/>
+      <c r="F83" s="564"/>
+      <c r="G83" s="564"/>
+      <c r="H83" s="564"/>
+      <c r="I83" s="564"/>
+      <c r="J83" s="564"/>
+      <c r="K83" s="564"/>
+      <c r="L83" s="564"/>
+      <c r="M83" s="564"/>
+      <c r="N83" s="564"/>
+      <c r="O83" s="564"/>
+      <c r="P83" s="564"/>
+      <c r="Q83" s="564"/>
+      <c r="R83" s="564"/>
+      <c r="S83" s="564"/>
+      <c r="T83" s="564"/>
+      <c r="U83" s="564"/>
+      <c r="V83" s="564"/>
+      <c r="W83" s="564"/>
+      <c r="X83" s="564"/>
+      <c r="Y83" s="564"/>
+      <c r="Z83" s="564"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="564"/>
+      <c r="B84" s="564"/>
+      <c r="C84" s="564"/>
+      <c r="D84" s="564"/>
+      <c r="E84" s="564"/>
+      <c r="F84" s="564"/>
+      <c r="G84" s="564"/>
+      <c r="H84" s="564"/>
+      <c r="I84" s="564"/>
+      <c r="J84" s="564"/>
+      <c r="K84" s="564"/>
+      <c r="L84" s="564"/>
+      <c r="M84" s="564"/>
+      <c r="N84" s="564"/>
+      <c r="O84" s="564"/>
+      <c r="P84" s="564"/>
+      <c r="Q84" s="564"/>
+      <c r="R84" s="564"/>
+      <c r="S84" s="564"/>
+      <c r="T84" s="564"/>
+      <c r="U84" s="564"/>
+      <c r="V84" s="564"/>
+      <c r="W84" s="564"/>
+      <c r="X84" s="564"/>
+      <c r="Y84" s="564"/>
+      <c r="Z84" s="564"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="564"/>
+      <c r="B85" s="564"/>
+      <c r="C85" s="564"/>
+      <c r="D85" s="564"/>
+      <c r="E85" s="564"/>
+      <c r="F85" s="564"/>
+      <c r="G85" s="564"/>
+      <c r="H85" s="564"/>
+      <c r="I85" s="564"/>
+      <c r="J85" s="564"/>
+      <c r="K85" s="564"/>
+      <c r="L85" s="564"/>
+      <c r="M85" s="564"/>
+      <c r="N85" s="564"/>
+      <c r="O85" s="564"/>
+      <c r="P85" s="564"/>
+      <c r="Q85" s="564"/>
+      <c r="R85" s="564"/>
+      <c r="S85" s="564"/>
+      <c r="T85" s="564"/>
+      <c r="U85" s="564"/>
+      <c r="V85" s="564"/>
+      <c r="W85" s="564"/>
+      <c r="X85" s="564"/>
+      <c r="Y85" s="564"/>
+      <c r="Z85" s="564"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="564"/>
+      <c r="B86" s="564"/>
+      <c r="C86" s="564"/>
+      <c r="D86" s="564"/>
+      <c r="E86" s="564"/>
+      <c r="F86" s="564"/>
+      <c r="G86" s="564"/>
+      <c r="H86" s="564"/>
+      <c r="I86" s="564"/>
+      <c r="J86" s="564"/>
+      <c r="K86" s="564"/>
+      <c r="L86" s="564"/>
+      <c r="M86" s="564"/>
+      <c r="N86" s="564"/>
+      <c r="O86" s="564"/>
+      <c r="P86" s="564"/>
+      <c r="Q86" s="564"/>
+      <c r="R86" s="564"/>
+      <c r="S86" s="564"/>
+      <c r="T86" s="564"/>
+      <c r="U86" s="564"/>
+      <c r="V86" s="564"/>
+      <c r="W86" s="564"/>
+      <c r="X86" s="564"/>
+      <c r="Y86" s="564"/>
+      <c r="Z86" s="564"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="564"/>
+      <c r="B87" s="564"/>
+      <c r="C87" s="564"/>
+      <c r="D87" s="564"/>
+      <c r="E87" s="564"/>
+      <c r="F87" s="564"/>
+      <c r="G87" s="564"/>
+      <c r="H87" s="564"/>
+      <c r="I87" s="564"/>
+      <c r="J87" s="564"/>
+      <c r="K87" s="564"/>
+      <c r="L87" s="564"/>
+      <c r="M87" s="564"/>
+      <c r="N87" s="564"/>
+      <c r="O87" s="564"/>
+      <c r="P87" s="564"/>
+      <c r="Q87" s="564"/>
+      <c r="R87" s="564"/>
+      <c r="S87" s="564"/>
+      <c r="T87" s="564"/>
+      <c r="U87" s="564"/>
+      <c r="V87" s="564"/>
+      <c r="W87" s="564"/>
+      <c r="X87" s="564"/>
+      <c r="Y87" s="564"/>
+      <c r="Z87" s="564"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="564"/>
+      <c r="B88" s="564"/>
+      <c r="C88" s="564"/>
+      <c r="D88" s="564"/>
+      <c r="E88" s="564"/>
+      <c r="F88" s="564"/>
+      <c r="G88" s="564"/>
+      <c r="H88" s="564"/>
+      <c r="I88" s="564"/>
+      <c r="J88" s="564"/>
+      <c r="K88" s="564"/>
+      <c r="L88" s="564"/>
+      <c r="M88" s="564"/>
+      <c r="N88" s="564"/>
+      <c r="O88" s="564"/>
+      <c r="P88" s="564"/>
+      <c r="Q88" s="564"/>
+      <c r="R88" s="564"/>
+      <c r="S88" s="564"/>
+      <c r="T88" s="564"/>
+      <c r="U88" s="564"/>
+      <c r="V88" s="564"/>
+      <c r="W88" s="564"/>
+      <c r="X88" s="564"/>
+      <c r="Y88" s="564"/>
+      <c r="Z88" s="564"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="564"/>
+      <c r="B89" s="564"/>
+      <c r="C89" s="564"/>
+      <c r="D89" s="564"/>
+      <c r="E89" s="564"/>
+      <c r="F89" s="564"/>
+      <c r="G89" s="564"/>
+      <c r="H89" s="564"/>
+      <c r="I89" s="564"/>
+      <c r="J89" s="564"/>
+      <c r="K89" s="564"/>
+      <c r="L89" s="564"/>
+      <c r="M89" s="564"/>
+      <c r="N89" s="564"/>
+      <c r="O89" s="564"/>
+      <c r="P89" s="564"/>
+      <c r="Q89" s="564"/>
+      <c r="R89" s="564"/>
+      <c r="S89" s="564"/>
+      <c r="T89" s="564"/>
+      <c r="U89" s="564"/>
+      <c r="V89" s="564"/>
+      <c r="W89" s="564"/>
+      <c r="X89" s="564"/>
+      <c r="Y89" s="564"/>
+      <c r="Z89" s="564"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="564"/>
+      <c r="B90" s="564"/>
+      <c r="C90" s="564"/>
+      <c r="D90" s="564"/>
+      <c r="E90" s="564"/>
+      <c r="F90" s="564"/>
+      <c r="G90" s="564"/>
+      <c r="H90" s="564"/>
+      <c r="I90" s="564"/>
+      <c r="J90" s="564"/>
+      <c r="K90" s="564"/>
+      <c r="L90" s="564"/>
+      <c r="M90" s="564"/>
+      <c r="N90" s="564"/>
+      <c r="O90" s="564"/>
+      <c r="P90" s="564"/>
+      <c r="Q90" s="564"/>
+      <c r="R90" s="564"/>
+      <c r="S90" s="564"/>
+      <c r="T90" s="564"/>
+      <c r="U90" s="564"/>
+      <c r="V90" s="564"/>
+      <c r="W90" s="564"/>
+      <c r="X90" s="564"/>
+      <c r="Y90" s="564"/>
+      <c r="Z90" s="564"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="564"/>
+      <c r="B91" s="564"/>
+      <c r="C91" s="564"/>
+      <c r="D91" s="564"/>
+      <c r="E91" s="564"/>
+      <c r="F91" s="564"/>
+      <c r="G91" s="564"/>
+      <c r="H91" s="564"/>
+      <c r="I91" s="564"/>
+      <c r="J91" s="564"/>
+      <c r="K91" s="564"/>
+      <c r="L91" s="564"/>
+      <c r="M91" s="564"/>
+      <c r="N91" s="564"/>
+      <c r="O91" s="564"/>
+      <c r="P91" s="564"/>
+      <c r="Q91" s="564"/>
+      <c r="R91" s="564"/>
+      <c r="S91" s="564"/>
+      <c r="T91" s="564"/>
+      <c r="U91" s="564"/>
+      <c r="V91" s="564"/>
+      <c r="W91" s="564"/>
+      <c r="X91" s="564"/>
+      <c r="Y91" s="564"/>
+      <c r="Z91" s="564"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="564"/>
+      <c r="B92" s="564"/>
+      <c r="C92" s="564"/>
+      <c r="D92" s="564"/>
+      <c r="E92" s="564"/>
+      <c r="F92" s="564"/>
+      <c r="G92" s="564"/>
+      <c r="H92" s="564"/>
+      <c r="I92" s="564"/>
+      <c r="J92" s="564"/>
+      <c r="K92" s="564"/>
+      <c r="L92" s="564"/>
+      <c r="M92" s="564"/>
+      <c r="N92" s="564"/>
+      <c r="O92" s="564"/>
+      <c r="P92" s="564"/>
+      <c r="Q92" s="564"/>
+      <c r="R92" s="564"/>
+      <c r="S92" s="564"/>
+      <c r="T92" s="564"/>
+      <c r="U92" s="564"/>
+      <c r="V92" s="564"/>
+      <c r="W92" s="564"/>
+      <c r="X92" s="564"/>
+      <c r="Y92" s="564"/>
+      <c r="Z92" s="564"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="564"/>
+      <c r="B93" s="564"/>
+      <c r="C93" s="564"/>
+      <c r="D93" s="564"/>
+      <c r="E93" s="564"/>
+      <c r="F93" s="564"/>
+      <c r="G93" s="564"/>
+      <c r="H93" s="564"/>
+      <c r="I93" s="564"/>
+      <c r="J93" s="564"/>
+      <c r="K93" s="564"/>
+      <c r="L93" s="564"/>
+      <c r="M93" s="564"/>
+      <c r="N93" s="564"/>
+      <c r="O93" s="564"/>
+      <c r="P93" s="564"/>
+      <c r="Q93" s="564"/>
+      <c r="R93" s="564"/>
+      <c r="S93" s="564"/>
+      <c r="T93" s="564"/>
+      <c r="U93" s="564"/>
+      <c r="V93" s="564"/>
+      <c r="W93" s="564"/>
+      <c r="X93" s="564"/>
+      <c r="Y93" s="564"/>
+      <c r="Z93" s="564"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="564"/>
+      <c r="B94" s="564"/>
+      <c r="C94" s="564"/>
+      <c r="D94" s="564"/>
+      <c r="E94" s="564"/>
+      <c r="F94" s="564"/>
+      <c r="G94" s="564"/>
+      <c r="H94" s="564"/>
+      <c r="I94" s="564"/>
+      <c r="J94" s="564"/>
+      <c r="K94" s="564"/>
+      <c r="L94" s="564"/>
+      <c r="M94" s="564"/>
+      <c r="N94" s="564"/>
+      <c r="O94" s="564"/>
+      <c r="P94" s="564"/>
+      <c r="Q94" s="564"/>
+      <c r="R94" s="564"/>
+      <c r="S94" s="564"/>
+      <c r="T94" s="564"/>
+      <c r="U94" s="564"/>
+      <c r="V94" s="564"/>
+      <c r="W94" s="564"/>
+      <c r="X94" s="564"/>
+      <c r="Y94" s="564"/>
+      <c r="Z94" s="564"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="564"/>
+      <c r="B95" s="564"/>
+      <c r="C95" s="564"/>
+      <c r="D95" s="564"/>
+      <c r="E95" s="564"/>
+      <c r="F95" s="564"/>
+      <c r="G95" s="564"/>
+      <c r="H95" s="564"/>
+      <c r="I95" s="564"/>
+      <c r="J95" s="564"/>
+      <c r="K95" s="564"/>
+      <c r="L95" s="564"/>
+      <c r="M95" s="564"/>
+      <c r="N95" s="564"/>
+      <c r="O95" s="564"/>
+      <c r="P95" s="564"/>
+      <c r="Q95" s="564"/>
+      <c r="R95" s="564"/>
+      <c r="S95" s="564"/>
+      <c r="T95" s="564"/>
+      <c r="U95" s="564"/>
+      <c r="V95" s="564"/>
+      <c r="W95" s="564"/>
+      <c r="X95" s="564"/>
+      <c r="Y95" s="564"/>
+      <c r="Z95" s="564"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="564"/>
+      <c r="B96" s="564"/>
+      <c r="C96" s="564"/>
+      <c r="D96" s="564"/>
+      <c r="E96" s="564"/>
+      <c r="F96" s="564"/>
+      <c r="G96" s="564"/>
+      <c r="H96" s="564"/>
+      <c r="I96" s="564"/>
+      <c r="J96" s="564"/>
+      <c r="K96" s="564"/>
+      <c r="L96" s="564"/>
+      <c r="M96" s="564"/>
+      <c r="N96" s="564"/>
+      <c r="O96" s="564"/>
+      <c r="P96" s="564"/>
+      <c r="Q96" s="564"/>
+      <c r="R96" s="564"/>
+      <c r="S96" s="564"/>
+      <c r="T96" s="564"/>
+      <c r="U96" s="564"/>
+      <c r="V96" s="564"/>
+      <c r="W96" s="564"/>
+      <c r="X96" s="564"/>
+      <c r="Y96" s="564"/>
+      <c r="Z96" s="564"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="564"/>
+      <c r="B97" s="564"/>
+      <c r="C97" s="564"/>
+      <c r="D97" s="564"/>
+      <c r="E97" s="564"/>
+      <c r="F97" s="564"/>
+      <c r="G97" s="564"/>
+      <c r="H97" s="564"/>
+      <c r="I97" s="564"/>
+      <c r="J97" s="564"/>
+      <c r="K97" s="564"/>
+      <c r="L97" s="564"/>
+      <c r="M97" s="564"/>
+      <c r="N97" s="564"/>
+      <c r="O97" s="564"/>
+      <c r="P97" s="564"/>
+      <c r="Q97" s="564"/>
+      <c r="R97" s="564"/>
+      <c r="S97" s="564"/>
+      <c r="T97" s="564"/>
+      <c r="U97" s="564"/>
+      <c r="V97" s="564"/>
+      <c r="W97" s="564"/>
+      <c r="X97" s="564"/>
+      <c r="Y97" s="564"/>
+      <c r="Z97" s="564"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="564"/>
+      <c r="B98" s="564"/>
+      <c r="C98" s="564"/>
+      <c r="D98" s="564"/>
+      <c r="E98" s="564"/>
+      <c r="F98" s="564"/>
+      <c r="G98" s="564"/>
+      <c r="H98" s="564"/>
+      <c r="I98" s="564"/>
+      <c r="J98" s="564"/>
+      <c r="K98" s="564"/>
+      <c r="L98" s="564"/>
+      <c r="M98" s="564"/>
+      <c r="N98" s="564"/>
+      <c r="O98" s="564"/>
+      <c r="P98" s="564"/>
+      <c r="Q98" s="564"/>
+      <c r="R98" s="564"/>
+      <c r="S98" s="564"/>
+      <c r="T98" s="564"/>
+      <c r="U98" s="564"/>
+      <c r="V98" s="564"/>
+      <c r="W98" s="564"/>
+      <c r="X98" s="564"/>
+      <c r="Y98" s="564"/>
+      <c r="Z98" s="564"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="564"/>
+      <c r="B99" s="564"/>
+      <c r="C99" s="564"/>
+      <c r="D99" s="564"/>
+      <c r="E99" s="564"/>
+      <c r="F99" s="564"/>
+      <c r="G99" s="564"/>
+      <c r="H99" s="564"/>
+      <c r="I99" s="564"/>
+      <c r="J99" s="564"/>
+      <c r="K99" s="564"/>
+      <c r="L99" s="564"/>
+      <c r="M99" s="564"/>
+      <c r="N99" s="564"/>
+      <c r="O99" s="564"/>
+      <c r="P99" s="564"/>
+      <c r="Q99" s="564"/>
+      <c r="R99" s="564"/>
+      <c r="S99" s="564"/>
+      <c r="T99" s="564"/>
+      <c r="U99" s="564"/>
+      <c r="V99" s="564"/>
+      <c r="W99" s="564"/>
+      <c r="X99" s="564"/>
+      <c r="Y99" s="564"/>
+      <c r="Z99" s="564"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{D070C42C-6302-472E-A1E5-CC42E7C74926}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{B3D56217-2545-4F16-A16E-501A43742353}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="7"/>
@@ -15074,7 +18428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet11">
     <tabColor theme="7"/>
@@ -15770,7 +19124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4660B878-9B9C-4131-8EFF-29EF25ED69C5}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AL103"/>
@@ -18651,14 +22005,14 @@
   <mergeCells count="1">
     <mergeCell ref="S3:W3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F8057-C735-4662-BAA6-EEDCF7B57273}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:AR166"/>
@@ -18850,12 +22204,12 @@
         <v>91</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="531" t="s">
+      <c r="V4" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="532"/>
-      <c r="X4" s="532"/>
-      <c r="Y4" s="533"/>
+      <c r="W4" s="541"/>
+      <c r="X4" s="541"/>
+      <c r="Y4" s="542"/>
       <c r="Z4" s="63"/>
       <c r="AA4" s="63"/>
       <c r="AB4" s="71" t="s">
@@ -18954,34 +22308,34 @@
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
       <c r="G6" s="42"/>
-      <c r="H6" s="534" t="s">
+      <c r="H6" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="535"/>
-      <c r="J6" s="535"/>
-      <c r="K6" s="536"/>
-      <c r="L6" s="535" t="s">
+      <c r="I6" s="532"/>
+      <c r="J6" s="532"/>
+      <c r="K6" s="533"/>
+      <c r="L6" s="532" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="535"/>
-      <c r="N6" s="535"/>
-      <c r="O6" s="536"/>
-      <c r="P6" s="534" t="s">
+      <c r="M6" s="532"/>
+      <c r="N6" s="532"/>
+      <c r="O6" s="533"/>
+      <c r="P6" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="535"/>
-      <c r="R6" s="535"/>
-      <c r="S6" s="536"/>
-      <c r="T6" s="534" t="s">
+      <c r="Q6" s="532"/>
+      <c r="R6" s="532"/>
+      <c r="S6" s="533"/>
+      <c r="T6" s="531" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="536"/>
-      <c r="V6" s="534" t="s">
+      <c r="U6" s="533"/>
+      <c r="V6" s="531" t="s">
         <v>552</v>
       </c>
-      <c r="W6" s="535"/>
-      <c r="X6" s="535"/>
-      <c r="Y6" s="536"/>
+      <c r="W6" s="532"/>
+      <c r="X6" s="532"/>
+      <c r="Y6" s="533"/>
       <c r="Z6" s="64" t="s">
         <v>564</v>
       </c>
@@ -22000,12 +25354,12 @@
         <v>91</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="531" t="s">
+      <c r="V42" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="532"/>
-      <c r="X42" s="532"/>
-      <c r="Y42" s="533"/>
+      <c r="W42" s="541"/>
+      <c r="X42" s="541"/>
+      <c r="Y42" s="542"/>
       <c r="Z42" s="63"/>
       <c r="AA42" s="63"/>
       <c r="AB42" s="71" t="s">
@@ -22104,34 +25458,34 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="42"/>
-      <c r="H44" s="534" t="s">
+      <c r="H44" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="535"/>
-      <c r="J44" s="535"/>
-      <c r="K44" s="536"/>
-      <c r="L44" s="535" t="s">
+      <c r="I44" s="532"/>
+      <c r="J44" s="532"/>
+      <c r="K44" s="533"/>
+      <c r="L44" s="532" t="s">
         <v>37</v>
       </c>
-      <c r="M44" s="535"/>
-      <c r="N44" s="535"/>
-      <c r="O44" s="536"/>
-      <c r="P44" s="534" t="s">
+      <c r="M44" s="532"/>
+      <c r="N44" s="532"/>
+      <c r="O44" s="533"/>
+      <c r="P44" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="Q44" s="535"/>
-      <c r="R44" s="535"/>
-      <c r="S44" s="536"/>
-      <c r="T44" s="540" t="s">
+      <c r="Q44" s="532"/>
+      <c r="R44" s="532"/>
+      <c r="S44" s="533"/>
+      <c r="T44" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="U44" s="541"/>
-      <c r="V44" s="540" t="s">
+      <c r="U44" s="535"/>
+      <c r="V44" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="W44" s="542"/>
-      <c r="X44" s="542"/>
-      <c r="Y44" s="541"/>
+      <c r="W44" s="536"/>
+      <c r="X44" s="536"/>
+      <c r="Y44" s="535"/>
       <c r="Z44" s="389" t="s">
         <v>564</v>
       </c>
@@ -25910,12 +29264,12 @@
         <v>91</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="531" t="s">
+      <c r="V90" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="W90" s="532"/>
-      <c r="X90" s="532"/>
-      <c r="Y90" s="533"/>
+      <c r="W90" s="541"/>
+      <c r="X90" s="541"/>
+      <c r="Y90" s="542"/>
       <c r="Z90" s="63"/>
       <c r="AA90" s="63"/>
       <c r="AB90" s="71" t="s">
@@ -26014,34 +29368,34 @@
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
       <c r="G92" s="42"/>
-      <c r="H92" s="534" t="s">
+      <c r="H92" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="I92" s="535"/>
-      <c r="J92" s="535"/>
-      <c r="K92" s="536"/>
-      <c r="L92" s="535" t="s">
+      <c r="I92" s="532"/>
+      <c r="J92" s="532"/>
+      <c r="K92" s="533"/>
+      <c r="L92" s="532" t="s">
         <v>37</v>
       </c>
-      <c r="M92" s="535"/>
-      <c r="N92" s="535"/>
-      <c r="O92" s="536"/>
-      <c r="P92" s="534" t="s">
+      <c r="M92" s="532"/>
+      <c r="N92" s="532"/>
+      <c r="O92" s="533"/>
+      <c r="P92" s="531" t="s">
         <v>37</v>
       </c>
-      <c r="Q92" s="535"/>
-      <c r="R92" s="535"/>
-      <c r="S92" s="536"/>
-      <c r="T92" s="540" t="s">
+      <c r="Q92" s="532"/>
+      <c r="R92" s="532"/>
+      <c r="S92" s="533"/>
+      <c r="T92" s="534" t="s">
         <v>74</v>
       </c>
-      <c r="U92" s="541"/>
-      <c r="V92" s="540" t="s">
+      <c r="U92" s="535"/>
+      <c r="V92" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="W92" s="542"/>
-      <c r="X92" s="542"/>
-      <c r="Y92" s="541"/>
+      <c r="W92" s="536"/>
+      <c r="X92" s="536"/>
+      <c r="Y92" s="535"/>
       <c r="Z92" s="389" t="s">
         <v>564</v>
       </c>
@@ -29960,26 +33314,6 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -29990,8 +33324,28 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M158" r:id="rId1" xr:uid="{95A20A04-5652-40C1-8115-13257477A004}"/>
   </hyperlinks>
@@ -30002,7 +33356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CED359C-4B42-41C8-A7E8-4F6FC9AE57D2}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="C2:AA43"/>
@@ -30135,12 +33489,12 @@
       <c r="I5" s="130"/>
       <c r="J5" s="130"/>
       <c r="K5" s="130"/>
-      <c r="L5" s="531" t="s">
+      <c r="L5" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="M5" s="532"/>
-      <c r="N5" s="532"/>
-      <c r="O5" s="533"/>
+      <c r="M5" s="541"/>
+      <c r="N5" s="541"/>
+      <c r="O5" s="542"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="63" t="s">
         <v>93</v>
@@ -30171,12 +33525,12 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="540" t="s">
+      <c r="L6" s="534" t="s">
         <v>552</v>
       </c>
-      <c r="M6" s="542"/>
-      <c r="N6" s="542"/>
-      <c r="O6" s="541"/>
+      <c r="M6" s="536"/>
+      <c r="N6" s="536"/>
+      <c r="O6" s="535"/>
       <c r="P6" s="389" t="s">
         <v>564</v>
       </c>
@@ -31062,23 +34416,23 @@
       <c r="K33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="531" t="s">
+      <c r="L33" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="M33" s="532"/>
-      <c r="N33" s="532"/>
-      <c r="O33" s="533"/>
+      <c r="M33" s="541"/>
+      <c r="N33" s="541"/>
+      <c r="O33" s="542"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L34" s="540" t="s">
+      <c r="L34" s="534" t="s">
         <v>97</v>
       </c>
-      <c r="M34" s="542"/>
-      <c r="N34" s="542"/>
-      <c r="O34" s="541"/>
+      <c r="M34" s="536"/>
+      <c r="N34" s="536"/>
+      <c r="O34" s="535"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="5" t="s">
@@ -31318,7 +34672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF4867-10C8-4ED5-9BE1-6E89AAC9887A}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C2:AK347"/>
@@ -31425,11 +34779,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="531" t="s">
+      <c r="K4" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="532"/>
-      <c r="M4" s="533"/>
+      <c r="L4" s="541"/>
+      <c r="M4" s="542"/>
       <c r="N4" s="63"/>
       <c r="O4" s="63" t="s">
         <v>93</v>
@@ -31455,16 +34809,16 @@
       <c r="G5" s="397" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="543" t="s">
+      <c r="H5" s="546" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="544"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="543" t="s">
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="546" t="s">
         <v>341</v>
       </c>
-      <c r="L5" s="544"/>
-      <c r="M5" s="545"/>
+      <c r="L5" s="547"/>
+      <c r="M5" s="548"/>
       <c r="N5" s="398" t="s">
         <v>98</v>
       </c>
@@ -31481,23 +34835,23 @@
         <v>226</v>
       </c>
       <c r="AA5" s="220"/>
-      <c r="AB5" s="546" t="s">
+      <c r="AB5" s="543" t="s">
         <v>594</v>
       </c>
-      <c r="AC5" s="546"/>
+      <c r="AC5" s="543"/>
       <c r="AD5" s="400"/>
-      <c r="AE5" s="547" t="s">
+      <c r="AE5" s="544" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="547"/>
-      <c r="AG5" s="547" t="s">
+      <c r="AF5" s="544"/>
+      <c r="AG5" s="544" t="s">
         <v>595</v>
       </c>
-      <c r="AH5" s="547"/>
-      <c r="AI5" s="548" t="s">
+      <c r="AH5" s="544"/>
+      <c r="AI5" s="545" t="s">
         <v>596</v>
       </c>
-      <c r="AJ5" s="548"/>
+      <c r="AJ5" s="545"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="444" t="str">
@@ -32235,12 +35589,12 @@
       <c r="K27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="531" t="s">
+      <c r="L27" s="540" t="s">
         <v>92</v>
       </c>
-      <c r="M27" s="532"/>
-      <c r="N27" s="532"/>
-      <c r="O27" s="533"/>
+      <c r="M27" s="541"/>
+      <c r="N27" s="541"/>
+      <c r="O27" s="542"/>
       <c r="T27" s="222"/>
       <c r="U27" s="222"/>
     </row>
@@ -32248,12 +35602,12 @@
       <c r="J28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L28" s="534" t="s">
+      <c r="L28" s="531" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="535"/>
-      <c r="N28" s="535"/>
-      <c r="O28" s="536"/>
+      <c r="M28" s="532"/>
+      <c r="N28" s="532"/>
+      <c r="O28" s="533"/>
       <c r="T28" s="222"/>
       <c r="U28" s="222"/>
     </row>
@@ -33643,16 +36997,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -33665,7 +37019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A061230A-839F-45A9-841C-C412BBE6D334}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:CK183"/>
@@ -34083,103 +37437,103 @@
       <c r="C4" s="295" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="549" t="s">
+      <c r="D4" s="550" t="s">
         <v>351</v>
       </c>
-      <c r="E4" s="550"/>
-      <c r="F4" s="550"/>
-      <c r="G4" s="550"/>
+      <c r="E4" s="549"/>
+      <c r="F4" s="549"/>
+      <c r="G4" s="549"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="550" t="s">
+      <c r="I4" s="549" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="550"/>
-      <c r="K4" s="550"/>
-      <c r="L4" s="550"/>
+      <c r="J4" s="549"/>
+      <c r="K4" s="549"/>
+      <c r="L4" s="549"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="550" t="s">
+      <c r="N4" s="549" t="s">
         <v>353</v>
       </c>
-      <c r="O4" s="550"/>
-      <c r="P4" s="550"/>
-      <c r="Q4" s="550"/>
+      <c r="O4" s="549"/>
+      <c r="P4" s="549"/>
+      <c r="Q4" s="549"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="550" t="s">
+      <c r="S4" s="549" t="s">
         <v>354</v>
       </c>
-      <c r="T4" s="550"/>
-      <c r="U4" s="550"/>
-      <c r="V4" s="550"/>
+      <c r="T4" s="549"/>
+      <c r="U4" s="549"/>
+      <c r="V4" s="549"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="550" t="s">
+      <c r="X4" s="549" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" s="550"/>
-      <c r="Z4" s="550"/>
-      <c r="AA4" s="550"/>
+      <c r="Y4" s="549"/>
+      <c r="Z4" s="549"/>
+      <c r="AA4" s="549"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="550" t="s">
+      <c r="AC4" s="549" t="s">
         <v>356</v>
       </c>
-      <c r="AD4" s="550"/>
-      <c r="AE4" s="550"/>
-      <c r="AF4" s="550"/>
+      <c r="AD4" s="549"/>
+      <c r="AE4" s="549"/>
+      <c r="AF4" s="549"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="550" t="s">
+      <c r="AH4" s="549" t="s">
         <v>357</v>
       </c>
-      <c r="AI4" s="550"/>
-      <c r="AJ4" s="550"/>
-      <c r="AK4" s="550"/>
+      <c r="AI4" s="549"/>
+      <c r="AJ4" s="549"/>
+      <c r="AK4" s="549"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="550" t="s">
+      <c r="AM4" s="549" t="s">
         <v>358</v>
       </c>
-      <c r="AN4" s="550"/>
-      <c r="AO4" s="550"/>
-      <c r="AP4" s="550"/>
+      <c r="AN4" s="549"/>
+      <c r="AO4" s="549"/>
+      <c r="AP4" s="549"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="550" t="s">
+      <c r="AR4" s="549" t="s">
         <v>359</v>
       </c>
-      <c r="AS4" s="550"/>
-      <c r="AT4" s="550"/>
-      <c r="AU4" s="550"/>
+      <c r="AS4" s="549"/>
+      <c r="AT4" s="549"/>
+      <c r="AU4" s="549"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="550" t="s">
+      <c r="AW4" s="549" t="s">
         <v>360</v>
       </c>
-      <c r="AX4" s="550"/>
-      <c r="AY4" s="550"/>
-      <c r="AZ4" s="550"/>
-      <c r="BA4" s="550"/>
-      <c r="BB4" s="549" t="s">
+      <c r="AX4" s="549"/>
+      <c r="AY4" s="549"/>
+      <c r="AZ4" s="549"/>
+      <c r="BA4" s="549"/>
+      <c r="BB4" s="550" t="s">
         <v>361</v>
       </c>
-      <c r="BC4" s="550"/>
-      <c r="BD4" s="550"/>
-      <c r="BE4" s="550"/>
+      <c r="BC4" s="549"/>
+      <c r="BD4" s="549"/>
+      <c r="BE4" s="549"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="550" t="s">
+      <c r="BG4" s="549" t="s">
         <v>362</v>
       </c>
-      <c r="BH4" s="550"/>
-      <c r="BI4" s="550"/>
-      <c r="BJ4" s="550"/>
-      <c r="BK4" s="550"/>
-      <c r="BL4" s="549" t="s">
+      <c r="BH4" s="549"/>
+      <c r="BI4" s="549"/>
+      <c r="BJ4" s="549"/>
+      <c r="BK4" s="549"/>
+      <c r="BL4" s="550" t="s">
         <v>363</v>
       </c>
-      <c r="BM4" s="550"/>
-      <c r="BN4" s="550"/>
-      <c r="BO4" s="550"/>
-      <c r="BP4" s="550"/>
-      <c r="BQ4" s="549" t="s">
+      <c r="BM4" s="549"/>
+      <c r="BN4" s="549"/>
+      <c r="BO4" s="549"/>
+      <c r="BP4" s="549"/>
+      <c r="BQ4" s="550" t="s">
         <v>364</v>
       </c>
-      <c r="BR4" s="550"/>
-      <c r="BS4" s="550"/>
-      <c r="BT4" s="550"/>
+      <c r="BR4" s="549"/>
+      <c r="BS4" s="549"/>
+      <c r="BT4" s="549"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="296" t="s">
         <v>365</v>
@@ -47773,6 +51127,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -47785,23 +51144,18 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC422C74-4930-4E02-A6A2-617D513D886A}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AD121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
@@ -47812,23 +51166,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="556" t="s">
+      <c r="A1" s="558" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="558" t="s">
+      <c r="B1" s="560" t="s">
         <v>639</v>
       </c>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="560"/>
-      <c r="G1" s="558" t="s">
+      <c r="C1" s="561"/>
+      <c r="D1" s="561"/>
+      <c r="E1" s="561"/>
+      <c r="F1" s="562"/>
+      <c r="G1" s="560" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
-      <c r="K1" s="560"/>
+      <c r="H1" s="561"/>
+      <c r="I1" s="561"/>
+      <c r="J1" s="561"/>
+      <c r="K1" s="562"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -47838,7 +51192,7 @@
       <c r="R1" s="5"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="557"/>
+      <c r="A2" s="559"/>
       <c r="B2" s="466" t="s">
         <v>284</v>
       </c>
@@ -49331,11 +52685,11 @@
       <c r="Y48" t="s">
         <v>689</v>
       </c>
-      <c r="Z48" s="561" t="s">
+      <c r="Z48" s="556" t="s">
         <v>627</v>
       </c>
-      <c r="AA48" s="562"/>
-      <c r="AB48" s="562"/>
+      <c r="AA48" s="557"/>
+      <c r="AB48" s="557"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
@@ -49552,11 +52906,11 @@
       <c r="Y53" t="s">
         <v>691</v>
       </c>
-      <c r="Z53" s="561" t="s">
+      <c r="Z53" s="556" t="s">
         <v>626</v>
       </c>
-      <c r="AA53" s="562"/>
-      <c r="AB53" s="562"/>
+      <c r="AA53" s="557"/>
+      <c r="AB53" s="557"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
@@ -49758,11 +53112,11 @@
       <c r="Y59" t="s">
         <v>692</v>
       </c>
-      <c r="Z59" s="561" t="s">
+      <c r="Z59" s="556" t="s">
         <v>693</v>
       </c>
-      <c r="AA59" s="562"/>
-      <c r="AB59" s="562"/>
+      <c r="AA59" s="557"/>
+      <c r="AB59" s="557"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="486" t="str">
@@ -50599,19 +53953,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
-  <phoneticPr fontId="55" type="noConversion"/>
+  <phoneticPr fontId="56" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C17C76-D374-4B3F-9B17-0EAF716F75EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8951621-B5AC-4186-A329-5978F4856908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34F9D92C-266F-476D-89E0-63153305AC39}"/>
   </bookViews>
@@ -10849,7 +10849,7 @@
     <t xml:space="preserve">Olexandr Balyk ( MaREI, olexandr.balyk@ucc.ie) </t>
   </si>
   <si>
-    <t>New Technology</t>
+    <t>New Technologies</t>
   </si>
 </sst>
 </file>
@@ -13541,6 +13541,15 @@
     <xf numFmtId="0" fontId="37" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -13548,15 +13557,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13568,13 +13568,22 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13586,19 +13595,10 @@
     <xf numFmtId="0" fontId="53" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13616,12 +13616,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13636,6 +13630,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -14724,7 +14724,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21354,12 +21354,12 @@
         <v>85</v>
       </c>
       <c r="U4" s="539"/>
-      <c r="V4" s="540" t="s">
+      <c r="V4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W4" s="541"/>
-      <c r="X4" s="541"/>
-      <c r="Y4" s="542"/>
+      <c r="W4" s="532"/>
+      <c r="X4" s="532"/>
+      <c r="Y4" s="533"/>
       <c r="Z4" s="60"/>
       <c r="AA4" s="60"/>
       <c r="AB4" s="68" t="s">
@@ -21458,34 +21458,34 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
-      <c r="H6" s="531" t="s">
+      <c r="H6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="532"/>
-      <c r="J6" s="532"/>
-      <c r="K6" s="533"/>
-      <c r="L6" s="532" t="s">
+      <c r="I6" s="535"/>
+      <c r="J6" s="535"/>
+      <c r="K6" s="536"/>
+      <c r="L6" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="533"/>
-      <c r="P6" s="531" t="s">
+      <c r="M6" s="535"/>
+      <c r="N6" s="535"/>
+      <c r="O6" s="536"/>
+      <c r="P6" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="533"/>
-      <c r="T6" s="531" t="s">
+      <c r="Q6" s="535"/>
+      <c r="R6" s="535"/>
+      <c r="S6" s="536"/>
+      <c r="T6" s="534" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="533"/>
-      <c r="V6" s="531" t="s">
+      <c r="U6" s="536"/>
+      <c r="V6" s="534" t="s">
         <v>544</v>
       </c>
-      <c r="W6" s="532"/>
-      <c r="X6" s="532"/>
-      <c r="Y6" s="533"/>
+      <c r="W6" s="535"/>
+      <c r="X6" s="535"/>
+      <c r="Y6" s="536"/>
       <c r="Z6" s="61" t="s">
         <v>556</v>
       </c>
@@ -24504,12 +24504,12 @@
         <v>85</v>
       </c>
       <c r="U42" s="539"/>
-      <c r="V42" s="540" t="s">
+      <c r="V42" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W42" s="541"/>
-      <c r="X42" s="541"/>
-      <c r="Y42" s="542"/>
+      <c r="W42" s="532"/>
+      <c r="X42" s="532"/>
+      <c r="Y42" s="533"/>
       <c r="Z42" s="60"/>
       <c r="AA42" s="60"/>
       <c r="AB42" s="68" t="s">
@@ -24608,34 +24608,34 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="39"/>
-      <c r="H44" s="531" t="s">
+      <c r="H44" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="532"/>
-      <c r="J44" s="532"/>
-      <c r="K44" s="533"/>
-      <c r="L44" s="532" t="s">
+      <c r="I44" s="535"/>
+      <c r="J44" s="535"/>
+      <c r="K44" s="536"/>
+      <c r="L44" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M44" s="532"/>
-      <c r="N44" s="532"/>
-      <c r="O44" s="533"/>
-      <c r="P44" s="531" t="s">
+      <c r="M44" s="535"/>
+      <c r="N44" s="535"/>
+      <c r="O44" s="536"/>
+      <c r="P44" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="532"/>
-      <c r="R44" s="532"/>
-      <c r="S44" s="533"/>
-      <c r="T44" s="534" t="s">
+      <c r="Q44" s="535"/>
+      <c r="R44" s="535"/>
+      <c r="S44" s="536"/>
+      <c r="T44" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U44" s="535"/>
-      <c r="V44" s="534" t="s">
+      <c r="U44" s="541"/>
+      <c r="V44" s="540" t="s">
         <v>544</v>
       </c>
-      <c r="W44" s="536"/>
-      <c r="X44" s="536"/>
-      <c r="Y44" s="535"/>
+      <c r="W44" s="542"/>
+      <c r="X44" s="542"/>
+      <c r="Y44" s="541"/>
       <c r="Z44" s="377" t="s">
         <v>556</v>
       </c>
@@ -28414,12 +28414,12 @@
         <v>85</v>
       </c>
       <c r="U90" s="539"/>
-      <c r="V90" s="540" t="s">
+      <c r="V90" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="W90" s="541"/>
-      <c r="X90" s="541"/>
-      <c r="Y90" s="542"/>
+      <c r="W90" s="532"/>
+      <c r="X90" s="532"/>
+      <c r="Y90" s="533"/>
       <c r="Z90" s="60"/>
       <c r="AA90" s="60"/>
       <c r="AB90" s="68" t="s">
@@ -28518,34 +28518,34 @@
       <c r="E92" s="38"/>
       <c r="F92" s="38"/>
       <c r="G92" s="39"/>
-      <c r="H92" s="531" t="s">
+      <c r="H92" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="532"/>
-      <c r="J92" s="532"/>
-      <c r="K92" s="533"/>
-      <c r="L92" s="532" t="s">
+      <c r="I92" s="535"/>
+      <c r="J92" s="535"/>
+      <c r="K92" s="536"/>
+      <c r="L92" s="535" t="s">
         <v>34</v>
       </c>
-      <c r="M92" s="532"/>
-      <c r="N92" s="532"/>
-      <c r="O92" s="533"/>
-      <c r="P92" s="531" t="s">
+      <c r="M92" s="535"/>
+      <c r="N92" s="535"/>
+      <c r="O92" s="536"/>
+      <c r="P92" s="534" t="s">
         <v>34</v>
       </c>
-      <c r="Q92" s="532"/>
-      <c r="R92" s="532"/>
-      <c r="S92" s="533"/>
-      <c r="T92" s="534" t="s">
+      <c r="Q92" s="535"/>
+      <c r="R92" s="535"/>
+      <c r="S92" s="536"/>
+      <c r="T92" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="U92" s="535"/>
-      <c r="V92" s="534" t="s">
+      <c r="U92" s="541"/>
+      <c r="V92" s="540" t="s">
         <v>544</v>
       </c>
-      <c r="W92" s="536"/>
-      <c r="X92" s="536"/>
-      <c r="Y92" s="535"/>
+      <c r="W92" s="542"/>
+      <c r="X92" s="542"/>
+      <c r="Y92" s="541"/>
       <c r="Z92" s="377" t="s">
         <v>556</v>
       </c>
@@ -32464,6 +32464,26 @@
     <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:O92"/>
+    <mergeCell ref="P92:S92"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:O90"/>
+    <mergeCell ref="P90:S90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="V90:Y90"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:Y44"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:Y42"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="H4:K4"/>
@@ -32474,26 +32494,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:Y44"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:O90"/>
-    <mergeCell ref="P90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:Y90"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:O92"/>
-    <mergeCell ref="P92:S92"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="V92:Y92"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -32639,12 +32639,12 @@
       <c r="I5" s="127"/>
       <c r="J5" s="127"/>
       <c r="K5" s="127"/>
-      <c r="L5" s="540" t="s">
+      <c r="L5" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="541"/>
-      <c r="N5" s="541"/>
-      <c r="O5" s="542"/>
+      <c r="M5" s="532"/>
+      <c r="N5" s="532"/>
+      <c r="O5" s="533"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60" t="s">
         <v>87</v>
@@ -32675,12 +32675,12 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-      <c r="L6" s="534" t="s">
+      <c r="L6" s="540" t="s">
         <v>544</v>
       </c>
-      <c r="M6" s="536"/>
-      <c r="N6" s="536"/>
-      <c r="O6" s="535"/>
+      <c r="M6" s="542"/>
+      <c r="N6" s="542"/>
+      <c r="O6" s="541"/>
       <c r="P6" s="377" t="s">
         <v>556</v>
       </c>
@@ -33566,23 +33566,23 @@
       <c r="K33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L33" s="540" t="s">
+      <c r="L33" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M33" s="541"/>
-      <c r="N33" s="541"/>
-      <c r="O33" s="542"/>
+      <c r="M33" s="532"/>
+      <c r="N33" s="532"/>
+      <c r="O33" s="533"/>
     </row>
     <row r="34" spans="8:15" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="534" t="s">
+      <c r="L34" s="540" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="536"/>
-      <c r="N34" s="536"/>
-      <c r="O34" s="535"/>
+      <c r="M34" s="542"/>
+      <c r="N34" s="542"/>
+      <c r="O34" s="541"/>
     </row>
     <row r="35" spans="8:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
@@ -33929,11 +33929,11 @@
       </c>
       <c r="I4" s="538"/>
       <c r="J4" s="539"/>
-      <c r="K4" s="540" t="s">
+      <c r="K4" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="541"/>
-      <c r="M4" s="542"/>
+      <c r="L4" s="532"/>
+      <c r="M4" s="533"/>
       <c r="N4" s="60"/>
       <c r="O4" s="60" t="s">
         <v>87</v>
@@ -33959,16 +33959,16 @@
       <c r="G5" s="385" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="546" t="s">
+      <c r="H5" s="543" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="546" t="s">
+      <c r="I5" s="544"/>
+      <c r="J5" s="545"/>
+      <c r="K5" s="543" t="s">
         <v>333</v>
       </c>
-      <c r="L5" s="547"/>
-      <c r="M5" s="548"/>
+      <c r="L5" s="544"/>
+      <c r="M5" s="545"/>
       <c r="N5" s="386" t="s">
         <v>92</v>
       </c>
@@ -33985,23 +33985,23 @@
         <v>218</v>
       </c>
       <c r="AA5" s="208"/>
-      <c r="AB5" s="543" t="s">
+      <c r="AB5" s="546" t="s">
         <v>586</v>
       </c>
-      <c r="AC5" s="543"/>
+      <c r="AC5" s="546"/>
       <c r="AD5" s="388"/>
-      <c r="AE5" s="544" t="s">
+      <c r="AE5" s="547" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="544"/>
-      <c r="AG5" s="544" t="s">
+      <c r="AF5" s="547"/>
+      <c r="AG5" s="547" t="s">
         <v>587</v>
       </c>
-      <c r="AH5" s="544"/>
-      <c r="AI5" s="545" t="s">
+      <c r="AH5" s="547"/>
+      <c r="AI5" s="548" t="s">
         <v>588</v>
       </c>
-      <c r="AJ5" s="545"/>
+      <c r="AJ5" s="548"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C6" s="432" t="str">
@@ -34739,12 +34739,12 @@
       <c r="K27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L27" s="540" t="s">
+      <c r="L27" s="531" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="541"/>
-      <c r="N27" s="541"/>
-      <c r="O27" s="542"/>
+      <c r="M27" s="532"/>
+      <c r="N27" s="532"/>
+      <c r="O27" s="533"/>
       <c r="T27" s="210"/>
       <c r="U27" s="210"/>
     </row>
@@ -34752,12 +34752,12 @@
       <c r="J28" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="L28" s="531" t="s">
+      <c r="L28" s="534" t="s">
         <v>91</v>
       </c>
-      <c r="M28" s="532"/>
-      <c r="N28" s="532"/>
-      <c r="O28" s="533"/>
+      <c r="M28" s="535"/>
+      <c r="N28" s="535"/>
+      <c r="O28" s="536"/>
       <c r="T28" s="210"/>
       <c r="U28" s="210"/>
     </row>
@@ -36147,16 +36147,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="L28:O28"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S7" r:id="rId1" xr:uid="{B1EDD63D-40A5-4174-9D28-8666BD314B83}"/>
@@ -36587,103 +36587,103 @@
       <c r="C4" s="283" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="550" t="s">
+      <c r="D4" s="549" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="549"/>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549"/>
+      <c r="E4" s="550"/>
+      <c r="F4" s="550"/>
+      <c r="G4" s="550"/>
       <c r="H4" s="551"/>
-      <c r="I4" s="549" t="s">
+      <c r="I4" s="550" t="s">
         <v>344</v>
       </c>
-      <c r="J4" s="549"/>
-      <c r="K4" s="549"/>
-      <c r="L4" s="549"/>
+      <c r="J4" s="550"/>
+      <c r="K4" s="550"/>
+      <c r="L4" s="550"/>
       <c r="M4" s="551"/>
-      <c r="N4" s="549" t="s">
+      <c r="N4" s="550" t="s">
         <v>345</v>
       </c>
-      <c r="O4" s="549"/>
-      <c r="P4" s="549"/>
-      <c r="Q4" s="549"/>
+      <c r="O4" s="550"/>
+      <c r="P4" s="550"/>
+      <c r="Q4" s="550"/>
       <c r="R4" s="551"/>
-      <c r="S4" s="549" t="s">
+      <c r="S4" s="550" t="s">
         <v>346</v>
       </c>
-      <c r="T4" s="549"/>
-      <c r="U4" s="549"/>
-      <c r="V4" s="549"/>
+      <c r="T4" s="550"/>
+      <c r="U4" s="550"/>
+      <c r="V4" s="550"/>
       <c r="W4" s="551"/>
-      <c r="X4" s="549" t="s">
+      <c r="X4" s="550" t="s">
         <v>347</v>
       </c>
-      <c r="Y4" s="549"/>
-      <c r="Z4" s="549"/>
-      <c r="AA4" s="549"/>
+      <c r="Y4" s="550"/>
+      <c r="Z4" s="550"/>
+      <c r="AA4" s="550"/>
       <c r="AB4" s="551"/>
-      <c r="AC4" s="549" t="s">
+      <c r="AC4" s="550" t="s">
         <v>348</v>
       </c>
-      <c r="AD4" s="549"/>
-      <c r="AE4" s="549"/>
-      <c r="AF4" s="549"/>
+      <c r="AD4" s="550"/>
+      <c r="AE4" s="550"/>
+      <c r="AF4" s="550"/>
       <c r="AG4" s="551"/>
-      <c r="AH4" s="549" t="s">
+      <c r="AH4" s="550" t="s">
         <v>349</v>
       </c>
-      <c r="AI4" s="549"/>
-      <c r="AJ4" s="549"/>
-      <c r="AK4" s="549"/>
+      <c r="AI4" s="550"/>
+      <c r="AJ4" s="550"/>
+      <c r="AK4" s="550"/>
       <c r="AL4" s="551"/>
-      <c r="AM4" s="549" t="s">
+      <c r="AM4" s="550" t="s">
         <v>350</v>
       </c>
-      <c r="AN4" s="549"/>
-      <c r="AO4" s="549"/>
-      <c r="AP4" s="549"/>
+      <c r="AN4" s="550"/>
+      <c r="AO4" s="550"/>
+      <c r="AP4" s="550"/>
       <c r="AQ4" s="551"/>
-      <c r="AR4" s="549" t="s">
+      <c r="AR4" s="550" t="s">
         <v>351</v>
       </c>
-      <c r="AS4" s="549"/>
-      <c r="AT4" s="549"/>
-      <c r="AU4" s="549"/>
+      <c r="AS4" s="550"/>
+      <c r="AT4" s="550"/>
+      <c r="AU4" s="550"/>
       <c r="AV4" s="551"/>
-      <c r="AW4" s="549" t="s">
+      <c r="AW4" s="550" t="s">
         <v>352</v>
       </c>
-      <c r="AX4" s="549"/>
-      <c r="AY4" s="549"/>
-      <c r="AZ4" s="549"/>
-      <c r="BA4" s="549"/>
-      <c r="BB4" s="550" t="s">
+      <c r="AX4" s="550"/>
+      <c r="AY4" s="550"/>
+      <c r="AZ4" s="550"/>
+      <c r="BA4" s="550"/>
+      <c r="BB4" s="549" t="s">
         <v>353</v>
       </c>
-      <c r="BC4" s="549"/>
-      <c r="BD4" s="549"/>
-      <c r="BE4" s="549"/>
+      <c r="BC4" s="550"/>
+      <c r="BD4" s="550"/>
+      <c r="BE4" s="550"/>
       <c r="BF4" s="551"/>
-      <c r="BG4" s="549" t="s">
+      <c r="BG4" s="550" t="s">
         <v>354</v>
       </c>
-      <c r="BH4" s="549"/>
-      <c r="BI4" s="549"/>
-      <c r="BJ4" s="549"/>
-      <c r="BK4" s="549"/>
-      <c r="BL4" s="550" t="s">
+      <c r="BH4" s="550"/>
+      <c r="BI4" s="550"/>
+      <c r="BJ4" s="550"/>
+      <c r="BK4" s="550"/>
+      <c r="BL4" s="549" t="s">
         <v>355</v>
       </c>
-      <c r="BM4" s="549"/>
-      <c r="BN4" s="549"/>
-      <c r="BO4" s="549"/>
-      <c r="BP4" s="549"/>
-      <c r="BQ4" s="550" t="s">
+      <c r="BM4" s="550"/>
+      <c r="BN4" s="550"/>
+      <c r="BO4" s="550"/>
+      <c r="BP4" s="550"/>
+      <c r="BQ4" s="549" t="s">
         <v>356</v>
       </c>
-      <c r="BR4" s="549"/>
-      <c r="BS4" s="549"/>
-      <c r="BT4" s="549"/>
+      <c r="BR4" s="550"/>
+      <c r="BS4" s="550"/>
+      <c r="BT4" s="550"/>
       <c r="BU4" s="551"/>
       <c r="BV4" s="284" t="s">
         <v>357</v>
@@ -50277,11 +50277,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="BL4:BP4"/>
-    <mergeCell ref="BQ4:BU4"/>
-    <mergeCell ref="BW4:CA4"/>
-    <mergeCell ref="CB4:CF4"/>
-    <mergeCell ref="CG4:CK4"/>
     <mergeCell ref="BG4:BK4"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
@@ -50294,6 +50289,11 @@
     <mergeCell ref="AR4:AV4"/>
     <mergeCell ref="AW4:BA4"/>
     <mergeCell ref="BB4:BF4"/>
+    <mergeCell ref="BL4:BP4"/>
+    <mergeCell ref="BQ4:BU4"/>
+    <mergeCell ref="BW4:CA4"/>
+    <mergeCell ref="CB4:CF4"/>
+    <mergeCell ref="CG4:CK4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -50316,23 +50316,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="556" t="s">
         <v>630</v>
       </c>
-      <c r="B1" s="560" t="s">
+      <c r="B1" s="558" t="s">
         <v>631</v>
       </c>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="560" t="s">
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="560"/>
+      <c r="G1" s="558" t="s">
         <v>632</v>
       </c>
-      <c r="H1" s="561"/>
-      <c r="I1" s="561"/>
-      <c r="J1" s="561"/>
-      <c r="K1" s="562"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
+      <c r="K1" s="560"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -50342,7 +50342,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="559"/>
+      <c r="A2" s="557"/>
       <c r="B2" s="454" t="s">
         <v>276</v>
       </c>
@@ -51835,11 +51835,11 @@
       <c r="Y48" t="s">
         <v>681</v>
       </c>
-      <c r="Z48" s="556" t="s">
+      <c r="Z48" s="561" t="s">
         <v>619</v>
       </c>
-      <c r="AA48" s="557"/>
-      <c r="AB48" s="557"/>
+      <c r="AA48" s="562"/>
+      <c r="AB48" s="562"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
@@ -52056,11 +52056,11 @@
       <c r="Y53" t="s">
         <v>683</v>
       </c>
-      <c r="Z53" s="556" t="s">
+      <c r="Z53" s="561" t="s">
         <v>618</v>
       </c>
-      <c r="AA53" s="557"/>
-      <c r="AB53" s="557"/>
+      <c r="AA53" s="562"/>
+      <c r="AB53" s="562"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
@@ -52262,11 +52262,11 @@
       <c r="Y59" t="s">
         <v>684</v>
       </c>
-      <c r="Z59" s="556" t="s">
+      <c r="Z59" s="561" t="s">
         <v>685</v>
       </c>
-      <c r="AA59" s="557"/>
-      <c r="AB59" s="557"/>
+      <c r="AA59" s="562"/>
+      <c r="AB59" s="562"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" s="474" t="str">
@@ -53103,17 +53103,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="Z48:AB48"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="Z48:AB48"/>
   </mergeCells>
   <phoneticPr fontId="54" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
